--- a/02_config/example_single_market/agents.xlsx
+++ b/02_config/example_single_market/agents.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="339">
   <si>
     <t>general/agent_id</t>
   </si>
@@ -51,139 +51,139 @@
     <t>general/market_participant</t>
   </si>
   <si>
-    <t>inflexible_load/owner</t>
-  </si>
-  <si>
-    <t>inflexible_load/num</t>
-  </si>
-  <si>
-    <t>inflexible_load/sizing/demand_0</t>
-  </si>
-  <si>
-    <t>inflexible_load/sizing/file_0</t>
-  </si>
-  <si>
-    <t>inflexible_load/fcast/method</t>
-  </si>
-  <si>
-    <t>inflexible_load/fcast/naive/offset</t>
-  </si>
-  <si>
-    <t>inflexible_load/fcast/average/offset</t>
-  </si>
-  <si>
-    <t>inflexible_load/fcast/average/days</t>
-  </si>
-  <si>
-    <t>inflexible_load/fcast/smoothed/steps</t>
-  </si>
-  <si>
-    <t>inflexible_load/fcast/sarma/order</t>
-  </si>
-  <si>
-    <t>inflexible_load/fcast/cnn/features</t>
-  </si>
-  <si>
-    <t>inflexible_load/fcast/cnn/days</t>
-  </si>
-  <si>
-    <t>inflexible_load/fcast/cnn/epoch</t>
-  </si>
-  <si>
-    <t>inflexible_load/fcast/cnn/window_length</t>
-  </si>
-  <si>
-    <t>inflexible_load/fcast/rnn/features</t>
-  </si>
-  <si>
-    <t>inflexible_load/fcast/rnn/days</t>
-  </si>
-  <si>
-    <t>inflexible_load/fcast/rnn/epoch</t>
-  </si>
-  <si>
-    <t>inflexible_load/fcast/rnn/window_length</t>
-  </si>
-  <si>
-    <t>inflexible_load/fcast/rfr/features</t>
-  </si>
-  <si>
-    <t>inflexible_load/fcast/rfr/days</t>
-  </si>
-  <si>
-    <t>inflexible_load/fcast/arima/order</t>
-  </si>
-  <si>
-    <t>inflexible_load/fcast/arima/days</t>
-  </si>
-  <si>
-    <t>flexible_load/owner</t>
-  </si>
-  <si>
-    <t>flexible_load/num</t>
-  </si>
-  <si>
-    <t>flexible_load/sizing/demand_0</t>
-  </si>
-  <si>
-    <t>flexible_load/sizing/file_0</t>
-  </si>
-  <si>
-    <t>flexible_load/sizing/time_offset_0</t>
-  </si>
-  <si>
-    <t>flexible_load/fcast/method</t>
-  </si>
-  <si>
-    <t>flexible_load/fcast/naive/offset</t>
-  </si>
-  <si>
-    <t>flexible_load/fcast/average/offset</t>
-  </si>
-  <si>
-    <t>flexible_load/fcast/average/days</t>
-  </si>
-  <si>
-    <t>flexible_load/fcast/smoothed/steps</t>
-  </si>
-  <si>
-    <t>flexible_load/fcast/sarma/order</t>
-  </si>
-  <si>
-    <t>flexible_load/fcast/cnn/features</t>
-  </si>
-  <si>
-    <t>flexible_load/fcast/cnn/days</t>
-  </si>
-  <si>
-    <t>flexible_load/fcast/cnn/epoch</t>
-  </si>
-  <si>
-    <t>flexible_load/fcast/cnn/window_length</t>
-  </si>
-  <si>
-    <t>flexible_load/fcast/rnn/features</t>
-  </si>
-  <si>
-    <t>flexible_load/fcast/rnn/days</t>
-  </si>
-  <si>
-    <t>flexible_load/fcast/rnn/epoch</t>
-  </si>
-  <si>
-    <t>flexible_load/fcast/rnn/window_length</t>
-  </si>
-  <si>
-    <t>flexible_load/fcast/rfr/features</t>
-  </si>
-  <si>
-    <t>flexible_load/fcast/rfr/days</t>
-  </si>
-  <si>
-    <t>flexible_load/fcast/arima/order</t>
-  </si>
-  <si>
-    <t>flexible_load/fcast/arima/days</t>
+    <t>inflexible-load/owner</t>
+  </si>
+  <si>
+    <t>inflexible-load/num</t>
+  </si>
+  <si>
+    <t>inflexible-load/sizing/demand_0</t>
+  </si>
+  <si>
+    <t>inflexible-load/sizing/file_0</t>
+  </si>
+  <si>
+    <t>inflexible-load/fcast/method</t>
+  </si>
+  <si>
+    <t>inflexible-load/fcast/naive/offset</t>
+  </si>
+  <si>
+    <t>inflexible-load/fcast/average/offset</t>
+  </si>
+  <si>
+    <t>inflexible-load/fcast/average/days</t>
+  </si>
+  <si>
+    <t>inflexible-load/fcast/smoothed/steps</t>
+  </si>
+  <si>
+    <t>inflexible-load/fcast/sarma/order</t>
+  </si>
+  <si>
+    <t>inflexible-load/fcast/cnn/features</t>
+  </si>
+  <si>
+    <t>inflexible-load/fcast/cnn/days</t>
+  </si>
+  <si>
+    <t>inflexible-load/fcast/cnn/epoch</t>
+  </si>
+  <si>
+    <t>inflexible-load/fcast/cnn/window_length</t>
+  </si>
+  <si>
+    <t>inflexible-load/fcast/rnn/features</t>
+  </si>
+  <si>
+    <t>inflexible-load/fcast/rnn/days</t>
+  </si>
+  <si>
+    <t>inflexible-load/fcast/rnn/epoch</t>
+  </si>
+  <si>
+    <t>inflexible-load/fcast/rnn/window_length</t>
+  </si>
+  <si>
+    <t>inflexible-load/fcast/rfr/features</t>
+  </si>
+  <si>
+    <t>inflexible-load/fcast/rfr/days</t>
+  </si>
+  <si>
+    <t>inflexible-load/fcast/arima/order</t>
+  </si>
+  <si>
+    <t>inflexible-load/fcast/arima/days</t>
+  </si>
+  <si>
+    <t>flexible-load/owner</t>
+  </si>
+  <si>
+    <t>flexible-load/num</t>
+  </si>
+  <si>
+    <t>flexible-load/sizing/demand_0</t>
+  </si>
+  <si>
+    <t>flexible-load/sizing/file_0</t>
+  </si>
+  <si>
+    <t>flexible-load/sizing/time_offset_0</t>
+  </si>
+  <si>
+    <t>flexible-load/fcast/method</t>
+  </si>
+  <si>
+    <t>flexible-load/fcast/naive/offset</t>
+  </si>
+  <si>
+    <t>flexible-load/fcast/average/offset</t>
+  </si>
+  <si>
+    <t>flexible-load/fcast/average/days</t>
+  </si>
+  <si>
+    <t>flexible-load/fcast/smoothed/steps</t>
+  </si>
+  <si>
+    <t>flexible-load/fcast/sarma/order</t>
+  </si>
+  <si>
+    <t>flexible-load/fcast/cnn/features</t>
+  </si>
+  <si>
+    <t>flexible-load/fcast/cnn/days</t>
+  </si>
+  <si>
+    <t>flexible-load/fcast/cnn/epoch</t>
+  </si>
+  <si>
+    <t>flexible-load/fcast/cnn/window_length</t>
+  </si>
+  <si>
+    <t>flexible-load/fcast/rnn/features</t>
+  </si>
+  <si>
+    <t>flexible-load/fcast/rnn/days</t>
+  </si>
+  <si>
+    <t>flexible-load/fcast/rnn/epoch</t>
+  </si>
+  <si>
+    <t>flexible-load/fcast/rnn/window_length</t>
+  </si>
+  <si>
+    <t>flexible-load/fcast/rfr/features</t>
+  </si>
+  <si>
+    <t>flexible-load/fcast/rfr/days</t>
+  </si>
+  <si>
+    <t>flexible-load/fcast/arima/order</t>
+  </si>
+  <si>
+    <t>flexible-load/fcast/arima/days</t>
   </si>
   <si>
     <t>heat/owner</t>
@@ -471,76 +471,76 @@
     <t>wind/quality</t>
   </si>
   <si>
-    <t>fixed_gen/owner</t>
-  </si>
-  <si>
-    <t>fixed_gen/num</t>
-  </si>
-  <si>
-    <t>fixed_gen/sizing/power_0</t>
-  </si>
-  <si>
-    <t>fixed_gen/sizing/file_0</t>
-  </si>
-  <si>
-    <t>fixed_gen/sizing/controllable_0</t>
-  </si>
-  <si>
-    <t>fixed_gen/fcast/method</t>
-  </si>
-  <si>
-    <t>fixed_gen/fcast/naive/offset</t>
-  </si>
-  <si>
-    <t>fixed_gen/fcast/average/offset</t>
-  </si>
-  <si>
-    <t>fixed_gen/fcast/average/days</t>
-  </si>
-  <si>
-    <t>fixed_gen/fcast/smoothed/steps</t>
-  </si>
-  <si>
-    <t>fixed_gen/fcast/sarma/order</t>
-  </si>
-  <si>
-    <t>fixed_gen/fcast/cnn/features</t>
-  </si>
-  <si>
-    <t>fixed_gen/fcast/cnn/days</t>
-  </si>
-  <si>
-    <t>fixed_gen/fcast/cnn/epoch</t>
-  </si>
-  <si>
-    <t>fixed_gen/fcast/cnn/window_length</t>
-  </si>
-  <si>
-    <t>fixed_gen/fcast/rnn/features</t>
-  </si>
-  <si>
-    <t>fixed_gen/fcast/rnn/days</t>
-  </si>
-  <si>
-    <t>fixed_gen/fcast/rnn/epoch</t>
-  </si>
-  <si>
-    <t>fixed_gen/fcast/rnn/window_length</t>
-  </si>
-  <si>
-    <t>fixed_gen/fcast/rfr/features</t>
-  </si>
-  <si>
-    <t>fixed_gen/fcast/rfr/days</t>
-  </si>
-  <si>
-    <t>fixed_gen/fcast/arima/order</t>
-  </si>
-  <si>
-    <t>fixed_gen/fcast/arima/days</t>
-  </si>
-  <si>
-    <t>fixed_gen/quality</t>
+    <t>fixed-gen/owner</t>
+  </si>
+  <si>
+    <t>fixed-gen/num</t>
+  </si>
+  <si>
+    <t>fixed-gen/sizing/power_0</t>
+  </si>
+  <si>
+    <t>fixed-gen/sizing/file_0</t>
+  </si>
+  <si>
+    <t>fixed-gen/sizing/controllable_0</t>
+  </si>
+  <si>
+    <t>fixed-gen/fcast/method</t>
+  </si>
+  <si>
+    <t>fixed-gen/fcast/naive/offset</t>
+  </si>
+  <si>
+    <t>fixed-gen/fcast/average/offset</t>
+  </si>
+  <si>
+    <t>fixed-gen/fcast/average/days</t>
+  </si>
+  <si>
+    <t>fixed-gen/fcast/smoothed/steps</t>
+  </si>
+  <si>
+    <t>fixed-gen/fcast/sarma/order</t>
+  </si>
+  <si>
+    <t>fixed-gen/fcast/cnn/features</t>
+  </si>
+  <si>
+    <t>fixed-gen/fcast/cnn/days</t>
+  </si>
+  <si>
+    <t>fixed-gen/fcast/cnn/epoch</t>
+  </si>
+  <si>
+    <t>fixed-gen/fcast/cnn/window_length</t>
+  </si>
+  <si>
+    <t>fixed-gen/fcast/rnn/features</t>
+  </si>
+  <si>
+    <t>fixed-gen/fcast/rnn/days</t>
+  </si>
+  <si>
+    <t>fixed-gen/fcast/rnn/epoch</t>
+  </si>
+  <si>
+    <t>fixed-gen/fcast/rnn/window_length</t>
+  </si>
+  <si>
+    <t>fixed-gen/fcast/rfr/features</t>
+  </si>
+  <si>
+    <t>fixed-gen/fcast/rfr/days</t>
+  </si>
+  <si>
+    <t>fixed-gen/fcast/arima/order</t>
+  </si>
+  <si>
+    <t>fixed-gen/fcast/arima/days</t>
+  </si>
+  <si>
+    <t>fixed-gen/quality</t>
   </si>
   <si>
     <t>hp/owner</t>
@@ -555,6 +555,60 @@
     <t>hp/sizing/file_0</t>
   </si>
   <si>
+    <t>hp/fcast/method</t>
+  </si>
+  <si>
+    <t>hp/fcast/naive/offset</t>
+  </si>
+  <si>
+    <t>hp/fcast/average/offset</t>
+  </si>
+  <si>
+    <t>hp/fcast/average/days</t>
+  </si>
+  <si>
+    <t>hp/fcast/smoothed/steps</t>
+  </si>
+  <si>
+    <t>hp/fcast/sarma/order</t>
+  </si>
+  <si>
+    <t>hp/fcast/cnn/features</t>
+  </si>
+  <si>
+    <t>hp/fcast/cnn/days</t>
+  </si>
+  <si>
+    <t>hp/fcast/cnn/epoch</t>
+  </si>
+  <si>
+    <t>hp/fcast/cnn/window_length</t>
+  </si>
+  <si>
+    <t>hp/fcast/rnn/features</t>
+  </si>
+  <si>
+    <t>hp/fcast/rnn/days</t>
+  </si>
+  <si>
+    <t>hp/fcast/rnn/epoch</t>
+  </si>
+  <si>
+    <t>hp/fcast/rnn/window_length</t>
+  </si>
+  <si>
+    <t>hp/fcast/rfr/features</t>
+  </si>
+  <si>
+    <t>hp/fcast/rfr/days</t>
+  </si>
+  <si>
+    <t>hp/fcast/arima/order</t>
+  </si>
+  <si>
+    <t>hp/fcast/arima/days</t>
+  </si>
+  <si>
     <t>hp/quality</t>
   </si>
   <si>
@@ -669,25 +723,25 @@
     <t>battery/quality</t>
   </si>
   <si>
-    <t>heat_storage/owner</t>
-  </si>
-  <si>
-    <t>heat_storage/num</t>
-  </si>
-  <si>
-    <t>heat_storage/sizing/power_0</t>
-  </si>
-  <si>
-    <t>heat_storage/sizing/capacity_0</t>
-  </si>
-  <si>
-    <t>heat_storage/sizing/efficiency_0</t>
-  </si>
-  <si>
-    <t>heat_storage/sizing/soc_0</t>
-  </si>
-  <si>
-    <t>heat_storage/quality</t>
+    <t>heat-storage/owner</t>
+  </si>
+  <si>
+    <t>heat-storage/num</t>
+  </si>
+  <si>
+    <t>heat-storage/sizing/power_0</t>
+  </si>
+  <si>
+    <t>heat-storage/sizing/capacity_0</t>
+  </si>
+  <si>
+    <t>heat-storage/sizing/efficiency_0</t>
+  </si>
+  <si>
+    <t>heat-storage/sizing/soc_0</t>
+  </si>
+  <si>
+    <t>heat-storage/quality</t>
   </si>
   <si>
     <t>ems/controller/rtc/method</t>
@@ -741,55 +795,55 @@
     <t>ems/fcasts/update</t>
   </si>
   <si>
-    <t>6amLPGSnTedGjou</t>
-  </si>
-  <si>
-    <t>gQ7Sq3ucg78n4e2</t>
-  </si>
-  <si>
-    <t>0O9n4HIGxRrV58t</t>
-  </si>
-  <si>
-    <t>khzFYYWbb9gU6bQ</t>
-  </si>
-  <si>
-    <t>42KvQZD9ht2Hf7I</t>
-  </si>
-  <si>
-    <t>KO0lC3dN9zUuBwS</t>
-  </si>
-  <si>
-    <t>W16FZ8BxcyuuvrL</t>
-  </si>
-  <si>
-    <t>9l37kMNMXWcA0Nm</t>
-  </si>
-  <si>
-    <t>JHwCQsEwLJG3EbF</t>
-  </si>
-  <si>
-    <t>wi68hZKelP3cqgt</t>
+    <t>o8RENvmIJHHNd1l</t>
+  </si>
+  <si>
+    <t>I90EqWRtDwkBV26</t>
+  </si>
+  <si>
+    <t>A0hRymeCrOZSb8w</t>
+  </si>
+  <si>
+    <t>FOSMD7SSeMwEjUC</t>
+  </si>
+  <si>
+    <t>67aIDazktWn6yzC</t>
+  </si>
+  <si>
+    <t>vMMDGls8ojIM2vT</t>
+  </si>
+  <si>
+    <t>ypY3kBiRXLP0Gfn</t>
+  </si>
+  <si>
+    <t>HqZsrPIjCXt8ECE</t>
+  </si>
+  <si>
+    <t>dEY0eRjw9O27gIv</t>
+  </si>
+  <si>
+    <t>SekGK0Bo2wtyeck</t>
+  </si>
+  <si>
+    <t>hh_4536_0.csv</t>
+  </si>
+  <si>
+    <t>hh_2896_0.csv</t>
   </si>
   <si>
     <t>hh_5527_0.csv</t>
   </si>
   <si>
+    <t>hh_3648_0.csv</t>
+  </si>
+  <si>
+    <t>hh_3125_0.csv</t>
+  </si>
+  <si>
     <t>hh_4402_0.csv</t>
   </si>
   <si>
-    <t>hh_2959_0.csv</t>
-  </si>
-  <si>
-    <t>hh_3296_0.csv</t>
-  </si>
-  <si>
-    <t>hh_3125_0.csv</t>
-  </si>
-  <si>
-    <t>hh_3564_0.csv</t>
-  </si>
-  <si>
-    <t>hh_2687_0.csv</t>
+    <t>hh_2532_0.csv</t>
   </si>
   <si>
     <t>perfect</t>
@@ -807,6 +861,33 @@
     <t>rfr</t>
   </si>
   <si>
+    <t>heat_4536_0.csv</t>
+  </si>
+  <si>
+    <t>heat_2896_0.csv</t>
+  </si>
+  <si>
+    <t>heat_5527_0.csv</t>
+  </si>
+  <si>
+    <t>heat_3648_0.csv</t>
+  </si>
+  <si>
+    <t>heat_gen_1_pu.csv</t>
+  </si>
+  <si>
+    <t>heat_3125_0.csv</t>
+  </si>
+  <si>
+    <t>heat_gen_2_pu.csv</t>
+  </si>
+  <si>
+    <t>heat_4402_0.csv</t>
+  </si>
+  <si>
+    <t>heat_gen_5_pu.csv</t>
+  </si>
+  <si>
     <t>naive</t>
   </si>
   <si>
@@ -825,19 +906,28 @@
     <t>local</t>
   </si>
   <si>
-    <t>ev_fulltime_43.csv</t>
+    <t>hp_Bosch Thermotechnik_air.json</t>
+  </si>
+  <si>
+    <t>hp_DAIKIN Europe_ground.json</t>
+  </si>
+  <si>
+    <t>ev_freetime_1.csv</t>
+  </si>
+  <si>
+    <t>ev_freetime_2.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_48.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_46.csv</t>
   </si>
   <si>
     <t>ev_freetime_3.csv</t>
   </si>
   <si>
-    <t>ev_parttime_88.csv</t>
-  </si>
-  <si>
     <t>ev_parttime_89.csv</t>
-  </si>
-  <si>
-    <t>ev_fulltime_48.csv</t>
   </si>
   <si>
     <t>min_soc</t>
@@ -1303,13 +1393,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IG11"/>
+  <dimension ref="A1:IY11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:241">
+    <row r="1" spans="1:259">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2030,13 +2120,67 @@
       <c r="IG1" s="1" t="s">
         <v>239</v>
       </c>
+      <c r="IH1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="II1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="IJ1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="IK1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="IL1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="IM1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="IN1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="IO1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="IP1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="IQ1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="IR1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="IS1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="IT1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="IU1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="IV1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="IW1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="IX1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="IY1" s="1" t="s">
+        <v>257</v>
+      </c>
     </row>
-    <row r="2" spans="1:241">
+    <row r="2" spans="1:259">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -2063,13 +2207,13 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>5527000</v>
+        <v>4536000</v>
       </c>
       <c r="O2" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="P2" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -2084,10 +2228,10 @@
         <v>9</v>
       </c>
       <c r="U2" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="V2" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="W2">
         <v>3</v>
@@ -2099,7 +2243,7 @@
         <v>20</v>
       </c>
       <c r="Z2" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AA2">
         <v>3</v>
@@ -2111,13 +2255,13 @@
         <v>20</v>
       </c>
       <c r="AD2" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AE2">
         <v>3</v>
       </c>
       <c r="AF2" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="AG2">
         <v>3</v>
@@ -2132,7 +2276,7 @@
         <v>6</v>
       </c>
       <c r="AM2" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="AN2">
         <v>1</v>
@@ -2147,10 +2291,10 @@
         <v>9</v>
       </c>
       <c r="AR2" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="AS2" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AT2">
         <v>3</v>
@@ -2162,7 +2306,7 @@
         <v>20</v>
       </c>
       <c r="AW2" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AX2">
         <v>3</v>
@@ -2174,25 +2318,34 @@
         <v>20</v>
       </c>
       <c r="BA2" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="BB2">
         <v>3</v>
       </c>
       <c r="BC2" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="BD2">
         <v>3</v>
       </c>
       <c r="BE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BG2">
+        <v>19500000</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>280</v>
+      </c>
+      <c r="BI2">
+        <v>35</v>
       </c>
       <c r="BJ2" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="BK2">
         <v>1</v>
@@ -2207,10 +2360,10 @@
         <v>9</v>
       </c>
       <c r="BO2" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="BP2" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="BQ2">
         <v>3</v>
@@ -2222,7 +2375,7 @@
         <v>20</v>
       </c>
       <c r="BT2" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="BU2">
         <v>3</v>
@@ -2234,13 +2387,13 @@
         <v>20</v>
       </c>
       <c r="BX2" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="BY2">
         <v>3</v>
       </c>
       <c r="BZ2" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="CA2">
         <v>0</v>
@@ -2249,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="CF2" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="CG2">
         <v>1</v>
@@ -2264,10 +2417,10 @@
         <v>9</v>
       </c>
       <c r="CK2" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="CL2" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="CM2">
         <v>3</v>
@@ -2279,7 +2432,7 @@
         <v>20</v>
       </c>
       <c r="CP2" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="CQ2">
         <v>3</v>
@@ -2291,13 +2444,13 @@
         <v>20</v>
       </c>
       <c r="CT2" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="CU2">
         <v>3</v>
       </c>
       <c r="CV2" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="CW2">
         <v>3</v>
@@ -2309,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="DE2" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="DF2">
         <v>1</v>
@@ -2324,10 +2477,10 @@
         <v>9</v>
       </c>
       <c r="DJ2" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="DK2" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="DL2">
         <v>3</v>
@@ -2339,7 +2492,7 @@
         <v>20</v>
       </c>
       <c r="DO2" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="DP2">
         <v>3</v>
@@ -2351,19 +2504,19 @@
         <v>20</v>
       </c>
       <c r="DS2" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="DT2">
         <v>3</v>
       </c>
       <c r="DU2" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="DV2">
         <v>3</v>
       </c>
       <c r="DW2" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="DX2">
         <v>0</v>
@@ -2372,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="EC2" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="ED2">
         <v>1</v>
@@ -2387,10 +2540,10 @@
         <v>9</v>
       </c>
       <c r="EH2" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="EI2" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="EJ2">
         <v>3</v>
@@ -2402,7 +2555,7 @@
         <v>20</v>
       </c>
       <c r="EM2" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="EN2">
         <v>3</v>
@@ -2414,19 +2567,19 @@
         <v>20</v>
       </c>
       <c r="EQ2" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="ER2">
         <v>3</v>
       </c>
       <c r="ES2" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="ET2">
         <v>3</v>
       </c>
       <c r="EU2" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="EV2">
         <v>0</v>
@@ -2435,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="FA2" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="FB2">
         <v>1</v>
@@ -2450,222 +2603,294 @@
         <v>9</v>
       </c>
       <c r="FF2" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="FG2" t="s">
+        <v>277</v>
+      </c>
+      <c r="FH2">
+        <v>3</v>
+      </c>
+      <c r="FI2">
+        <v>20</v>
+      </c>
+      <c r="FJ2">
+        <v>20</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>277</v>
+      </c>
+      <c r="FL2">
+        <v>3</v>
+      </c>
+      <c r="FM2">
+        <v>20</v>
+      </c>
+      <c r="FN2">
+        <v>20</v>
+      </c>
+      <c r="FO2" t="s">
+        <v>277</v>
+      </c>
+      <c r="FP2">
+        <v>3</v>
+      </c>
+      <c r="FQ2" t="s">
+        <v>278</v>
+      </c>
+      <c r="FR2">
+        <v>3</v>
+      </c>
+      <c r="FS2" t="s">
+        <v>294</v>
+      </c>
+      <c r="FT2">
+        <v>1</v>
+      </c>
+      <c r="FU2">
+        <v>1</v>
+      </c>
+      <c r="FV2">
+        <v>9800</v>
+      </c>
+      <c r="FW2" t="s">
+        <v>295</v>
+      </c>
+      <c r="FX2" t="s">
+        <v>275</v>
+      </c>
+      <c r="FY2">
+        <v>1</v>
+      </c>
+      <c r="FZ2">
+        <v>1</v>
+      </c>
+      <c r="GA2">
+        <v>2</v>
+      </c>
+      <c r="GB2">
+        <v>9</v>
+      </c>
+      <c r="GC2" t="s">
+        <v>276</v>
+      </c>
+      <c r="GD2" t="s">
+        <v>277</v>
+      </c>
+      <c r="GE2">
+        <v>3</v>
+      </c>
+      <c r="GF2">
+        <v>20</v>
+      </c>
+      <c r="GG2">
+        <v>20</v>
+      </c>
+      <c r="GH2" t="s">
+        <v>277</v>
+      </c>
+      <c r="GI2">
+        <v>3</v>
+      </c>
+      <c r="GJ2">
+        <v>20</v>
+      </c>
+      <c r="GK2">
+        <v>20</v>
+      </c>
+      <c r="GL2" t="s">
+        <v>277</v>
+      </c>
+      <c r="GM2">
+        <v>3</v>
+      </c>
+      <c r="GN2" t="s">
+        <v>278</v>
+      </c>
+      <c r="GO2">
+        <v>3</v>
+      </c>
+      <c r="GP2" t="s">
+        <v>294</v>
+      </c>
+      <c r="GQ2">
+        <v>1</v>
+      </c>
+      <c r="GR2">
+        <v>2</v>
+      </c>
+      <c r="GS2" t="s">
+        <v>297</v>
+      </c>
+      <c r="GT2">
+        <v>75000</v>
+      </c>
+      <c r="GU2">
+        <v>7200</v>
+      </c>
+      <c r="GV2">
+        <v>11000</v>
+      </c>
+      <c r="GW2">
+        <v>100000</v>
+      </c>
+      <c r="GX2">
+        <v>0.9</v>
+      </c>
+      <c r="GY2">
+        <v>0.8</v>
+      </c>
+      <c r="GZ2" t="b">
+        <v>0</v>
+      </c>
+      <c r="HA2" t="b">
+        <v>0</v>
+      </c>
+      <c r="HB2" t="s">
+        <v>302</v>
+      </c>
+      <c r="HC2">
+        <v>100000</v>
+      </c>
+      <c r="HD2">
+        <v>11000</v>
+      </c>
+      <c r="HE2">
+        <v>22000</v>
+      </c>
+      <c r="HF2">
+        <v>200000</v>
+      </c>
+      <c r="HG2">
+        <v>0.9</v>
+      </c>
+      <c r="HH2">
+        <v>0.8</v>
+      </c>
+      <c r="HI2" t="b">
+        <v>0</v>
+      </c>
+      <c r="HJ2" t="b">
+        <v>0</v>
+      </c>
+      <c r="HK2" t="s">
+        <v>303</v>
+      </c>
+      <c r="HL2">
+        <v>0.05</v>
+      </c>
+      <c r="HM2">
+        <v>0.5</v>
+      </c>
+      <c r="HN2">
+        <v>0.8</v>
+      </c>
+      <c r="HO2">
+        <v>8.5</v>
+      </c>
+      <c r="HP2" t="s">
+        <v>304</v>
+      </c>
+      <c r="HQ2" t="s">
+        <v>305</v>
+      </c>
+      <c r="HR2" t="s">
+        <v>294</v>
+      </c>
+      <c r="HS2">
+        <v>0</v>
+      </c>
+      <c r="HT2">
+        <v>0</v>
+      </c>
+      <c r="IA2" t="s">
+        <v>294</v>
+      </c>
+      <c r="IB2">
+        <v>1</v>
+      </c>
+      <c r="IC2">
+        <v>1</v>
+      </c>
+      <c r="ID2">
+        <v>9800</v>
+      </c>
+      <c r="IE2">
+        <v>19500</v>
+      </c>
+      <c r="IF2">
+        <v>0.95</v>
+      </c>
+      <c r="IG2">
+        <v>0.5</v>
+      </c>
+      <c r="IH2" t="s">
+        <v>294</v>
+      </c>
+      <c r="II2" t="s">
+        <v>306</v>
+      </c>
+      <c r="IJ2" t="s">
+        <v>306</v>
+      </c>
+      <c r="IK2">
+        <v>86400</v>
+      </c>
+      <c r="IL2" t="s">
+        <v>307</v>
+      </c>
+      <c r="IM2">
+        <v>86400</v>
+      </c>
+      <c r="IN2" t="s">
+        <v>289</v>
+      </c>
+      <c r="IO2">
+        <v>1</v>
+      </c>
+      <c r="IP2" t="s">
+        <v>289</v>
+      </c>
+      <c r="IQ2">
+        <v>1</v>
+      </c>
+      <c r="IR2" t="s">
+        <v>308</v>
+      </c>
+      <c r="IS2" t="s">
+        <v>289</v>
+      </c>
+      <c r="IT2" t="s">
+        <v>289</v>
+      </c>
+      <c r="IU2" t="s">
+        <v>289</v>
+      </c>
+      <c r="IV2" t="s">
+        <v>308</v>
+      </c>
+      <c r="IW2">
+        <v>86400</v>
+      </c>
+      <c r="IX2">
+        <v>86400</v>
+      </c>
+      <c r="IY2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:259">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>259</v>
       </c>
-      <c r="FH2">
-        <v>3</v>
-      </c>
-      <c r="FI2">
-        <v>20</v>
-      </c>
-      <c r="FJ2">
-        <v>20</v>
-      </c>
-      <c r="FK2" t="s">
-        <v>259</v>
-      </c>
-      <c r="FL2">
-        <v>3</v>
-      </c>
-      <c r="FM2">
-        <v>20</v>
-      </c>
-      <c r="FN2">
-        <v>20</v>
-      </c>
-      <c r="FO2" t="s">
-        <v>259</v>
-      </c>
-      <c r="FP2">
-        <v>3</v>
-      </c>
-      <c r="FQ2" t="s">
-        <v>260</v>
-      </c>
-      <c r="FR2">
-        <v>3</v>
-      </c>
-      <c r="FS2" t="s">
-        <v>267</v>
-      </c>
-      <c r="FT2">
-        <v>0</v>
-      </c>
-      <c r="FU2">
-        <v>0</v>
-      </c>
-      <c r="FX2" t="s">
-        <v>267</v>
-      </c>
-      <c r="FY2">
-        <v>1</v>
-      </c>
-      <c r="FZ2">
-        <v>2</v>
-      </c>
-      <c r="GA2" t="s">
-        <v>268</v>
-      </c>
-      <c r="GB2">
-        <v>50000</v>
-      </c>
-      <c r="GC2">
-        <v>7200</v>
-      </c>
-      <c r="GD2">
-        <v>7200</v>
-      </c>
-      <c r="GE2">
-        <v>50000</v>
-      </c>
-      <c r="GF2">
-        <v>0.9</v>
-      </c>
-      <c r="GG2">
-        <v>0.8</v>
-      </c>
-      <c r="GH2" t="b">
-        <v>0</v>
-      </c>
-      <c r="GI2" t="b">
-        <v>0</v>
-      </c>
-      <c r="GJ2" t="s">
-        <v>272</v>
-      </c>
-      <c r="GK2">
-        <v>100000</v>
-      </c>
-      <c r="GL2">
-        <v>11000</v>
-      </c>
-      <c r="GM2">
-        <v>22000</v>
-      </c>
-      <c r="GN2">
-        <v>200000</v>
-      </c>
-      <c r="GO2">
-        <v>0.9</v>
-      </c>
-      <c r="GP2">
-        <v>0.8</v>
-      </c>
-      <c r="GQ2" t="b">
-        <v>0</v>
-      </c>
-      <c r="GR2" t="b">
-        <v>0</v>
-      </c>
-      <c r="GS2" t="s">
-        <v>273</v>
-      </c>
-      <c r="GT2">
-        <v>0.05</v>
-      </c>
-      <c r="GU2">
-        <v>0.5</v>
-      </c>
-      <c r="GV2">
-        <v>0.8</v>
-      </c>
-      <c r="GW2">
-        <v>8.5</v>
-      </c>
-      <c r="GX2" t="s">
-        <v>274</v>
-      </c>
-      <c r="GY2" t="s">
-        <v>275</v>
-      </c>
-      <c r="GZ2" t="s">
-        <v>267</v>
-      </c>
-      <c r="HA2">
-        <v>0</v>
-      </c>
-      <c r="HB2">
-        <v>0</v>
-      </c>
-      <c r="HI2" t="s">
-        <v>267</v>
-      </c>
-      <c r="HJ2">
-        <v>0</v>
-      </c>
-      <c r="HK2">
-        <v>0</v>
-      </c>
-      <c r="HP2" t="s">
-        <v>267</v>
-      </c>
-      <c r="HQ2" t="s">
-        <v>276</v>
-      </c>
-      <c r="HR2" t="s">
-        <v>276</v>
-      </c>
-      <c r="HS2">
-        <v>86400</v>
-      </c>
-      <c r="HT2" t="s">
-        <v>277</v>
-      </c>
-      <c r="HU2">
-        <v>86400</v>
-      </c>
-      <c r="HV2" t="s">
-        <v>262</v>
-      </c>
-      <c r="HW2">
-        <v>1</v>
-      </c>
-      <c r="HX2" t="s">
-        <v>262</v>
-      </c>
-      <c r="HY2">
-        <v>1</v>
-      </c>
-      <c r="HZ2" t="s">
-        <v>278</v>
-      </c>
-      <c r="IA2" t="s">
-        <v>262</v>
-      </c>
-      <c r="IB2" t="s">
-        <v>262</v>
-      </c>
-      <c r="IC2" t="s">
-        <v>262</v>
-      </c>
-      <c r="ID2" t="s">
-        <v>278</v>
-      </c>
-      <c r="IE2">
-        <v>86400</v>
-      </c>
-      <c r="IF2">
-        <v>86400</v>
-      </c>
-      <c r="IG2">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:241">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>241</v>
-      </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -2674,7 +2899,7 @@
         <v>2.6</v>
       </c>
       <c r="J3">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -2686,13 +2911,13 @@
         <v>1</v>
       </c>
       <c r="N3">
-        <v>4402000</v>
+        <v>2896000</v>
       </c>
       <c r="O3" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="P3" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -2707,10 +2932,10 @@
         <v>9</v>
       </c>
       <c r="U3" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="V3" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="W3">
         <v>3</v>
@@ -2722,7 +2947,7 @@
         <v>20</v>
       </c>
       <c r="Z3" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AA3">
         <v>3</v>
@@ -2734,13 +2959,13 @@
         <v>20</v>
       </c>
       <c r="AD3" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AE3">
         <v>3</v>
       </c>
       <c r="AF3" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="AG3">
         <v>3</v>
@@ -2755,7 +2980,7 @@
         <v>6</v>
       </c>
       <c r="AM3" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="AN3">
         <v>1</v>
@@ -2770,10 +2995,10 @@
         <v>9</v>
       </c>
       <c r="AR3" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="AS3" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AT3">
         <v>3</v>
@@ -2785,7 +3010,7 @@
         <v>20</v>
       </c>
       <c r="AW3" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AX3">
         <v>3</v>
@@ -2797,25 +3022,34 @@
         <v>20</v>
       </c>
       <c r="BA3" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="BB3">
         <v>3</v>
       </c>
       <c r="BC3" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="BD3">
         <v>3</v>
       </c>
       <c r="BE3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BG3">
+        <v>19500000</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>281</v>
+      </c>
+      <c r="BI3">
+        <v>55</v>
       </c>
       <c r="BJ3" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="BK3">
         <v>1</v>
@@ -2830,10 +3064,10 @@
         <v>9</v>
       </c>
       <c r="BO3" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="BP3" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="BQ3">
         <v>3</v>
@@ -2845,7 +3079,7 @@
         <v>20</v>
       </c>
       <c r="BT3" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="BU3">
         <v>3</v>
@@ -2857,13 +3091,13 @@
         <v>20</v>
       </c>
       <c r="BX3" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="BY3">
         <v>3</v>
       </c>
       <c r="BZ3" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="CA3">
         <v>0</v>
@@ -2872,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="CF3" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="CG3">
         <v>1</v>
@@ -2887,10 +3121,10 @@
         <v>9</v>
       </c>
       <c r="CK3" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="CL3" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="CM3">
         <v>3</v>
@@ -2902,7 +3136,7 @@
         <v>20</v>
       </c>
       <c r="CP3" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="CQ3">
         <v>3</v>
@@ -2914,13 +3148,13 @@
         <v>20</v>
       </c>
       <c r="CT3" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="CU3">
         <v>3</v>
       </c>
       <c r="CV3" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="CW3">
         <v>3</v>
@@ -2932,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="DE3" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="DF3">
         <v>1</v>
@@ -2947,10 +3181,10 @@
         <v>9</v>
       </c>
       <c r="DJ3" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="DK3" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="DL3">
         <v>3</v>
@@ -2962,7 +3196,7 @@
         <v>20</v>
       </c>
       <c r="DO3" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="DP3">
         <v>3</v>
@@ -2974,19 +3208,19 @@
         <v>20</v>
       </c>
       <c r="DS3" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="DT3">
         <v>3</v>
       </c>
       <c r="DU3" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="DV3">
         <v>3</v>
       </c>
       <c r="DW3" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="DX3">
         <v>0</v>
@@ -2995,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="EC3" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="ED3">
         <v>1</v>
@@ -3010,10 +3244,10 @@
         <v>9</v>
       </c>
       <c r="EH3" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="EI3" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="EJ3">
         <v>3</v>
@@ -3025,7 +3259,7 @@
         <v>20</v>
       </c>
       <c r="EM3" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="EN3">
         <v>3</v>
@@ -3037,19 +3271,19 @@
         <v>20</v>
       </c>
       <c r="EQ3" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="ER3">
         <v>3</v>
       </c>
       <c r="ES3" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="ET3">
         <v>3</v>
       </c>
       <c r="EU3" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="EV3">
         <v>0</v>
@@ -3058,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="FA3" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="FB3">
         <v>1</v>
@@ -3073,10 +3307,10 @@
         <v>9</v>
       </c>
       <c r="FF3" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="FG3" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="FH3">
         <v>3</v>
@@ -3088,7 +3322,7 @@
         <v>20</v>
       </c>
       <c r="FK3" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="FL3">
         <v>3</v>
@@ -3100,28 +3334,34 @@
         <v>20</v>
       </c>
       <c r="FO3" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="FP3">
         <v>3</v>
       </c>
       <c r="FQ3" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="FR3">
         <v>3</v>
       </c>
       <c r="FS3" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="FT3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="FV3">
+        <v>9800</v>
+      </c>
+      <c r="FW3" t="s">
+        <v>295</v>
       </c>
       <c r="FX3" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="FY3">
         <v>1</v>
@@ -3129,133 +3369,199 @@
       <c r="FZ3">
         <v>1</v>
       </c>
-      <c r="GA3" t="s">
-        <v>269</v>
+      <c r="GA3">
+        <v>2</v>
       </c>
       <c r="GB3">
+        <v>9</v>
+      </c>
+      <c r="GC3" t="s">
+        <v>276</v>
+      </c>
+      <c r="GD3" t="s">
+        <v>277</v>
+      </c>
+      <c r="GE3">
+        <v>3</v>
+      </c>
+      <c r="GF3">
+        <v>20</v>
+      </c>
+      <c r="GG3">
+        <v>20</v>
+      </c>
+      <c r="GH3" t="s">
+        <v>277</v>
+      </c>
+      <c r="GI3">
+        <v>3</v>
+      </c>
+      <c r="GJ3">
+        <v>20</v>
+      </c>
+      <c r="GK3">
+        <v>20</v>
+      </c>
+      <c r="GL3" t="s">
+        <v>277</v>
+      </c>
+      <c r="GM3">
+        <v>3</v>
+      </c>
+      <c r="GN3" t="s">
+        <v>278</v>
+      </c>
+      <c r="GO3">
+        <v>3</v>
+      </c>
+      <c r="GP3" t="s">
+        <v>294</v>
+      </c>
+      <c r="GQ3">
+        <v>1</v>
+      </c>
+      <c r="GR3">
+        <v>1</v>
+      </c>
+      <c r="GS3" t="s">
+        <v>298</v>
+      </c>
+      <c r="GT3">
         <v>75000</v>
       </c>
-      <c r="GC3">
+      <c r="GU3">
         <v>7200</v>
       </c>
-      <c r="GD3">
+      <c r="GV3">
         <v>11000</v>
       </c>
-      <c r="GE3">
+      <c r="GW3">
         <v>100000</v>
       </c>
-      <c r="GF3">
+      <c r="GX3">
         <v>0.9</v>
       </c>
-      <c r="GG3">
+      <c r="GY3">
         <v>0.8</v>
       </c>
-      <c r="GH3" t="b">
-        <v>0</v>
-      </c>
-      <c r="GI3" t="b">
-        <v>0</v>
-      </c>
-      <c r="GS3" t="s">
-        <v>273</v>
-      </c>
-      <c r="GT3">
+      <c r="GZ3" t="b">
+        <v>0</v>
+      </c>
+      <c r="HA3" t="b">
+        <v>0</v>
+      </c>
+      <c r="HK3" t="s">
+        <v>303</v>
+      </c>
+      <c r="HL3">
         <v>0.05</v>
       </c>
-      <c r="GU3">
+      <c r="HM3">
         <v>0.5</v>
       </c>
-      <c r="GV3">
+      <c r="HN3">
         <v>0.8</v>
       </c>
-      <c r="GW3">
+      <c r="HO3">
         <v>8.5</v>
       </c>
-      <c r="GX3" t="s">
-        <v>274</v>
-      </c>
-      <c r="GY3" t="s">
-        <v>275</v>
-      </c>
-      <c r="GZ3" t="s">
-        <v>267</v>
-      </c>
-      <c r="HA3">
-        <v>0</v>
-      </c>
-      <c r="HB3">
-        <v>0</v>
-      </c>
-      <c r="HI3" t="s">
-        <v>267</v>
-      </c>
-      <c r="HJ3">
-        <v>0</v>
-      </c>
-      <c r="HK3">
-        <v>0</v>
-      </c>
       <c r="HP3" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="HQ3" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="HR3" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="HS3">
+        <v>0</v>
+      </c>
+      <c r="HT3">
+        <v>0</v>
+      </c>
+      <c r="IA3" t="s">
+        <v>294</v>
+      </c>
+      <c r="IB3">
+        <v>1</v>
+      </c>
+      <c r="IC3">
+        <v>1</v>
+      </c>
+      <c r="ID3">
+        <v>9800</v>
+      </c>
+      <c r="IE3">
+        <v>19500</v>
+      </c>
+      <c r="IF3">
+        <v>0.95</v>
+      </c>
+      <c r="IG3">
+        <v>0.5</v>
+      </c>
+      <c r="IH3" t="s">
+        <v>294</v>
+      </c>
+      <c r="II3" t="s">
+        <v>306</v>
+      </c>
+      <c r="IJ3" t="s">
+        <v>306</v>
+      </c>
+      <c r="IK3">
         <v>86400</v>
       </c>
-      <c r="HT3" t="s">
-        <v>277</v>
-      </c>
-      <c r="HU3">
+      <c r="IL3" t="s">
+        <v>307</v>
+      </c>
+      <c r="IM3">
         <v>86400</v>
       </c>
-      <c r="HV3" t="s">
-        <v>262</v>
-      </c>
-      <c r="HW3">
-        <v>1</v>
-      </c>
-      <c r="HX3" t="s">
-        <v>262</v>
-      </c>
-      <c r="HY3">
-        <v>1</v>
-      </c>
-      <c r="HZ3" t="s">
-        <v>278</v>
-      </c>
-      <c r="IA3" t="s">
-        <v>262</v>
-      </c>
-      <c r="IB3" t="s">
-        <v>262</v>
-      </c>
-      <c r="IC3" t="s">
-        <v>262</v>
-      </c>
-      <c r="ID3" t="s">
-        <v>278</v>
-      </c>
-      <c r="IE3">
+      <c r="IN3" t="s">
+        <v>289</v>
+      </c>
+      <c r="IO3">
+        <v>1</v>
+      </c>
+      <c r="IP3" t="s">
+        <v>289</v>
+      </c>
+      <c r="IQ3">
+        <v>1</v>
+      </c>
+      <c r="IR3" t="s">
+        <v>308</v>
+      </c>
+      <c r="IS3" t="s">
+        <v>289</v>
+      </c>
+      <c r="IT3" t="s">
+        <v>289</v>
+      </c>
+      <c r="IU3" t="s">
+        <v>289</v>
+      </c>
+      <c r="IV3" t="s">
+        <v>308</v>
+      </c>
+      <c r="IW3">
         <v>86400</v>
       </c>
-      <c r="IF3">
+      <c r="IX3">
         <v>86400</v>
       </c>
-      <c r="IG3">
+      <c r="IY3">
         <v>3600</v>
       </c>
     </row>
-    <row r="4" spans="1:241">
+    <row r="4" spans="1:259">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -3285,10 +3591,10 @@
         <v>5527000</v>
       </c>
       <c r="O4" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="P4" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -3303,10 +3609,10 @@
         <v>9</v>
       </c>
       <c r="U4" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="V4" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="W4">
         <v>3</v>
@@ -3318,7 +3624,7 @@
         <v>20</v>
       </c>
       <c r="Z4" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AA4">
         <v>3</v>
@@ -3330,13 +3636,13 @@
         <v>20</v>
       </c>
       <c r="AD4" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AE4">
         <v>3</v>
       </c>
       <c r="AF4" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="AG4">
         <v>3</v>
@@ -3351,7 +3657,7 @@
         <v>6</v>
       </c>
       <c r="AM4" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="AN4">
         <v>1</v>
@@ -3366,10 +3672,10 @@
         <v>9</v>
       </c>
       <c r="AR4" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="AS4" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AT4">
         <v>3</v>
@@ -3381,7 +3687,7 @@
         <v>20</v>
       </c>
       <c r="AW4" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AX4">
         <v>3</v>
@@ -3393,25 +3699,34 @@
         <v>20</v>
       </c>
       <c r="BA4" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="BB4">
         <v>3</v>
       </c>
       <c r="BC4" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="BD4">
         <v>3</v>
       </c>
       <c r="BE4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BG4">
+        <v>5500000</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>282</v>
+      </c>
+      <c r="BI4">
+        <v>55</v>
       </c>
       <c r="BJ4" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="BK4">
         <v>1</v>
@@ -3426,10 +3741,10 @@
         <v>9</v>
       </c>
       <c r="BO4" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="BP4" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="BQ4">
         <v>3</v>
@@ -3441,7 +3756,7 @@
         <v>20</v>
       </c>
       <c r="BT4" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="BU4">
         <v>3</v>
@@ -3453,13 +3768,13 @@
         <v>20</v>
       </c>
       <c r="BX4" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="BY4">
         <v>3</v>
       </c>
       <c r="BZ4" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="CA4">
         <v>0</v>
@@ -3468,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="CF4" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="CG4">
         <v>1</v>
@@ -3483,10 +3798,10 @@
         <v>9</v>
       </c>
       <c r="CK4" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="CL4" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="CM4">
         <v>3</v>
@@ -3498,7 +3813,7 @@
         <v>20</v>
       </c>
       <c r="CP4" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="CQ4">
         <v>3</v>
@@ -3510,13 +3825,13 @@
         <v>20</v>
       </c>
       <c r="CT4" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="CU4">
         <v>3</v>
       </c>
       <c r="CV4" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="CW4">
         <v>3</v>
@@ -3528,22 +3843,22 @@
         <v>1</v>
       </c>
       <c r="CZ4">
-        <v>6700</v>
+        <v>8600</v>
       </c>
       <c r="DA4" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="DB4">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="DD4" t="b">
         <v>1</v>
       </c>
       <c r="DE4" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="DF4">
         <v>1</v>
@@ -3558,10 +3873,10 @@
         <v>9</v>
       </c>
       <c r="DJ4" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="DK4" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="DL4">
         <v>3</v>
@@ -3573,7 +3888,7 @@
         <v>20</v>
       </c>
       <c r="DO4" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="DP4">
         <v>3</v>
@@ -3585,19 +3900,19 @@
         <v>20</v>
       </c>
       <c r="DS4" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="DT4">
         <v>3</v>
       </c>
       <c r="DU4" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="DV4">
         <v>3</v>
       </c>
       <c r="DW4" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="DX4">
         <v>0</v>
@@ -3606,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="EC4" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="ED4">
         <v>1</v>
@@ -3621,10 +3936,10 @@
         <v>9</v>
       </c>
       <c r="EH4" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="EI4" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="EJ4">
         <v>3</v>
@@ -3636,7 +3951,7 @@
         <v>20</v>
       </c>
       <c r="EM4" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="EN4">
         <v>3</v>
@@ -3648,19 +3963,19 @@
         <v>20</v>
       </c>
       <c r="EQ4" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="ER4">
         <v>3</v>
       </c>
       <c r="ES4" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="ET4">
         <v>3</v>
       </c>
       <c r="EU4" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="EV4">
         <v>0</v>
@@ -3669,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="FA4" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="FB4">
         <v>1</v>
@@ -3684,10 +3999,10 @@
         <v>9</v>
       </c>
       <c r="FF4" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="FG4" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="FH4">
         <v>3</v>
@@ -3699,7 +4014,7 @@
         <v>20</v>
       </c>
       <c r="FK4" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="FL4">
         <v>3</v>
@@ -3711,28 +4026,34 @@
         <v>20</v>
       </c>
       <c r="FO4" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="FP4">
         <v>3</v>
       </c>
       <c r="FQ4" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="FR4">
         <v>3</v>
       </c>
       <c r="FS4" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="FT4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="FV4">
+        <v>2800</v>
+      </c>
+      <c r="FW4" t="s">
+        <v>295</v>
       </c>
       <c r="FX4" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="FY4">
         <v>1</v>
@@ -3740,157 +4061,178 @@
       <c r="FZ4">
         <v>1</v>
       </c>
-      <c r="GA4" t="s">
-        <v>270</v>
+      <c r="GA4">
+        <v>2</v>
       </c>
       <c r="GB4">
-        <v>100000</v>
-      </c>
-      <c r="GC4">
-        <v>11000</v>
-      </c>
-      <c r="GD4">
-        <v>22000</v>
+        <v>9</v>
+      </c>
+      <c r="GC4" t="s">
+        <v>276</v>
+      </c>
+      <c r="GD4" t="s">
+        <v>277</v>
       </c>
       <c r="GE4">
-        <v>200000</v>
+        <v>3</v>
       </c>
       <c r="GF4">
-        <v>0.9</v>
+        <v>20</v>
       </c>
       <c r="GG4">
+        <v>20</v>
+      </c>
+      <c r="GH4" t="s">
+        <v>277</v>
+      </c>
+      <c r="GI4">
+        <v>3</v>
+      </c>
+      <c r="GJ4">
+        <v>20</v>
+      </c>
+      <c r="GK4">
+        <v>20</v>
+      </c>
+      <c r="GL4" t="s">
+        <v>277</v>
+      </c>
+      <c r="GM4">
+        <v>3</v>
+      </c>
+      <c r="GN4" t="s">
+        <v>278</v>
+      </c>
+      <c r="GO4">
+        <v>3</v>
+      </c>
+      <c r="GP4" t="s">
+        <v>294</v>
+      </c>
+      <c r="GQ4">
+        <v>0</v>
+      </c>
+      <c r="GR4">
+        <v>0</v>
+      </c>
+      <c r="HK4" t="s">
+        <v>303</v>
+      </c>
+      <c r="HL4">
+        <v>0.05</v>
+      </c>
+      <c r="HM4">
+        <v>0.5</v>
+      </c>
+      <c r="HN4">
         <v>0.8</v>
       </c>
-      <c r="GH4" t="b">
-        <v>0</v>
-      </c>
-      <c r="GI4" t="b">
-        <v>0</v>
-      </c>
-      <c r="GS4" t="s">
-        <v>273</v>
-      </c>
-      <c r="GT4">
-        <v>0.05</v>
-      </c>
-      <c r="GU4">
+      <c r="HO4">
+        <v>8.5</v>
+      </c>
+      <c r="HP4" t="s">
+        <v>304</v>
+      </c>
+      <c r="HQ4" t="s">
+        <v>305</v>
+      </c>
+      <c r="HR4" t="s">
+        <v>294</v>
+      </c>
+      <c r="HS4">
+        <v>0</v>
+      </c>
+      <c r="HT4">
+        <v>0</v>
+      </c>
+      <c r="IA4" t="s">
+        <v>294</v>
+      </c>
+      <c r="IB4">
+        <v>1</v>
+      </c>
+      <c r="IC4">
+        <v>1</v>
+      </c>
+      <c r="ID4">
+        <v>2800</v>
+      </c>
+      <c r="IE4">
+        <v>5500</v>
+      </c>
+      <c r="IF4">
+        <v>0.95</v>
+      </c>
+      <c r="IG4">
         <v>0.5</v>
       </c>
-      <c r="GV4">
-        <v>0.8</v>
-      </c>
-      <c r="GW4">
-        <v>8.5</v>
-      </c>
-      <c r="GX4" t="s">
-        <v>274</v>
-      </c>
-      <c r="GY4" t="s">
-        <v>275</v>
-      </c>
-      <c r="GZ4" t="s">
-        <v>267</v>
-      </c>
-      <c r="HA4">
-        <v>1</v>
-      </c>
-      <c r="HB4">
-        <v>1</v>
-      </c>
-      <c r="HC4">
-        <v>5500</v>
-      </c>
-      <c r="HD4">
-        <v>5500</v>
-      </c>
-      <c r="HE4">
-        <v>0.95</v>
-      </c>
-      <c r="HF4">
-        <v>0.1</v>
-      </c>
-      <c r="HG4" t="b">
-        <v>0</v>
-      </c>
-      <c r="HH4" t="b">
-        <v>0</v>
-      </c>
-      <c r="HI4" t="s">
-        <v>267</v>
-      </c>
-      <c r="HJ4">
-        <v>0</v>
-      </c>
-      <c r="HK4">
-        <v>0</v>
-      </c>
-      <c r="HP4" t="s">
-        <v>267</v>
-      </c>
-      <c r="HQ4" t="s">
-        <v>276</v>
-      </c>
-      <c r="HR4" t="s">
-        <v>276</v>
-      </c>
-      <c r="HS4">
+      <c r="IH4" t="s">
+        <v>294</v>
+      </c>
+      <c r="II4" t="s">
+        <v>306</v>
+      </c>
+      <c r="IJ4" t="s">
+        <v>306</v>
+      </c>
+      <c r="IK4">
         <v>86400</v>
       </c>
-      <c r="HT4" t="s">
-        <v>277</v>
-      </c>
-      <c r="HU4">
+      <c r="IL4" t="s">
+        <v>307</v>
+      </c>
+      <c r="IM4">
         <v>86400</v>
       </c>
-      <c r="HV4" t="s">
-        <v>262</v>
-      </c>
-      <c r="HW4">
-        <v>1</v>
-      </c>
-      <c r="HX4" t="s">
-        <v>262</v>
-      </c>
-      <c r="HY4">
-        <v>1</v>
-      </c>
-      <c r="HZ4" t="s">
-        <v>278</v>
-      </c>
-      <c r="IA4" t="s">
-        <v>262</v>
-      </c>
-      <c r="IB4" t="s">
-        <v>262</v>
-      </c>
-      <c r="IC4" t="s">
-        <v>262</v>
-      </c>
-      <c r="ID4" t="s">
-        <v>278</v>
-      </c>
-      <c r="IE4">
+      <c r="IN4" t="s">
+        <v>289</v>
+      </c>
+      <c r="IO4">
+        <v>1</v>
+      </c>
+      <c r="IP4" t="s">
+        <v>289</v>
+      </c>
+      <c r="IQ4">
+        <v>1</v>
+      </c>
+      <c r="IR4" t="s">
+        <v>308</v>
+      </c>
+      <c r="IS4" t="s">
+        <v>289</v>
+      </c>
+      <c r="IT4" t="s">
+        <v>289</v>
+      </c>
+      <c r="IU4" t="s">
+        <v>289</v>
+      </c>
+      <c r="IV4" t="s">
+        <v>308</v>
+      </c>
+      <c r="IW4">
         <v>86400</v>
       </c>
-      <c r="IF4">
+      <c r="IX4">
         <v>86400</v>
       </c>
-      <c r="IG4">
+      <c r="IY4">
         <v>3600</v>
       </c>
     </row>
-    <row r="5" spans="1:241">
+    <row r="5" spans="1:259">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -3899,7 +4241,7 @@
         <v>2.6</v>
       </c>
       <c r="J5">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -3911,13 +4253,13 @@
         <v>1</v>
       </c>
       <c r="N5">
-        <v>4402000</v>
+        <v>3648000</v>
       </c>
       <c r="O5" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="P5" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -3932,10 +4274,10 @@
         <v>9</v>
       </c>
       <c r="U5" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="V5" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="W5">
         <v>3</v>
@@ -3947,7 +4289,7 @@
         <v>20</v>
       </c>
       <c r="Z5" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AA5">
         <v>3</v>
@@ -3959,13 +4301,13 @@
         <v>20</v>
       </c>
       <c r="AD5" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AE5">
         <v>3</v>
       </c>
       <c r="AF5" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="AG5">
         <v>3</v>
@@ -3980,7 +4322,7 @@
         <v>6</v>
       </c>
       <c r="AM5" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="AN5">
         <v>1</v>
@@ -3995,10 +4337,10 @@
         <v>9</v>
       </c>
       <c r="AR5" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="AS5" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AT5">
         <v>3</v>
@@ -4010,7 +4352,7 @@
         <v>20</v>
       </c>
       <c r="AW5" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AX5">
         <v>3</v>
@@ -4022,25 +4364,34 @@
         <v>20</v>
       </c>
       <c r="BA5" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="BB5">
         <v>3</v>
       </c>
       <c r="BC5" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="BD5">
         <v>3</v>
       </c>
       <c r="BE5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BG5">
+        <v>19500000</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>283</v>
+      </c>
+      <c r="BI5">
+        <v>35</v>
       </c>
       <c r="BJ5" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="BK5">
         <v>1</v>
@@ -4055,10 +4406,10 @@
         <v>9</v>
       </c>
       <c r="BO5" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="BP5" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="BQ5">
         <v>3</v>
@@ -4070,7 +4421,7 @@
         <v>20</v>
       </c>
       <c r="BT5" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="BU5">
         <v>3</v>
@@ -4082,13 +4433,13 @@
         <v>20</v>
       </c>
       <c r="BX5" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="BY5">
         <v>3</v>
       </c>
       <c r="BZ5" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="CA5">
         <v>0</v>
@@ -4097,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="CF5" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="CG5">
         <v>1</v>
@@ -4112,10 +4463,10 @@
         <v>9</v>
       </c>
       <c r="CK5" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="CL5" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="CM5">
         <v>3</v>
@@ -4127,7 +4478,7 @@
         <v>20</v>
       </c>
       <c r="CP5" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="CQ5">
         <v>3</v>
@@ -4139,13 +4490,13 @@
         <v>20</v>
       </c>
       <c r="CT5" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="CU5">
         <v>3</v>
       </c>
       <c r="CV5" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="CW5">
         <v>3</v>
@@ -4157,22 +4508,22 @@
         <v>1</v>
       </c>
       <c r="CZ5">
-        <v>5700</v>
+        <v>4900</v>
       </c>
       <c r="DA5" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="DB5">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="DC5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="DD5" t="b">
         <v>1</v>
       </c>
       <c r="DE5" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="DF5">
         <v>1</v>
@@ -4187,10 +4538,10 @@
         <v>9</v>
       </c>
       <c r="DJ5" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="DK5" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="DL5">
         <v>3</v>
@@ -4202,7 +4553,7 @@
         <v>20</v>
       </c>
       <c r="DO5" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="DP5">
         <v>3</v>
@@ -4214,19 +4565,19 @@
         <v>20</v>
       </c>
       <c r="DS5" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="DT5">
         <v>3</v>
       </c>
       <c r="DU5" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="DV5">
         <v>3</v>
       </c>
       <c r="DW5" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="DX5">
         <v>0</v>
@@ -4235,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="EC5" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="ED5">
         <v>1</v>
@@ -4250,10 +4601,10 @@
         <v>9</v>
       </c>
       <c r="EH5" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="EI5" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="EJ5">
         <v>3</v>
@@ -4265,7 +4616,7 @@
         <v>20</v>
       </c>
       <c r="EM5" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="EN5">
         <v>3</v>
@@ -4277,19 +4628,19 @@
         <v>20</v>
       </c>
       <c r="EQ5" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="ER5">
         <v>3</v>
       </c>
       <c r="ES5" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="ET5">
         <v>3</v>
       </c>
       <c r="EU5" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="EV5">
         <v>0</v>
@@ -4298,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="FA5" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="FB5">
         <v>1</v>
@@ -4313,10 +4664,10 @@
         <v>9</v>
       </c>
       <c r="FF5" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="FG5" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="FH5">
         <v>3</v>
@@ -4328,7 +4679,7 @@
         <v>20</v>
       </c>
       <c r="FK5" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="FL5">
         <v>3</v>
@@ -4340,135 +4691,252 @@
         <v>20</v>
       </c>
       <c r="FO5" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="FP5">
         <v>3</v>
       </c>
       <c r="FQ5" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="FR5">
         <v>3</v>
       </c>
       <c r="FS5" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="FT5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="FV5">
+        <v>9800</v>
+      </c>
+      <c r="FW5" t="s">
+        <v>295</v>
       </c>
       <c r="FX5" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="FY5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FZ5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="GA5">
+        <v>2</v>
+      </c>
+      <c r="GB5">
+        <v>9</v>
+      </c>
+      <c r="GC5" t="s">
+        <v>276</v>
+      </c>
+      <c r="GD5" t="s">
+        <v>277</v>
+      </c>
+      <c r="GE5">
+        <v>3</v>
+      </c>
+      <c r="GF5">
+        <v>20</v>
+      </c>
+      <c r="GG5">
+        <v>20</v>
+      </c>
+      <c r="GH5" t="s">
+        <v>277</v>
+      </c>
+      <c r="GI5">
+        <v>3</v>
+      </c>
+      <c r="GJ5">
+        <v>20</v>
+      </c>
+      <c r="GK5">
+        <v>20</v>
+      </c>
+      <c r="GL5" t="s">
+        <v>277</v>
+      </c>
+      <c r="GM5">
+        <v>3</v>
+      </c>
+      <c r="GN5" t="s">
+        <v>278</v>
+      </c>
+      <c r="GO5">
+        <v>3</v>
+      </c>
+      <c r="GP5" t="s">
+        <v>294</v>
+      </c>
+      <c r="GQ5">
+        <v>1</v>
+      </c>
+      <c r="GR5">
+        <v>1</v>
       </c>
       <c r="GS5" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="GT5">
+        <v>50000</v>
+      </c>
+      <c r="GU5">
+        <v>7200</v>
+      </c>
+      <c r="GV5">
+        <v>7200</v>
+      </c>
+      <c r="GW5">
+        <v>50000</v>
+      </c>
+      <c r="GX5">
+        <v>0.9</v>
+      </c>
+      <c r="GY5">
+        <v>0.8</v>
+      </c>
+      <c r="GZ5" t="b">
+        <v>0</v>
+      </c>
+      <c r="HA5" t="b">
+        <v>0</v>
+      </c>
+      <c r="HK5" t="s">
+        <v>303</v>
+      </c>
+      <c r="HL5">
         <v>0.05</v>
       </c>
-      <c r="GU5">
+      <c r="HM5">
         <v>0.5</v>
       </c>
-      <c r="GV5">
+      <c r="HN5">
         <v>0.8</v>
       </c>
-      <c r="GW5">
+      <c r="HO5">
         <v>8.5</v>
       </c>
-      <c r="GX5" t="s">
-        <v>274</v>
-      </c>
-      <c r="GY5" t="s">
-        <v>275</v>
-      </c>
-      <c r="GZ5" t="s">
-        <v>267</v>
-      </c>
-      <c r="HA5">
-        <v>0</v>
-      </c>
-      <c r="HB5">
-        <v>0</v>
-      </c>
-      <c r="HI5" t="s">
-        <v>267</v>
-      </c>
-      <c r="HJ5">
-        <v>0</v>
-      </c>
-      <c r="HK5">
-        <v>0</v>
-      </c>
       <c r="HP5" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="HQ5" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="HR5" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="HS5">
+        <v>1</v>
+      </c>
+      <c r="HT5">
+        <v>1</v>
+      </c>
+      <c r="HU5">
+        <v>3600</v>
+      </c>
+      <c r="HV5">
+        <v>3600</v>
+      </c>
+      <c r="HW5">
+        <v>0.95</v>
+      </c>
+      <c r="HX5">
+        <v>0.1</v>
+      </c>
+      <c r="HY5" t="b">
+        <v>0</v>
+      </c>
+      <c r="HZ5" t="b">
+        <v>0</v>
+      </c>
+      <c r="IA5" t="s">
+        <v>294</v>
+      </c>
+      <c r="IB5">
+        <v>1</v>
+      </c>
+      <c r="IC5">
+        <v>1</v>
+      </c>
+      <c r="ID5">
+        <v>9800</v>
+      </c>
+      <c r="IE5">
+        <v>19500</v>
+      </c>
+      <c r="IF5">
+        <v>0.95</v>
+      </c>
+      <c r="IG5">
+        <v>0.5</v>
+      </c>
+      <c r="IH5" t="s">
+        <v>294</v>
+      </c>
+      <c r="II5" t="s">
+        <v>306</v>
+      </c>
+      <c r="IJ5" t="s">
+        <v>306</v>
+      </c>
+      <c r="IK5">
         <v>86400</v>
       </c>
-      <c r="HT5" t="s">
-        <v>277</v>
-      </c>
-      <c r="HU5">
+      <c r="IL5" t="s">
+        <v>307</v>
+      </c>
+      <c r="IM5">
         <v>86400</v>
       </c>
-      <c r="HV5" t="s">
-        <v>262</v>
-      </c>
-      <c r="HW5">
-        <v>1</v>
-      </c>
-      <c r="HX5" t="s">
-        <v>262</v>
-      </c>
-      <c r="HY5">
-        <v>1</v>
-      </c>
-      <c r="HZ5" t="s">
-        <v>278</v>
-      </c>
-      <c r="IA5" t="s">
-        <v>262</v>
-      </c>
-      <c r="IB5" t="s">
-        <v>262</v>
-      </c>
-      <c r="IC5" t="s">
-        <v>262</v>
-      </c>
-      <c r="ID5" t="s">
-        <v>278</v>
-      </c>
-      <c r="IE5">
+      <c r="IN5" t="s">
+        <v>289</v>
+      </c>
+      <c r="IO5">
+        <v>1</v>
+      </c>
+      <c r="IP5" t="s">
+        <v>289</v>
+      </c>
+      <c r="IQ5">
+        <v>1</v>
+      </c>
+      <c r="IR5" t="s">
+        <v>308</v>
+      </c>
+      <c r="IS5" t="s">
+        <v>289</v>
+      </c>
+      <c r="IT5" t="s">
+        <v>289</v>
+      </c>
+      <c r="IU5" t="s">
+        <v>289</v>
+      </c>
+      <c r="IV5" t="s">
+        <v>308</v>
+      </c>
+      <c r="IW5">
         <v>86400</v>
       </c>
-      <c r="IF5">
+      <c r="IX5">
         <v>86400</v>
       </c>
-      <c r="IG5">
+      <c r="IY5">
         <v>3600</v>
       </c>
     </row>
-    <row r="6" spans="1:241">
+    <row r="6" spans="1:259">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -4495,13 +4963,13 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>2959000</v>
+        <v>3125000</v>
       </c>
       <c r="O6" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="P6" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -4516,10 +4984,10 @@
         <v>9</v>
       </c>
       <c r="U6" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="V6" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="W6">
         <v>3</v>
@@ -4531,7 +4999,7 @@
         <v>20</v>
       </c>
       <c r="Z6" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AA6">
         <v>3</v>
@@ -4543,13 +5011,13 @@
         <v>20</v>
       </c>
       <c r="AD6" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AE6">
         <v>3</v>
       </c>
       <c r="AF6" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="AG6">
         <v>3</v>
@@ -4564,7 +5032,7 @@
         <v>6</v>
       </c>
       <c r="AM6" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="AN6">
         <v>1</v>
@@ -4579,10 +5047,10 @@
         <v>9</v>
       </c>
       <c r="AR6" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="AS6" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AT6">
         <v>3</v>
@@ -4594,7 +5062,7 @@
         <v>20</v>
       </c>
       <c r="AW6" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AX6">
         <v>3</v>
@@ -4606,25 +5074,34 @@
         <v>20</v>
       </c>
       <c r="BA6" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="BB6">
         <v>3</v>
       </c>
       <c r="BC6" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="BD6">
         <v>3</v>
       </c>
       <c r="BE6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BG6">
+        <v>5500000</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>284</v>
+      </c>
+      <c r="BI6">
+        <v>55</v>
       </c>
       <c r="BJ6" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="BK6">
         <v>1</v>
@@ -4639,10 +5116,10 @@
         <v>9</v>
       </c>
       <c r="BO6" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="BP6" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="BQ6">
         <v>3</v>
@@ -4654,7 +5131,7 @@
         <v>20</v>
       </c>
       <c r="BT6" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="BU6">
         <v>3</v>
@@ -4666,13 +5143,13 @@
         <v>20</v>
       </c>
       <c r="BX6" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="BY6">
         <v>3</v>
       </c>
       <c r="BZ6" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="CA6">
         <v>0</v>
@@ -4681,7 +5158,7 @@
         <v>0</v>
       </c>
       <c r="CF6" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="CG6">
         <v>1</v>
@@ -4696,10 +5173,10 @@
         <v>9</v>
       </c>
       <c r="CK6" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="CL6" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="CM6">
         <v>3</v>
@@ -4711,7 +5188,7 @@
         <v>20</v>
       </c>
       <c r="CP6" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="CQ6">
         <v>3</v>
@@ -4723,13 +5200,13 @@
         <v>20</v>
       </c>
       <c r="CT6" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="CU6">
         <v>3</v>
       </c>
       <c r="CV6" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="CW6">
         <v>3</v>
@@ -4741,10 +5218,10 @@
         <v>1</v>
       </c>
       <c r="CZ6">
-        <v>4500</v>
+        <v>4900</v>
       </c>
       <c r="DA6" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="DB6">
         <v>0</v>
@@ -4756,7 +5233,7 @@
         <v>1</v>
       </c>
       <c r="DE6" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="DF6">
         <v>1</v>
@@ -4771,10 +5248,10 @@
         <v>9</v>
       </c>
       <c r="DJ6" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="DK6" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="DL6">
         <v>3</v>
@@ -4786,7 +5263,7 @@
         <v>20</v>
       </c>
       <c r="DO6" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="DP6">
         <v>3</v>
@@ -4798,19 +5275,19 @@
         <v>20</v>
       </c>
       <c r="DS6" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="DT6">
         <v>3</v>
       </c>
       <c r="DU6" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="DV6">
         <v>3</v>
       </c>
       <c r="DW6" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="DX6">
         <v>0</v>
@@ -4819,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="EC6" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="ED6">
         <v>1</v>
@@ -4834,10 +5311,10 @@
         <v>9</v>
       </c>
       <c r="EH6" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="EI6" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="EJ6">
         <v>3</v>
@@ -4849,7 +5326,7 @@
         <v>20</v>
       </c>
       <c r="EM6" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="EN6">
         <v>3</v>
@@ -4861,19 +5338,19 @@
         <v>20</v>
       </c>
       <c r="EQ6" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="ER6">
         <v>3</v>
       </c>
       <c r="ES6" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="ET6">
         <v>3</v>
       </c>
       <c r="EU6" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="EV6">
         <v>0</v>
@@ -4882,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="FA6" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="FB6">
         <v>1</v>
@@ -4897,10 +5374,10 @@
         <v>9</v>
       </c>
       <c r="FF6" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="FG6" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="FH6">
         <v>3</v>
@@ -4912,7 +5389,7 @@
         <v>20</v>
       </c>
       <c r="FK6" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="FL6">
         <v>3</v>
@@ -4924,28 +5401,34 @@
         <v>20</v>
       </c>
       <c r="FO6" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="FP6">
         <v>3</v>
       </c>
       <c r="FQ6" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="FR6">
         <v>3</v>
       </c>
       <c r="FS6" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="FT6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="FV6">
+        <v>2800</v>
+      </c>
+      <c r="FW6" t="s">
+        <v>296</v>
       </c>
       <c r="FX6" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="FY6">
         <v>1</v>
@@ -4953,151 +5436,217 @@
       <c r="FZ6">
         <v>1</v>
       </c>
-      <c r="GA6" t="s">
-        <v>268</v>
+      <c r="GA6">
+        <v>2</v>
       </c>
       <c r="GB6">
-        <v>50000</v>
-      </c>
-      <c r="GC6">
-        <v>7200</v>
-      </c>
-      <c r="GD6">
-        <v>7200</v>
+        <v>9</v>
+      </c>
+      <c r="GC6" t="s">
+        <v>276</v>
+      </c>
+      <c r="GD6" t="s">
+        <v>277</v>
       </c>
       <c r="GE6">
-        <v>50000</v>
+        <v>3</v>
       </c>
       <c r="GF6">
+        <v>20</v>
+      </c>
+      <c r="GG6">
+        <v>20</v>
+      </c>
+      <c r="GH6" t="s">
+        <v>277</v>
+      </c>
+      <c r="GI6">
+        <v>3</v>
+      </c>
+      <c r="GJ6">
+        <v>20</v>
+      </c>
+      <c r="GK6">
+        <v>20</v>
+      </c>
+      <c r="GL6" t="s">
+        <v>277</v>
+      </c>
+      <c r="GM6">
+        <v>3</v>
+      </c>
+      <c r="GN6" t="s">
+        <v>278</v>
+      </c>
+      <c r="GO6">
+        <v>3</v>
+      </c>
+      <c r="GP6" t="s">
+        <v>294</v>
+      </c>
+      <c r="GQ6">
+        <v>1</v>
+      </c>
+      <c r="GR6">
+        <v>1</v>
+      </c>
+      <c r="GS6" t="s">
+        <v>300</v>
+      </c>
+      <c r="GT6">
+        <v>100000</v>
+      </c>
+      <c r="GU6">
+        <v>11000</v>
+      </c>
+      <c r="GV6">
+        <v>22000</v>
+      </c>
+      <c r="GW6">
+        <v>200000</v>
+      </c>
+      <c r="GX6">
         <v>0.9</v>
       </c>
-      <c r="GG6">
+      <c r="GY6">
         <v>0.8</v>
       </c>
-      <c r="GH6" t="b">
-        <v>0</v>
-      </c>
-      <c r="GI6" t="b">
-        <v>0</v>
-      </c>
-      <c r="GS6" t="s">
-        <v>273</v>
-      </c>
-      <c r="GT6">
+      <c r="GZ6" t="b">
+        <v>0</v>
+      </c>
+      <c r="HA6" t="b">
+        <v>0</v>
+      </c>
+      <c r="HK6" t="s">
+        <v>303</v>
+      </c>
+      <c r="HL6">
         <v>0.05</v>
       </c>
-      <c r="GU6">
+      <c r="HM6">
         <v>0.5</v>
       </c>
-      <c r="GV6">
+      <c r="HN6">
         <v>0.8</v>
       </c>
-      <c r="GW6">
+      <c r="HO6">
         <v>8.5</v>
       </c>
-      <c r="GX6" t="s">
-        <v>274</v>
-      </c>
-      <c r="GY6" t="s">
-        <v>275</v>
-      </c>
-      <c r="GZ6" t="s">
-        <v>267</v>
-      </c>
-      <c r="HA6">
-        <v>1</v>
-      </c>
-      <c r="HB6">
-        <v>1</v>
-      </c>
-      <c r="HC6">
-        <v>3000</v>
-      </c>
-      <c r="HD6">
-        <v>3000</v>
-      </c>
-      <c r="HE6">
+      <c r="HP6" t="s">
+        <v>304</v>
+      </c>
+      <c r="HQ6" t="s">
+        <v>305</v>
+      </c>
+      <c r="HR6" t="s">
+        <v>294</v>
+      </c>
+      <c r="HS6">
+        <v>1</v>
+      </c>
+      <c r="HT6">
+        <v>1</v>
+      </c>
+      <c r="HU6">
+        <v>3100</v>
+      </c>
+      <c r="HV6">
+        <v>3100</v>
+      </c>
+      <c r="HW6">
         <v>0.95</v>
       </c>
-      <c r="HF6">
+      <c r="HX6">
         <v>0.1</v>
       </c>
-      <c r="HG6" t="b">
-        <v>0</v>
-      </c>
-      <c r="HH6" t="b">
-        <v>0</v>
-      </c>
-      <c r="HI6" t="s">
-        <v>267</v>
-      </c>
-      <c r="HJ6">
-        <v>0</v>
-      </c>
-      <c r="HK6">
-        <v>0</v>
-      </c>
-      <c r="HP6" t="s">
-        <v>267</v>
-      </c>
-      <c r="HQ6" t="s">
-        <v>276</v>
-      </c>
-      <c r="HR6" t="s">
-        <v>276</v>
-      </c>
-      <c r="HS6">
+      <c r="HY6" t="b">
+        <v>0</v>
+      </c>
+      <c r="HZ6" t="b">
+        <v>0</v>
+      </c>
+      <c r="IA6" t="s">
+        <v>294</v>
+      </c>
+      <c r="IB6">
+        <v>1</v>
+      </c>
+      <c r="IC6">
+        <v>1</v>
+      </c>
+      <c r="ID6">
+        <v>2800</v>
+      </c>
+      <c r="IE6">
+        <v>5500</v>
+      </c>
+      <c r="IF6">
+        <v>0.95</v>
+      </c>
+      <c r="IG6">
+        <v>0.5</v>
+      </c>
+      <c r="IH6" t="s">
+        <v>294</v>
+      </c>
+      <c r="II6" t="s">
+        <v>306</v>
+      </c>
+      <c r="IJ6" t="s">
+        <v>306</v>
+      </c>
+      <c r="IK6">
         <v>86400</v>
       </c>
-      <c r="HT6" t="s">
-        <v>277</v>
-      </c>
-      <c r="HU6">
+      <c r="IL6" t="s">
+        <v>307</v>
+      </c>
+      <c r="IM6">
         <v>86400</v>
       </c>
-      <c r="HV6" t="s">
-        <v>262</v>
-      </c>
-      <c r="HW6">
-        <v>1</v>
-      </c>
-      <c r="HX6" t="s">
-        <v>262</v>
-      </c>
-      <c r="HY6">
-        <v>1</v>
-      </c>
-      <c r="HZ6" t="s">
-        <v>278</v>
-      </c>
-      <c r="IA6" t="s">
-        <v>262</v>
-      </c>
-      <c r="IB6" t="s">
-        <v>262</v>
-      </c>
-      <c r="IC6" t="s">
-        <v>262</v>
-      </c>
-      <c r="ID6" t="s">
-        <v>278</v>
-      </c>
-      <c r="IE6">
+      <c r="IN6" t="s">
+        <v>289</v>
+      </c>
+      <c r="IO6">
+        <v>1</v>
+      </c>
+      <c r="IP6" t="s">
+        <v>289</v>
+      </c>
+      <c r="IQ6">
+        <v>1</v>
+      </c>
+      <c r="IR6" t="s">
+        <v>308</v>
+      </c>
+      <c r="IS6" t="s">
+        <v>289</v>
+      </c>
+      <c r="IT6" t="s">
+        <v>289</v>
+      </c>
+      <c r="IU6" t="s">
+        <v>289</v>
+      </c>
+      <c r="IV6" t="s">
+        <v>308</v>
+      </c>
+      <c r="IW6">
         <v>86400</v>
       </c>
-      <c r="IF6">
+      <c r="IX6">
         <v>86400</v>
       </c>
-      <c r="IG6">
+      <c r="IY6">
         <v>3600</v>
       </c>
     </row>
-    <row r="7" spans="1:241">
+    <row r="7" spans="1:259">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -5124,13 +5673,13 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>3296000</v>
+        <v>3648000</v>
       </c>
       <c r="O7" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="P7" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -5145,10 +5694,10 @@
         <v>9</v>
       </c>
       <c r="U7" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="V7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="W7">
         <v>3</v>
@@ -5160,7 +5709,7 @@
         <v>20</v>
       </c>
       <c r="Z7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AA7">
         <v>3</v>
@@ -5172,13 +5721,13 @@
         <v>20</v>
       </c>
       <c r="AD7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AE7">
         <v>3</v>
       </c>
       <c r="AF7" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="AG7">
         <v>3</v>
@@ -5193,7 +5742,7 @@
         <v>6</v>
       </c>
       <c r="AM7" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="AN7">
         <v>1</v>
@@ -5208,10 +5757,10 @@
         <v>9</v>
       </c>
       <c r="AR7" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="AS7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AT7">
         <v>3</v>
@@ -5223,7 +5772,7 @@
         <v>20</v>
       </c>
       <c r="AW7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AX7">
         <v>3</v>
@@ -5235,25 +5784,34 @@
         <v>20</v>
       </c>
       <c r="BA7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="BB7">
         <v>3</v>
       </c>
       <c r="BC7" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="BD7">
         <v>3</v>
       </c>
       <c r="BE7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BG7">
+        <v>19500000</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>283</v>
+      </c>
+      <c r="BI7">
+        <v>55</v>
       </c>
       <c r="BJ7" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="BK7">
         <v>1</v>
@@ -5268,10 +5826,10 @@
         <v>9</v>
       </c>
       <c r="BO7" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="BP7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="BQ7">
         <v>3</v>
@@ -5283,7 +5841,7 @@
         <v>20</v>
       </c>
       <c r="BT7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="BU7">
         <v>3</v>
@@ -5295,13 +5853,13 @@
         <v>20</v>
       </c>
       <c r="BX7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="BY7">
         <v>3</v>
       </c>
       <c r="BZ7" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="CA7">
         <v>0</v>
@@ -5310,7 +5868,7 @@
         <v>0</v>
       </c>
       <c r="CF7" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="CG7">
         <v>1</v>
@@ -5325,10 +5883,10 @@
         <v>9</v>
       </c>
       <c r="CK7" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="CL7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="CM7">
         <v>3</v>
@@ -5340,7 +5898,7 @@
         <v>20</v>
       </c>
       <c r="CP7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="CQ7">
         <v>3</v>
@@ -5352,13 +5910,13 @@
         <v>20</v>
       </c>
       <c r="CT7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="CU7">
         <v>3</v>
       </c>
       <c r="CV7" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="CW7">
         <v>3</v>
@@ -5370,10 +5928,10 @@
         <v>1</v>
       </c>
       <c r="CZ7">
-        <v>5000</v>
+        <v>4400</v>
       </c>
       <c r="DA7" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="DB7">
         <v>0</v>
@@ -5385,7 +5943,7 @@
         <v>1</v>
       </c>
       <c r="DE7" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="DF7">
         <v>1</v>
@@ -5400,10 +5958,10 @@
         <v>9</v>
       </c>
       <c r="DJ7" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="DK7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="DL7">
         <v>3</v>
@@ -5415,7 +5973,7 @@
         <v>20</v>
       </c>
       <c r="DO7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="DP7">
         <v>3</v>
@@ -5427,19 +5985,19 @@
         <v>20</v>
       </c>
       <c r="DS7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="DT7">
         <v>3</v>
       </c>
       <c r="DU7" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="DV7">
         <v>3</v>
       </c>
       <c r="DW7" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="DX7">
         <v>0</v>
@@ -5448,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="EC7" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="ED7">
         <v>1</v>
@@ -5463,10 +6021,10 @@
         <v>9</v>
       </c>
       <c r="EH7" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="EI7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="EJ7">
         <v>3</v>
@@ -5478,7 +6036,7 @@
         <v>20</v>
       </c>
       <c r="EM7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="EN7">
         <v>3</v>
@@ -5490,19 +6048,19 @@
         <v>20</v>
       </c>
       <c r="EQ7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="ER7">
         <v>3</v>
       </c>
       <c r="ES7" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="ET7">
         <v>3</v>
       </c>
       <c r="EU7" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="EV7">
         <v>0</v>
@@ -5511,7 +6069,7 @@
         <v>0</v>
       </c>
       <c r="FA7" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="FB7">
         <v>1</v>
@@ -5526,10 +6084,10 @@
         <v>9</v>
       </c>
       <c r="FF7" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="FG7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="FH7">
         <v>3</v>
@@ -5541,7 +6099,7 @@
         <v>20</v>
       </c>
       <c r="FK7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="FL7">
         <v>3</v>
@@ -5553,28 +6111,34 @@
         <v>20</v>
       </c>
       <c r="FO7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="FP7">
         <v>3</v>
       </c>
       <c r="FQ7" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="FR7">
         <v>3</v>
       </c>
       <c r="FS7" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="FT7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="FV7">
+        <v>9800</v>
+      </c>
+      <c r="FW7" t="s">
+        <v>295</v>
       </c>
       <c r="FX7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="FY7">
         <v>1</v>
@@ -5582,157 +6146,196 @@
       <c r="FZ7">
         <v>1</v>
       </c>
-      <c r="GA7" t="s">
-        <v>271</v>
+      <c r="GA7">
+        <v>2</v>
       </c>
       <c r="GB7">
-        <v>75000</v>
-      </c>
-      <c r="GC7">
-        <v>7200</v>
-      </c>
-      <c r="GD7">
-        <v>11000</v>
+        <v>9</v>
+      </c>
+      <c r="GC7" t="s">
+        <v>276</v>
+      </c>
+      <c r="GD7" t="s">
+        <v>277</v>
       </c>
       <c r="GE7">
-        <v>100000</v>
+        <v>3</v>
       </c>
       <c r="GF7">
-        <v>0.9</v>
+        <v>20</v>
       </c>
       <c r="GG7">
+        <v>20</v>
+      </c>
+      <c r="GH7" t="s">
+        <v>277</v>
+      </c>
+      <c r="GI7">
+        <v>3</v>
+      </c>
+      <c r="GJ7">
+        <v>20</v>
+      </c>
+      <c r="GK7">
+        <v>20</v>
+      </c>
+      <c r="GL7" t="s">
+        <v>277</v>
+      </c>
+      <c r="GM7">
+        <v>3</v>
+      </c>
+      <c r="GN7" t="s">
+        <v>278</v>
+      </c>
+      <c r="GO7">
+        <v>3</v>
+      </c>
+      <c r="GP7" t="s">
+        <v>294</v>
+      </c>
+      <c r="GQ7">
+        <v>0</v>
+      </c>
+      <c r="GR7">
+        <v>0</v>
+      </c>
+      <c r="HK7" t="s">
+        <v>303</v>
+      </c>
+      <c r="HL7">
+        <v>0.05</v>
+      </c>
+      <c r="HM7">
+        <v>0.5</v>
+      </c>
+      <c r="HN7">
         <v>0.8</v>
       </c>
-      <c r="GH7" t="b">
-        <v>0</v>
-      </c>
-      <c r="GI7" t="b">
-        <v>0</v>
-      </c>
-      <c r="GS7" t="s">
-        <v>273</v>
-      </c>
-      <c r="GT7">
-        <v>0.05</v>
-      </c>
-      <c r="GU7">
+      <c r="HO7">
+        <v>8.5</v>
+      </c>
+      <c r="HP7" t="s">
+        <v>304</v>
+      </c>
+      <c r="HQ7" t="s">
+        <v>305</v>
+      </c>
+      <c r="HR7" t="s">
+        <v>294</v>
+      </c>
+      <c r="HS7">
+        <v>1</v>
+      </c>
+      <c r="HT7">
+        <v>1</v>
+      </c>
+      <c r="HU7">
+        <v>3600</v>
+      </c>
+      <c r="HV7">
+        <v>3600</v>
+      </c>
+      <c r="HW7">
+        <v>0.95</v>
+      </c>
+      <c r="HX7">
+        <v>0.1</v>
+      </c>
+      <c r="HY7" t="b">
+        <v>0</v>
+      </c>
+      <c r="HZ7" t="b">
+        <v>0</v>
+      </c>
+      <c r="IA7" t="s">
+        <v>294</v>
+      </c>
+      <c r="IB7">
+        <v>1</v>
+      </c>
+      <c r="IC7">
+        <v>1</v>
+      </c>
+      <c r="ID7">
+        <v>9800</v>
+      </c>
+      <c r="IE7">
+        <v>19500</v>
+      </c>
+      <c r="IF7">
+        <v>0.95</v>
+      </c>
+      <c r="IG7">
         <v>0.5</v>
       </c>
-      <c r="GV7">
-        <v>0.8</v>
-      </c>
-      <c r="GW7">
-        <v>8.5</v>
-      </c>
-      <c r="GX7" t="s">
-        <v>274</v>
-      </c>
-      <c r="GY7" t="s">
-        <v>275</v>
-      </c>
-      <c r="GZ7" t="s">
-        <v>267</v>
-      </c>
-      <c r="HA7">
-        <v>1</v>
-      </c>
-      <c r="HB7">
-        <v>1</v>
-      </c>
-      <c r="HC7">
-        <v>3300</v>
-      </c>
-      <c r="HD7">
-        <v>3300</v>
-      </c>
-      <c r="HE7">
-        <v>0.95</v>
-      </c>
-      <c r="HF7">
-        <v>0.1</v>
-      </c>
-      <c r="HG7" t="b">
-        <v>0</v>
-      </c>
-      <c r="HH7" t="b">
-        <v>0</v>
-      </c>
-      <c r="HI7" t="s">
-        <v>267</v>
-      </c>
-      <c r="HJ7">
-        <v>0</v>
-      </c>
-      <c r="HK7">
-        <v>0</v>
-      </c>
-      <c r="HP7" t="s">
-        <v>267</v>
-      </c>
-      <c r="HQ7" t="s">
-        <v>276</v>
-      </c>
-      <c r="HR7" t="s">
-        <v>276</v>
-      </c>
-      <c r="HS7">
+      <c r="IH7" t="s">
+        <v>294</v>
+      </c>
+      <c r="II7" t="s">
+        <v>306</v>
+      </c>
+      <c r="IJ7" t="s">
+        <v>306</v>
+      </c>
+      <c r="IK7">
         <v>86400</v>
       </c>
-      <c r="HT7" t="s">
-        <v>277</v>
-      </c>
-      <c r="HU7">
+      <c r="IL7" t="s">
+        <v>307</v>
+      </c>
+      <c r="IM7">
         <v>86400</v>
       </c>
-      <c r="HV7" t="s">
-        <v>262</v>
-      </c>
-      <c r="HW7">
-        <v>1</v>
-      </c>
-      <c r="HX7" t="s">
-        <v>262</v>
-      </c>
-      <c r="HY7">
-        <v>1</v>
-      </c>
-      <c r="HZ7" t="s">
-        <v>278</v>
-      </c>
-      <c r="IA7" t="s">
-        <v>262</v>
-      </c>
-      <c r="IB7" t="s">
-        <v>262</v>
-      </c>
-      <c r="IC7" t="s">
-        <v>262</v>
-      </c>
-      <c r="ID7" t="s">
-        <v>278</v>
-      </c>
-      <c r="IE7">
+      <c r="IN7" t="s">
+        <v>289</v>
+      </c>
+      <c r="IO7">
+        <v>1</v>
+      </c>
+      <c r="IP7" t="s">
+        <v>289</v>
+      </c>
+      <c r="IQ7">
+        <v>1</v>
+      </c>
+      <c r="IR7" t="s">
+        <v>308</v>
+      </c>
+      <c r="IS7" t="s">
+        <v>289</v>
+      </c>
+      <c r="IT7" t="s">
+        <v>289</v>
+      </c>
+      <c r="IU7" t="s">
+        <v>289</v>
+      </c>
+      <c r="IV7" t="s">
+        <v>308</v>
+      </c>
+      <c r="IW7">
         <v>86400</v>
       </c>
-      <c r="IF7">
+      <c r="IX7">
         <v>86400</v>
       </c>
-      <c r="IG7">
+      <c r="IY7">
         <v>3600</v>
       </c>
     </row>
-    <row r="8" spans="1:241">
+    <row r="8" spans="1:259">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -5741,7 +6344,7 @@
         <v>2.6</v>
       </c>
       <c r="J8">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -5756,10 +6359,10 @@
         <v>3125000</v>
       </c>
       <c r="O8" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="P8" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -5774,10 +6377,10 @@
         <v>9</v>
       </c>
       <c r="U8" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="V8" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="W8">
         <v>3</v>
@@ -5789,7 +6392,7 @@
         <v>20</v>
       </c>
       <c r="Z8" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AA8">
         <v>3</v>
@@ -5801,13 +6404,13 @@
         <v>20</v>
       </c>
       <c r="AD8" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AE8">
         <v>3</v>
       </c>
       <c r="AF8" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="AG8">
         <v>3</v>
@@ -5822,7 +6425,7 @@
         <v>6</v>
       </c>
       <c r="AM8" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="AN8">
         <v>1</v>
@@ -5837,10 +6440,10 @@
         <v>9</v>
       </c>
       <c r="AR8" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="AS8" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AT8">
         <v>3</v>
@@ -5852,7 +6455,7 @@
         <v>20</v>
       </c>
       <c r="AW8" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AX8">
         <v>3</v>
@@ -5864,25 +6467,34 @@
         <v>20</v>
       </c>
       <c r="BA8" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="BB8">
         <v>3</v>
       </c>
       <c r="BC8" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="BD8">
         <v>3</v>
       </c>
       <c r="BE8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BG8">
+        <v>19500000</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>285</v>
+      </c>
+      <c r="BI8">
+        <v>55</v>
       </c>
       <c r="BJ8" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="BK8">
         <v>1</v>
@@ -5897,10 +6509,10 @@
         <v>9</v>
       </c>
       <c r="BO8" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="BP8" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="BQ8">
         <v>3</v>
@@ -5912,7 +6524,7 @@
         <v>20</v>
       </c>
       <c r="BT8" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="BU8">
         <v>3</v>
@@ -5924,13 +6536,13 @@
         <v>20</v>
       </c>
       <c r="BX8" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="BY8">
         <v>3</v>
       </c>
       <c r="BZ8" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="CA8">
         <v>0</v>
@@ -5939,7 +6551,7 @@
         <v>0</v>
       </c>
       <c r="CF8" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="CG8">
         <v>1</v>
@@ -5954,10 +6566,10 @@
         <v>9</v>
       </c>
       <c r="CK8" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="CL8" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="CM8">
         <v>3</v>
@@ -5969,7 +6581,7 @@
         <v>20</v>
       </c>
       <c r="CP8" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="CQ8">
         <v>3</v>
@@ -5981,25 +6593,40 @@
         <v>20</v>
       </c>
       <c r="CT8" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="CU8">
         <v>3</v>
       </c>
       <c r="CV8" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="CW8">
         <v>3</v>
       </c>
       <c r="CX8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="CZ8">
+        <v>5300</v>
+      </c>
+      <c r="DA8" t="s">
+        <v>291</v>
+      </c>
+      <c r="DB8">
+        <v>-20</v>
+      </c>
+      <c r="DC8">
+        <v>50</v>
+      </c>
+      <c r="DD8" t="b">
+        <v>1</v>
       </c>
       <c r="DE8" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="DF8">
         <v>1</v>
@@ -6014,10 +6641,10 @@
         <v>9</v>
       </c>
       <c r="DJ8" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="DK8" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="DL8">
         <v>3</v>
@@ -6029,7 +6656,7 @@
         <v>20</v>
       </c>
       <c r="DO8" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="DP8">
         <v>3</v>
@@ -6041,19 +6668,19 @@
         <v>20</v>
       </c>
       <c r="DS8" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="DT8">
         <v>3</v>
       </c>
       <c r="DU8" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="DV8">
         <v>3</v>
       </c>
       <c r="DW8" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="DX8">
         <v>0</v>
@@ -6062,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="EC8" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="ED8">
         <v>1</v>
@@ -6077,10 +6704,10 @@
         <v>9</v>
       </c>
       <c r="EH8" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="EI8" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="EJ8">
         <v>3</v>
@@ -6092,7 +6719,7 @@
         <v>20</v>
       </c>
       <c r="EM8" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="EN8">
         <v>3</v>
@@ -6104,19 +6731,19 @@
         <v>20</v>
       </c>
       <c r="EQ8" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="ER8">
         <v>3</v>
       </c>
       <c r="ES8" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="ET8">
         <v>3</v>
       </c>
       <c r="EU8" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="EV8">
         <v>0</v>
@@ -6125,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="FA8" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="FB8">
         <v>1</v>
@@ -6140,10 +6767,10 @@
         <v>9</v>
       </c>
       <c r="FF8" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="FG8" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="FH8">
         <v>3</v>
@@ -6155,7 +6782,7 @@
         <v>20</v>
       </c>
       <c r="FK8" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="FL8">
         <v>3</v>
@@ -6167,141 +6794,258 @@
         <v>20</v>
       </c>
       <c r="FO8" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="FP8">
         <v>3</v>
       </c>
       <c r="FQ8" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="FR8">
         <v>3</v>
       </c>
       <c r="FS8" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="FT8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="FV8">
+        <v>9800</v>
+      </c>
+      <c r="FW8" t="s">
+        <v>295</v>
       </c>
       <c r="FX8" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="FY8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FZ8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="GA8">
+        <v>2</v>
+      </c>
+      <c r="GB8">
+        <v>9</v>
+      </c>
+      <c r="GC8" t="s">
+        <v>276</v>
+      </c>
+      <c r="GD8" t="s">
+        <v>277</v>
+      </c>
+      <c r="GE8">
+        <v>3</v>
+      </c>
+      <c r="GF8">
+        <v>20</v>
+      </c>
+      <c r="GG8">
+        <v>20</v>
+      </c>
+      <c r="GH8" t="s">
+        <v>277</v>
+      </c>
+      <c r="GI8">
+        <v>3</v>
+      </c>
+      <c r="GJ8">
+        <v>20</v>
+      </c>
+      <c r="GK8">
+        <v>20</v>
+      </c>
+      <c r="GL8" t="s">
+        <v>277</v>
+      </c>
+      <c r="GM8">
+        <v>3</v>
+      </c>
+      <c r="GN8" t="s">
+        <v>278</v>
+      </c>
+      <c r="GO8">
+        <v>3</v>
+      </c>
+      <c r="GP8" t="s">
+        <v>294</v>
+      </c>
+      <c r="GQ8">
+        <v>1</v>
+      </c>
+      <c r="GR8">
+        <v>1</v>
       </c>
       <c r="GS8" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="GT8">
+        <v>50000</v>
+      </c>
+      <c r="GU8">
+        <v>7200</v>
+      </c>
+      <c r="GV8">
+        <v>7200</v>
+      </c>
+      <c r="GW8">
+        <v>50000</v>
+      </c>
+      <c r="GX8">
+        <v>0.9</v>
+      </c>
+      <c r="GY8">
+        <v>0.8</v>
+      </c>
+      <c r="GZ8" t="b">
+        <v>0</v>
+      </c>
+      <c r="HA8" t="b">
+        <v>0</v>
+      </c>
+      <c r="HK8" t="s">
+        <v>303</v>
+      </c>
+      <c r="HL8">
         <v>0.05</v>
       </c>
-      <c r="GU8">
+      <c r="HM8">
         <v>0.5</v>
       </c>
-      <c r="GV8">
+      <c r="HN8">
         <v>0.8</v>
       </c>
-      <c r="GW8">
+      <c r="HO8">
         <v>8.5</v>
       </c>
-      <c r="GX8" t="s">
-        <v>274</v>
-      </c>
-      <c r="GY8" t="s">
-        <v>275</v>
-      </c>
-      <c r="GZ8" t="s">
-        <v>267</v>
-      </c>
-      <c r="HA8">
-        <v>0</v>
-      </c>
-      <c r="HB8">
-        <v>0</v>
-      </c>
-      <c r="HI8" t="s">
-        <v>267</v>
-      </c>
-      <c r="HJ8">
-        <v>0</v>
-      </c>
-      <c r="HK8">
-        <v>0</v>
-      </c>
       <c r="HP8" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="HQ8" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="HR8" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="HS8">
+        <v>1</v>
+      </c>
+      <c r="HT8">
+        <v>1</v>
+      </c>
+      <c r="HU8">
+        <v>3100</v>
+      </c>
+      <c r="HV8">
+        <v>3100</v>
+      </c>
+      <c r="HW8">
+        <v>0.95</v>
+      </c>
+      <c r="HX8">
+        <v>0.1</v>
+      </c>
+      <c r="HY8" t="b">
+        <v>0</v>
+      </c>
+      <c r="HZ8" t="b">
+        <v>0</v>
+      </c>
+      <c r="IA8" t="s">
+        <v>294</v>
+      </c>
+      <c r="IB8">
+        <v>1</v>
+      </c>
+      <c r="IC8">
+        <v>1</v>
+      </c>
+      <c r="ID8">
+        <v>9800</v>
+      </c>
+      <c r="IE8">
+        <v>19500</v>
+      </c>
+      <c r="IF8">
+        <v>0.95</v>
+      </c>
+      <c r="IG8">
+        <v>0.5</v>
+      </c>
+      <c r="IH8" t="s">
+        <v>294</v>
+      </c>
+      <c r="II8" t="s">
+        <v>306</v>
+      </c>
+      <c r="IJ8" t="s">
+        <v>306</v>
+      </c>
+      <c r="IK8">
         <v>86400</v>
       </c>
-      <c r="HT8" t="s">
-        <v>277</v>
-      </c>
-      <c r="HU8">
+      <c r="IL8" t="s">
+        <v>307</v>
+      </c>
+      <c r="IM8">
         <v>86400</v>
       </c>
-      <c r="HV8" t="s">
-        <v>262</v>
-      </c>
-      <c r="HW8">
-        <v>1</v>
-      </c>
-      <c r="HX8" t="s">
-        <v>262</v>
-      </c>
-      <c r="HY8">
-        <v>1</v>
-      </c>
-      <c r="HZ8" t="s">
-        <v>278</v>
-      </c>
-      <c r="IA8" t="s">
-        <v>262</v>
-      </c>
-      <c r="IB8" t="s">
-        <v>262</v>
-      </c>
-      <c r="IC8" t="s">
-        <v>262</v>
-      </c>
-      <c r="ID8" t="s">
-        <v>278</v>
-      </c>
-      <c r="IE8">
+      <c r="IN8" t="s">
+        <v>289</v>
+      </c>
+      <c r="IO8">
+        <v>1</v>
+      </c>
+      <c r="IP8" t="s">
+        <v>289</v>
+      </c>
+      <c r="IQ8">
+        <v>1</v>
+      </c>
+      <c r="IR8" t="s">
+        <v>308</v>
+      </c>
+      <c r="IS8" t="s">
+        <v>289</v>
+      </c>
+      <c r="IT8" t="s">
+        <v>289</v>
+      </c>
+      <c r="IU8" t="s">
+        <v>289</v>
+      </c>
+      <c r="IV8" t="s">
+        <v>308</v>
+      </c>
+      <c r="IW8">
         <v>86400</v>
       </c>
-      <c r="IF8">
+      <c r="IX8">
         <v>86400</v>
       </c>
-      <c r="IG8">
+      <c r="IY8">
         <v>3600</v>
       </c>
     </row>
-    <row r="9" spans="1:241">
+    <row r="9" spans="1:259">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -6310,7 +7054,7 @@
         <v>2.6</v>
       </c>
       <c r="J9">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -6322,13 +7066,13 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <v>3564000</v>
+        <v>5527000</v>
       </c>
       <c r="O9" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="P9" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -6343,10 +7087,10 @@
         <v>9</v>
       </c>
       <c r="U9" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="V9" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="W9">
         <v>3</v>
@@ -6358,7 +7102,7 @@
         <v>20</v>
       </c>
       <c r="Z9" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AA9">
         <v>3</v>
@@ -6370,13 +7114,13 @@
         <v>20</v>
       </c>
       <c r="AD9" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AE9">
         <v>3</v>
       </c>
       <c r="AF9" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="AG9">
         <v>3</v>
@@ -6391,7 +7135,7 @@
         <v>6</v>
       </c>
       <c r="AM9" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="AN9">
         <v>1</v>
@@ -6406,10 +7150,10 @@
         <v>9</v>
       </c>
       <c r="AR9" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="AS9" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AT9">
         <v>3</v>
@@ -6421,7 +7165,7 @@
         <v>20</v>
       </c>
       <c r="AW9" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AX9">
         <v>3</v>
@@ -6433,25 +7177,34 @@
         <v>20</v>
       </c>
       <c r="BA9" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="BB9">
         <v>3</v>
       </c>
       <c r="BC9" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="BD9">
         <v>3</v>
       </c>
       <c r="BE9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF9">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BG9">
+        <v>5500000</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>286</v>
+      </c>
+      <c r="BI9">
+        <v>55</v>
       </c>
       <c r="BJ9" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="BK9">
         <v>1</v>
@@ -6466,10 +7219,10 @@
         <v>9</v>
       </c>
       <c r="BO9" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="BP9" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="BQ9">
         <v>3</v>
@@ -6481,7 +7234,7 @@
         <v>20</v>
       </c>
       <c r="BT9" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="BU9">
         <v>3</v>
@@ -6493,13 +7246,13 @@
         <v>20</v>
       </c>
       <c r="BX9" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="BY9">
         <v>3</v>
       </c>
       <c r="BZ9" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="CA9">
         <v>0</v>
@@ -6508,7 +7261,7 @@
         <v>0</v>
       </c>
       <c r="CF9" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="CG9">
         <v>1</v>
@@ -6523,10 +7276,10 @@
         <v>9</v>
       </c>
       <c r="CK9" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="CL9" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="CM9">
         <v>3</v>
@@ -6538,7 +7291,7 @@
         <v>20</v>
       </c>
       <c r="CP9" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="CQ9">
         <v>3</v>
@@ -6550,13 +7303,13 @@
         <v>20</v>
       </c>
       <c r="CT9" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="CU9">
         <v>3</v>
       </c>
       <c r="CV9" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="CW9">
         <v>3</v>
@@ -6568,10 +7321,10 @@
         <v>1</v>
       </c>
       <c r="CZ9">
-        <v>6200</v>
+        <v>8700</v>
       </c>
       <c r="DA9" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="DB9">
         <v>0</v>
@@ -6583,7 +7336,7 @@
         <v>1</v>
       </c>
       <c r="DE9" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="DF9">
         <v>1</v>
@@ -6598,10 +7351,10 @@
         <v>9</v>
       </c>
       <c r="DJ9" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="DK9" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="DL9">
         <v>3</v>
@@ -6613,7 +7366,7 @@
         <v>20</v>
       </c>
       <c r="DO9" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="DP9">
         <v>3</v>
@@ -6625,19 +7378,19 @@
         <v>20</v>
       </c>
       <c r="DS9" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="DT9">
         <v>3</v>
       </c>
       <c r="DU9" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="DV9">
         <v>3</v>
       </c>
       <c r="DW9" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="DX9">
         <v>0</v>
@@ -6646,7 +7399,7 @@
         <v>0</v>
       </c>
       <c r="EC9" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="ED9">
         <v>1</v>
@@ -6661,10 +7414,10 @@
         <v>9</v>
       </c>
       <c r="EH9" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="EI9" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="EJ9">
         <v>3</v>
@@ -6676,7 +7429,7 @@
         <v>20</v>
       </c>
       <c r="EM9" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="EN9">
         <v>3</v>
@@ -6688,19 +7441,19 @@
         <v>20</v>
       </c>
       <c r="EQ9" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="ER9">
         <v>3</v>
       </c>
       <c r="ES9" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="ET9">
         <v>3</v>
       </c>
       <c r="EU9" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="EV9">
         <v>0</v>
@@ -6709,7 +7462,7 @@
         <v>0</v>
       </c>
       <c r="FA9" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="FB9">
         <v>1</v>
@@ -6724,10 +7477,10 @@
         <v>9</v>
       </c>
       <c r="FF9" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="FG9" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="FH9">
         <v>3</v>
@@ -6739,7 +7492,7 @@
         <v>20</v>
       </c>
       <c r="FK9" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="FL9">
         <v>3</v>
@@ -6751,159 +7504,231 @@
         <v>20</v>
       </c>
       <c r="FO9" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="FP9">
         <v>3</v>
       </c>
       <c r="FQ9" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="FR9">
         <v>3</v>
       </c>
       <c r="FS9" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="FT9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU9">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="FV9">
+        <v>2800</v>
+      </c>
+      <c r="FW9" t="s">
+        <v>296</v>
       </c>
       <c r="FX9" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="FY9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FZ9">
-        <v>0</v>
-      </c>
-      <c r="GS9" t="s">
-        <v>273</v>
-      </c>
-      <c r="GT9">
+        <v>1</v>
+      </c>
+      <c r="GA9">
+        <v>2</v>
+      </c>
+      <c r="GB9">
+        <v>9</v>
+      </c>
+      <c r="GC9" t="s">
+        <v>276</v>
+      </c>
+      <c r="GD9" t="s">
+        <v>277</v>
+      </c>
+      <c r="GE9">
+        <v>3</v>
+      </c>
+      <c r="GF9">
+        <v>20</v>
+      </c>
+      <c r="GG9">
+        <v>20</v>
+      </c>
+      <c r="GH9" t="s">
+        <v>277</v>
+      </c>
+      <c r="GI9">
+        <v>3</v>
+      </c>
+      <c r="GJ9">
+        <v>20</v>
+      </c>
+      <c r="GK9">
+        <v>20</v>
+      </c>
+      <c r="GL9" t="s">
+        <v>277</v>
+      </c>
+      <c r="GM9">
+        <v>3</v>
+      </c>
+      <c r="GN9" t="s">
+        <v>278</v>
+      </c>
+      <c r="GO9">
+        <v>3</v>
+      </c>
+      <c r="GP9" t="s">
+        <v>294</v>
+      </c>
+      <c r="GQ9">
+        <v>0</v>
+      </c>
+      <c r="GR9">
+        <v>0</v>
+      </c>
+      <c r="HK9" t="s">
+        <v>303</v>
+      </c>
+      <c r="HL9">
         <v>0.05</v>
       </c>
-      <c r="GU9">
+      <c r="HM9">
         <v>0.5</v>
       </c>
-      <c r="GV9">
+      <c r="HN9">
         <v>0.8</v>
       </c>
-      <c r="GW9">
+      <c r="HO9">
         <v>8.5</v>
       </c>
-      <c r="GX9" t="s">
-        <v>274</v>
-      </c>
-      <c r="GY9" t="s">
-        <v>275</v>
-      </c>
-      <c r="GZ9" t="s">
-        <v>267</v>
-      </c>
-      <c r="HA9">
-        <v>1</v>
-      </c>
-      <c r="HB9">
-        <v>1</v>
-      </c>
-      <c r="HC9">
+      <c r="HP9" t="s">
+        <v>304</v>
+      </c>
+      <c r="HQ9" t="s">
+        <v>305</v>
+      </c>
+      <c r="HR9" t="s">
+        <v>294</v>
+      </c>
+      <c r="HS9">
+        <v>1</v>
+      </c>
+      <c r="HT9">
+        <v>1</v>
+      </c>
+      <c r="HU9">
+        <v>5500</v>
+      </c>
+      <c r="HV9">
+        <v>5500</v>
+      </c>
+      <c r="HW9">
+        <v>0.95</v>
+      </c>
+      <c r="HX9">
+        <v>0.1</v>
+      </c>
+      <c r="HY9" t="b">
+        <v>0</v>
+      </c>
+      <c r="HZ9" t="b">
+        <v>0</v>
+      </c>
+      <c r="IA9" t="s">
+        <v>294</v>
+      </c>
+      <c r="IB9">
+        <v>1</v>
+      </c>
+      <c r="IC9">
+        <v>1</v>
+      </c>
+      <c r="ID9">
+        <v>2800</v>
+      </c>
+      <c r="IE9">
+        <v>5500</v>
+      </c>
+      <c r="IF9">
+        <v>0.95</v>
+      </c>
+      <c r="IG9">
+        <v>0.5</v>
+      </c>
+      <c r="IH9" t="s">
+        <v>294</v>
+      </c>
+      <c r="II9" t="s">
+        <v>306</v>
+      </c>
+      <c r="IJ9" t="s">
+        <v>306</v>
+      </c>
+      <c r="IK9">
+        <v>86400</v>
+      </c>
+      <c r="IL9" t="s">
+        <v>307</v>
+      </c>
+      <c r="IM9">
+        <v>86400</v>
+      </c>
+      <c r="IN9" t="s">
+        <v>289</v>
+      </c>
+      <c r="IO9">
+        <v>1</v>
+      </c>
+      <c r="IP9" t="s">
+        <v>289</v>
+      </c>
+      <c r="IQ9">
+        <v>1</v>
+      </c>
+      <c r="IR9" t="s">
+        <v>308</v>
+      </c>
+      <c r="IS9" t="s">
+        <v>289</v>
+      </c>
+      <c r="IT9" t="s">
+        <v>289</v>
+      </c>
+      <c r="IU9" t="s">
+        <v>289</v>
+      </c>
+      <c r="IV9" t="s">
+        <v>308</v>
+      </c>
+      <c r="IW9">
+        <v>86400</v>
+      </c>
+      <c r="IX9">
+        <v>86400</v>
+      </c>
+      <c r="IY9">
         <v>3600</v>
       </c>
-      <c r="HD9">
-        <v>3600</v>
-      </c>
-      <c r="HE9">
-        <v>0.95</v>
-      </c>
-      <c r="HF9">
-        <v>0.1</v>
-      </c>
-      <c r="HG9" t="b">
-        <v>0</v>
-      </c>
-      <c r="HH9" t="b">
-        <v>0</v>
-      </c>
-      <c r="HI9" t="s">
-        <v>267</v>
-      </c>
-      <c r="HJ9">
-        <v>0</v>
-      </c>
-      <c r="HK9">
-        <v>0</v>
-      </c>
-      <c r="HP9" t="s">
-        <v>267</v>
-      </c>
-      <c r="HQ9" t="s">
-        <v>276</v>
-      </c>
-      <c r="HR9" t="s">
-        <v>276</v>
-      </c>
-      <c r="HS9">
-        <v>86400</v>
-      </c>
-      <c r="HT9" t="s">
-        <v>277</v>
-      </c>
-      <c r="HU9">
-        <v>86400</v>
-      </c>
-      <c r="HV9" t="s">
-        <v>262</v>
-      </c>
-      <c r="HW9">
-        <v>1</v>
-      </c>
-      <c r="HX9" t="s">
-        <v>262</v>
-      </c>
-      <c r="HY9">
-        <v>1</v>
-      </c>
-      <c r="HZ9" t="s">
-        <v>278</v>
-      </c>
-      <c r="IA9" t="s">
-        <v>262</v>
-      </c>
-      <c r="IB9" t="s">
-        <v>262</v>
-      </c>
-      <c r="IC9" t="s">
-        <v>262</v>
-      </c>
-      <c r="ID9" t="s">
-        <v>278</v>
-      </c>
-      <c r="IE9">
-        <v>86400</v>
-      </c>
-      <c r="IF9">
-        <v>86400</v>
-      </c>
-      <c r="IG9">
-        <v>3600</v>
-      </c>
     </row>
-    <row r="10" spans="1:241">
+    <row r="10" spans="1:259">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -6912,7 +7737,7 @@
         <v>2.6</v>
       </c>
       <c r="J10">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -6924,13 +7749,13 @@
         <v>1</v>
       </c>
       <c r="N10">
-        <v>2687000</v>
+        <v>4402000</v>
       </c>
       <c r="O10" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="P10" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -6945,10 +7770,10 @@
         <v>9</v>
       </c>
       <c r="U10" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="V10" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="W10">
         <v>3</v>
@@ -6960,7 +7785,7 @@
         <v>20</v>
       </c>
       <c r="Z10" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AA10">
         <v>3</v>
@@ -6972,13 +7797,13 @@
         <v>20</v>
       </c>
       <c r="AD10" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AE10">
         <v>3</v>
       </c>
       <c r="AF10" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="AG10">
         <v>3</v>
@@ -6993,7 +7818,7 @@
         <v>6</v>
       </c>
       <c r="AM10" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="AN10">
         <v>1</v>
@@ -7008,10 +7833,10 @@
         <v>9</v>
       </c>
       <c r="AR10" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="AS10" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AT10">
         <v>3</v>
@@ -7023,7 +7848,7 @@
         <v>20</v>
       </c>
       <c r="AW10" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AX10">
         <v>3</v>
@@ -7035,25 +7860,34 @@
         <v>20</v>
       </c>
       <c r="BA10" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="BB10">
         <v>3</v>
       </c>
       <c r="BC10" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="BD10">
         <v>3</v>
       </c>
       <c r="BE10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF10">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BG10">
+        <v>5500000</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>287</v>
+      </c>
+      <c r="BI10">
+        <v>35</v>
       </c>
       <c r="BJ10" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="BK10">
         <v>1</v>
@@ -7068,10 +7902,10 @@
         <v>9</v>
       </c>
       <c r="BO10" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="BP10" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="BQ10">
         <v>3</v>
@@ -7083,7 +7917,7 @@
         <v>20</v>
       </c>
       <c r="BT10" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="BU10">
         <v>3</v>
@@ -7095,13 +7929,13 @@
         <v>20</v>
       </c>
       <c r="BX10" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="BY10">
         <v>3</v>
       </c>
       <c r="BZ10" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="CA10">
         <v>0</v>
@@ -7110,7 +7944,7 @@
         <v>0</v>
       </c>
       <c r="CF10" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="CG10">
         <v>1</v>
@@ -7125,10 +7959,10 @@
         <v>9</v>
       </c>
       <c r="CK10" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="CL10" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="CM10">
         <v>3</v>
@@ -7140,7 +7974,7 @@
         <v>20</v>
       </c>
       <c r="CP10" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="CQ10">
         <v>3</v>
@@ -7152,40 +7986,25 @@
         <v>20</v>
       </c>
       <c r="CT10" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="CU10">
         <v>3</v>
       </c>
       <c r="CV10" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="CW10">
         <v>3</v>
       </c>
       <c r="CX10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY10">
-        <v>1</v>
-      </c>
-      <c r="CZ10">
-        <v>4200</v>
-      </c>
-      <c r="DA10" t="s">
-        <v>264</v>
-      </c>
-      <c r="DB10">
-        <v>-20</v>
-      </c>
-      <c r="DC10">
-        <v>50</v>
-      </c>
-      <c r="DD10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE10" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="DF10">
         <v>1</v>
@@ -7200,10 +8019,10 @@
         <v>9</v>
       </c>
       <c r="DJ10" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="DK10" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="DL10">
         <v>3</v>
@@ -7215,7 +8034,7 @@
         <v>20</v>
       </c>
       <c r="DO10" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="DP10">
         <v>3</v>
@@ -7227,19 +8046,19 @@
         <v>20</v>
       </c>
       <c r="DS10" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="DT10">
         <v>3</v>
       </c>
       <c r="DU10" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="DV10">
         <v>3</v>
       </c>
       <c r="DW10" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="DX10">
         <v>0</v>
@@ -7248,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="EC10" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="ED10">
         <v>1</v>
@@ -7263,10 +8082,10 @@
         <v>9</v>
       </c>
       <c r="EH10" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="EI10" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="EJ10">
         <v>3</v>
@@ -7278,7 +8097,7 @@
         <v>20</v>
       </c>
       <c r="EM10" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="EN10">
         <v>3</v>
@@ -7290,19 +8109,19 @@
         <v>20</v>
       </c>
       <c r="EQ10" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="ER10">
         <v>3</v>
       </c>
       <c r="ES10" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="ET10">
         <v>3</v>
       </c>
       <c r="EU10" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="EV10">
         <v>0</v>
@@ -7311,7 +8130,7 @@
         <v>0</v>
       </c>
       <c r="FA10" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="FB10">
         <v>1</v>
@@ -7326,10 +8145,10 @@
         <v>9</v>
       </c>
       <c r="FF10" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="FG10" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="FH10">
         <v>3</v>
@@ -7341,7 +8160,7 @@
         <v>20</v>
       </c>
       <c r="FK10" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="FL10">
         <v>3</v>
@@ -7353,159 +8172,213 @@
         <v>20</v>
       </c>
       <c r="FO10" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="FP10">
         <v>3</v>
       </c>
       <c r="FQ10" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="FR10">
         <v>3</v>
       </c>
       <c r="FS10" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="FT10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU10">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="FV10">
+        <v>2800</v>
+      </c>
+      <c r="FW10" t="s">
+        <v>295</v>
       </c>
       <c r="FX10" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="FY10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FZ10">
-        <v>0</v>
-      </c>
-      <c r="GS10" t="s">
-        <v>273</v>
-      </c>
-      <c r="GT10">
+        <v>1</v>
+      </c>
+      <c r="GA10">
+        <v>2</v>
+      </c>
+      <c r="GB10">
+        <v>9</v>
+      </c>
+      <c r="GC10" t="s">
+        <v>276</v>
+      </c>
+      <c r="GD10" t="s">
+        <v>277</v>
+      </c>
+      <c r="GE10">
+        <v>3</v>
+      </c>
+      <c r="GF10">
+        <v>20</v>
+      </c>
+      <c r="GG10">
+        <v>20</v>
+      </c>
+      <c r="GH10" t="s">
+        <v>277</v>
+      </c>
+      <c r="GI10">
+        <v>3</v>
+      </c>
+      <c r="GJ10">
+        <v>20</v>
+      </c>
+      <c r="GK10">
+        <v>20</v>
+      </c>
+      <c r="GL10" t="s">
+        <v>277</v>
+      </c>
+      <c r="GM10">
+        <v>3</v>
+      </c>
+      <c r="GN10" t="s">
+        <v>278</v>
+      </c>
+      <c r="GO10">
+        <v>3</v>
+      </c>
+      <c r="GP10" t="s">
+        <v>294</v>
+      </c>
+      <c r="GQ10">
+        <v>0</v>
+      </c>
+      <c r="GR10">
+        <v>0</v>
+      </c>
+      <c r="HK10" t="s">
+        <v>303</v>
+      </c>
+      <c r="HL10">
         <v>0.05</v>
       </c>
-      <c r="GU10">
+      <c r="HM10">
         <v>0.5</v>
       </c>
-      <c r="GV10">
+      <c r="HN10">
         <v>0.8</v>
       </c>
-      <c r="GW10">
+      <c r="HO10">
         <v>8.5</v>
       </c>
-      <c r="GX10" t="s">
-        <v>274</v>
-      </c>
-      <c r="GY10" t="s">
-        <v>275</v>
-      </c>
-      <c r="GZ10" t="s">
-        <v>267</v>
-      </c>
-      <c r="HA10">
-        <v>1</v>
-      </c>
-      <c r="HB10">
-        <v>1</v>
-      </c>
-      <c r="HC10">
-        <v>2700</v>
-      </c>
-      <c r="HD10">
-        <v>2700</v>
-      </c>
-      <c r="HE10">
+      <c r="HP10" t="s">
+        <v>304</v>
+      </c>
+      <c r="HQ10" t="s">
+        <v>305</v>
+      </c>
+      <c r="HR10" t="s">
+        <v>294</v>
+      </c>
+      <c r="HS10">
+        <v>0</v>
+      </c>
+      <c r="HT10">
+        <v>0</v>
+      </c>
+      <c r="IA10" t="s">
+        <v>294</v>
+      </c>
+      <c r="IB10">
+        <v>1</v>
+      </c>
+      <c r="IC10">
+        <v>1</v>
+      </c>
+      <c r="ID10">
+        <v>2800</v>
+      </c>
+      <c r="IE10">
+        <v>5500</v>
+      </c>
+      <c r="IF10">
         <v>0.95</v>
       </c>
-      <c r="HF10">
-        <v>0.1</v>
-      </c>
-      <c r="HG10" t="b">
-        <v>0</v>
-      </c>
-      <c r="HH10" t="b">
-        <v>0</v>
-      </c>
-      <c r="HI10" t="s">
-        <v>267</v>
-      </c>
-      <c r="HJ10">
-        <v>0</v>
-      </c>
-      <c r="HK10">
-        <v>0</v>
-      </c>
-      <c r="HP10" t="s">
-        <v>267</v>
-      </c>
-      <c r="HQ10" t="s">
-        <v>276</v>
-      </c>
-      <c r="HR10" t="s">
-        <v>276</v>
-      </c>
-      <c r="HS10">
+      <c r="IG10">
+        <v>0.5</v>
+      </c>
+      <c r="IH10" t="s">
+        <v>294</v>
+      </c>
+      <c r="II10" t="s">
+        <v>306</v>
+      </c>
+      <c r="IJ10" t="s">
+        <v>306</v>
+      </c>
+      <c r="IK10">
         <v>86400</v>
       </c>
-      <c r="HT10" t="s">
-        <v>277</v>
-      </c>
-      <c r="HU10">
+      <c r="IL10" t="s">
+        <v>307</v>
+      </c>
+      <c r="IM10">
         <v>86400</v>
       </c>
-      <c r="HV10" t="s">
-        <v>262</v>
-      </c>
-      <c r="HW10">
-        <v>1</v>
-      </c>
-      <c r="HX10" t="s">
-        <v>262</v>
-      </c>
-      <c r="HY10">
-        <v>1</v>
-      </c>
-      <c r="HZ10" t="s">
-        <v>278</v>
-      </c>
-      <c r="IA10" t="s">
-        <v>262</v>
-      </c>
-      <c r="IB10" t="s">
-        <v>262</v>
-      </c>
-      <c r="IC10" t="s">
-        <v>262</v>
-      </c>
-      <c r="ID10" t="s">
-        <v>278</v>
-      </c>
-      <c r="IE10">
+      <c r="IN10" t="s">
+        <v>289</v>
+      </c>
+      <c r="IO10">
+        <v>1</v>
+      </c>
+      <c r="IP10" t="s">
+        <v>289</v>
+      </c>
+      <c r="IQ10">
+        <v>1</v>
+      </c>
+      <c r="IR10" t="s">
+        <v>308</v>
+      </c>
+      <c r="IS10" t="s">
+        <v>289</v>
+      </c>
+      <c r="IT10" t="s">
+        <v>289</v>
+      </c>
+      <c r="IU10" t="s">
+        <v>289</v>
+      </c>
+      <c r="IV10" t="s">
+        <v>308</v>
+      </c>
+      <c r="IW10">
         <v>86400</v>
       </c>
-      <c r="IF10">
+      <c r="IX10">
         <v>86400</v>
       </c>
-      <c r="IG10">
+      <c r="IY10">
         <v>3600</v>
       </c>
     </row>
-    <row r="11" spans="1:241">
+    <row r="11" spans="1:259">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -7514,7 +8387,7 @@
         <v>2.6</v>
       </c>
       <c r="J11">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -7526,13 +8399,13 @@
         <v>1</v>
       </c>
       <c r="N11">
-        <v>3125000</v>
+        <v>2532000</v>
       </c>
       <c r="O11" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="P11" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -7547,10 +8420,10 @@
         <v>9</v>
       </c>
       <c r="U11" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="V11" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="W11">
         <v>3</v>
@@ -7562,7 +8435,7 @@
         <v>20</v>
       </c>
       <c r="Z11" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AA11">
         <v>3</v>
@@ -7574,13 +8447,13 @@
         <v>20</v>
       </c>
       <c r="AD11" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AE11">
         <v>3</v>
       </c>
       <c r="AF11" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="AG11">
         <v>3</v>
@@ -7595,7 +8468,7 @@
         <v>6</v>
       </c>
       <c r="AM11" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="AN11">
         <v>1</v>
@@ -7610,10 +8483,10 @@
         <v>9</v>
       </c>
       <c r="AR11" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="AS11" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AT11">
         <v>3</v>
@@ -7625,7 +8498,7 @@
         <v>20</v>
       </c>
       <c r="AW11" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AX11">
         <v>3</v>
@@ -7637,25 +8510,34 @@
         <v>20</v>
       </c>
       <c r="BA11" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="BB11">
         <v>3</v>
       </c>
       <c r="BC11" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="BD11">
         <v>3</v>
       </c>
       <c r="BE11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF11">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BG11">
+        <v>5500000</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>288</v>
+      </c>
+      <c r="BI11">
+        <v>55</v>
       </c>
       <c r="BJ11" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="BK11">
         <v>1</v>
@@ -7670,10 +8552,10 @@
         <v>9</v>
       </c>
       <c r="BO11" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="BP11" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="BQ11">
         <v>3</v>
@@ -7685,7 +8567,7 @@
         <v>20</v>
       </c>
       <c r="BT11" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="BU11">
         <v>3</v>
@@ -7697,13 +8579,13 @@
         <v>20</v>
       </c>
       <c r="BX11" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="BY11">
         <v>3</v>
       </c>
       <c r="BZ11" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="CA11">
         <v>0</v>
@@ -7712,7 +8594,7 @@
         <v>0</v>
       </c>
       <c r="CF11" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="CG11">
         <v>1</v>
@@ -7727,10 +8609,10 @@
         <v>9</v>
       </c>
       <c r="CK11" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="CL11" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="CM11">
         <v>3</v>
@@ -7742,7 +8624,7 @@
         <v>20</v>
       </c>
       <c r="CP11" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="CQ11">
         <v>3</v>
@@ -7754,13 +8636,13 @@
         <v>20</v>
       </c>
       <c r="CT11" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="CU11">
         <v>3</v>
       </c>
       <c r="CV11" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="CW11">
         <v>3</v>
@@ -7772,10 +8654,10 @@
         <v>1</v>
       </c>
       <c r="CZ11">
-        <v>4800</v>
+        <v>3200</v>
       </c>
       <c r="DA11" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="DB11">
         <v>0</v>
@@ -7787,7 +8669,7 @@
         <v>1</v>
       </c>
       <c r="DE11" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="DF11">
         <v>1</v>
@@ -7802,10 +8684,10 @@
         <v>9</v>
       </c>
       <c r="DJ11" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="DK11" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="DL11">
         <v>3</v>
@@ -7817,7 +8699,7 @@
         <v>20</v>
       </c>
       <c r="DO11" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="DP11">
         <v>3</v>
@@ -7829,19 +8711,19 @@
         <v>20</v>
       </c>
       <c r="DS11" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="DT11">
         <v>3</v>
       </c>
       <c r="DU11" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="DV11">
         <v>3</v>
       </c>
       <c r="DW11" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="DX11">
         <v>0</v>
@@ -7850,7 +8732,7 @@
         <v>0</v>
       </c>
       <c r="EC11" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="ED11">
         <v>1</v>
@@ -7865,10 +8747,10 @@
         <v>9</v>
       </c>
       <c r="EH11" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="EI11" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="EJ11">
         <v>3</v>
@@ -7880,7 +8762,7 @@
         <v>20</v>
       </c>
       <c r="EM11" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="EN11">
         <v>3</v>
@@ -7892,19 +8774,19 @@
         <v>20</v>
       </c>
       <c r="EQ11" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="ER11">
         <v>3</v>
       </c>
       <c r="ES11" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="ET11">
         <v>3</v>
       </c>
       <c r="EU11" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="EV11">
         <v>0</v>
@@ -7913,7 +8795,7 @@
         <v>0</v>
       </c>
       <c r="FA11" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="FB11">
         <v>1</v>
@@ -7928,10 +8810,10 @@
         <v>9</v>
       </c>
       <c r="FF11" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="FG11" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="FH11">
         <v>3</v>
@@ -7943,7 +8825,7 @@
         <v>20</v>
       </c>
       <c r="FK11" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="FL11">
         <v>3</v>
@@ -7955,144 +8837,216 @@
         <v>20</v>
       </c>
       <c r="FO11" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="FP11">
         <v>3</v>
       </c>
       <c r="FQ11" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="FR11">
         <v>3</v>
       </c>
       <c r="FS11" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="FT11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU11">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="FV11">
+        <v>2800</v>
+      </c>
+      <c r="FW11" t="s">
+        <v>295</v>
       </c>
       <c r="FX11" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="FY11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FZ11">
-        <v>0</v>
-      </c>
-      <c r="GS11" t="s">
-        <v>273</v>
-      </c>
-      <c r="GT11">
+        <v>1</v>
+      </c>
+      <c r="GA11">
+        <v>2</v>
+      </c>
+      <c r="GB11">
+        <v>9</v>
+      </c>
+      <c r="GC11" t="s">
+        <v>276</v>
+      </c>
+      <c r="GD11" t="s">
+        <v>277</v>
+      </c>
+      <c r="GE11">
+        <v>3</v>
+      </c>
+      <c r="GF11">
+        <v>20</v>
+      </c>
+      <c r="GG11">
+        <v>20</v>
+      </c>
+      <c r="GH11" t="s">
+        <v>277</v>
+      </c>
+      <c r="GI11">
+        <v>3</v>
+      </c>
+      <c r="GJ11">
+        <v>20</v>
+      </c>
+      <c r="GK11">
+        <v>20</v>
+      </c>
+      <c r="GL11" t="s">
+        <v>277</v>
+      </c>
+      <c r="GM11">
+        <v>3</v>
+      </c>
+      <c r="GN11" t="s">
+        <v>278</v>
+      </c>
+      <c r="GO11">
+        <v>3</v>
+      </c>
+      <c r="GP11" t="s">
+        <v>294</v>
+      </c>
+      <c r="GQ11">
+        <v>0</v>
+      </c>
+      <c r="GR11">
+        <v>0</v>
+      </c>
+      <c r="HK11" t="s">
+        <v>303</v>
+      </c>
+      <c r="HL11">
         <v>0.05</v>
       </c>
-      <c r="GU11">
+      <c r="HM11">
         <v>0.5</v>
       </c>
-      <c r="GV11">
+      <c r="HN11">
         <v>0.8</v>
       </c>
-      <c r="GW11">
+      <c r="HO11">
         <v>8.5</v>
       </c>
-      <c r="GX11" t="s">
-        <v>274</v>
-      </c>
-      <c r="GY11" t="s">
-        <v>275</v>
-      </c>
-      <c r="GZ11" t="s">
-        <v>267</v>
-      </c>
-      <c r="HA11">
-        <v>1</v>
-      </c>
-      <c r="HB11">
-        <v>1</v>
-      </c>
-      <c r="HC11">
-        <v>3100</v>
-      </c>
-      <c r="HD11">
-        <v>3100</v>
-      </c>
-      <c r="HE11">
+      <c r="HP11" t="s">
+        <v>304</v>
+      </c>
+      <c r="HQ11" t="s">
+        <v>305</v>
+      </c>
+      <c r="HR11" t="s">
+        <v>294</v>
+      </c>
+      <c r="HS11">
+        <v>1</v>
+      </c>
+      <c r="HT11">
+        <v>1</v>
+      </c>
+      <c r="HU11">
+        <v>2500</v>
+      </c>
+      <c r="HV11">
+        <v>2500</v>
+      </c>
+      <c r="HW11">
         <v>0.95</v>
       </c>
-      <c r="HF11">
+      <c r="HX11">
         <v>0.1</v>
       </c>
-      <c r="HG11" t="b">
-        <v>0</v>
-      </c>
-      <c r="HH11" t="b">
-        <v>0</v>
-      </c>
-      <c r="HI11" t="s">
-        <v>267</v>
-      </c>
-      <c r="HJ11">
-        <v>0</v>
-      </c>
-      <c r="HK11">
-        <v>0</v>
-      </c>
-      <c r="HP11" t="s">
-        <v>267</v>
-      </c>
-      <c r="HQ11" t="s">
-        <v>276</v>
-      </c>
-      <c r="HR11" t="s">
-        <v>276</v>
-      </c>
-      <c r="HS11">
+      <c r="HY11" t="b">
+        <v>0</v>
+      </c>
+      <c r="HZ11" t="b">
+        <v>0</v>
+      </c>
+      <c r="IA11" t="s">
+        <v>294</v>
+      </c>
+      <c r="IB11">
+        <v>1</v>
+      </c>
+      <c r="IC11">
+        <v>1</v>
+      </c>
+      <c r="ID11">
+        <v>2800</v>
+      </c>
+      <c r="IE11">
+        <v>5500</v>
+      </c>
+      <c r="IF11">
+        <v>0.95</v>
+      </c>
+      <c r="IG11">
+        <v>0.5</v>
+      </c>
+      <c r="IH11" t="s">
+        <v>294</v>
+      </c>
+      <c r="II11" t="s">
+        <v>306</v>
+      </c>
+      <c r="IJ11" t="s">
+        <v>306</v>
+      </c>
+      <c r="IK11">
         <v>86400</v>
       </c>
-      <c r="HT11" t="s">
-        <v>277</v>
-      </c>
-      <c r="HU11">
+      <c r="IL11" t="s">
+        <v>307</v>
+      </c>
+      <c r="IM11">
         <v>86400</v>
       </c>
-      <c r="HV11" t="s">
-        <v>262</v>
-      </c>
-      <c r="HW11">
-        <v>1</v>
-      </c>
-      <c r="HX11" t="s">
-        <v>262</v>
-      </c>
-      <c r="HY11">
-        <v>1</v>
-      </c>
-      <c r="HZ11" t="s">
-        <v>278</v>
-      </c>
-      <c r="IA11" t="s">
-        <v>262</v>
-      </c>
-      <c r="IB11" t="s">
-        <v>262</v>
-      </c>
-      <c r="IC11" t="s">
-        <v>262</v>
-      </c>
-      <c r="ID11" t="s">
-        <v>278</v>
-      </c>
-      <c r="IE11">
+      <c r="IN11" t="s">
+        <v>289</v>
+      </c>
+      <c r="IO11">
+        <v>1</v>
+      </c>
+      <c r="IP11" t="s">
+        <v>289</v>
+      </c>
+      <c r="IQ11">
+        <v>1</v>
+      </c>
+      <c r="IR11" t="s">
+        <v>308</v>
+      </c>
+      <c r="IS11" t="s">
+        <v>289</v>
+      </c>
+      <c r="IT11" t="s">
+        <v>289</v>
+      </c>
+      <c r="IU11" t="s">
+        <v>289</v>
+      </c>
+      <c r="IV11" t="s">
+        <v>308</v>
+      </c>
+      <c r="IW11">
         <v>86400</v>
       </c>
-      <c r="IF11">
+      <c r="IX11">
         <v>86400</v>
       </c>
-      <c r="IG11">
+      <c r="IY11">
         <v>3600</v>
       </c>
     </row>
@@ -8123,13 +9077,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -8351,7 +9305,7 @@
         <v>76</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="CE1" s="1" t="s">
         <v>77</v>
@@ -8657,184 +9611,184 @@
         <v>177</v>
       </c>
       <c r="GB1" s="1" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="GC1" s="1" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="GD1" s="1" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="GE1" s="1" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="GF1" s="1" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="GG1" s="1" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="GH1" s="1" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="GI1" s="1" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="GJ1" s="1" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="GK1" s="1" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="GL1" s="1" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="GM1" s="1" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="GN1" s="1" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="GO1" s="1" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="GP1" s="1" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="GQ1" s="1" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="GR1" s="1" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="GS1" s="1" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="GT1" s="1" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="GU1" s="1" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="GV1" s="1" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="GW1" s="1" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="GX1" s="1" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="GY1" s="1" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="GZ1" s="1" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="HA1" s="1" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="HB1" s="1" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="HC1" s="1" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="HD1" s="1" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="HE1" s="1" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="HF1" s="1" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="HG1" s="1" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="HH1" s="1" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="HI1" s="1" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="HJ1" s="1" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="HK1" s="1" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="HL1" s="1" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="HM1" s="1" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="HN1" s="1" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="HO1" s="1" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="HP1" s="1" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="HQ1" s="1" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="HR1" s="1" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="HS1" s="1" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="HT1" s="1" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="HU1" s="1" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="HV1" s="1" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="HW1" s="1" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="HX1" s="1" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="HY1" s="1" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="HZ1" s="1" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="IA1" s="1" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="IB1" s="1" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="IC1" s="1" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="ID1" s="1" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="IE1" s="1" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="IF1" s="1" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="IG1" s="1" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="IH1" s="1" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="II1" s="1" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -8864,7 +9818,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -9230,133 +10184,133 @@
         <v>173</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="DZ1" s="1" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="EA1" s="1" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="EB1" s="1" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="EC1" s="1" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="ED1" s="1" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="EF1" s="1" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="EI1" s="1" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="EJ1" s="1" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="EK1" s="1" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="EL1" s="1" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="EM1" s="1" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="EN1" s="1" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="EO1" s="1" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="EP1" s="1" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="EQ1" s="1" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="ER1" s="1" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="ES1" s="1" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="ET1" s="1" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="EU1" s="1" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="EV1" s="1" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="EW1" s="1" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="EX1" s="1" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="EY1" s="1" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="EZ1" s="1" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="FA1" s="1" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="FB1" s="1" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="FC1" s="1" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="FD1" s="1" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="FE1" s="1" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="FF1" s="1" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="FG1" s="1" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="FH1" s="1" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="FI1" s="1" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="FJ1" s="1" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="FK1" s="1" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="FL1" s="1" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="FM1" s="1" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="FN1" s="1" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -9386,7 +10340,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -9752,160 +10706,160 @@
         <v>173</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="DZ1" s="1" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="EA1" s="1" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="EB1" s="1" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="EC1" s="1" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="ED1" s="1" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="EF1" s="1" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="EI1" s="1" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="EJ1" s="1" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="EK1" s="1" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="EL1" s="1" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="EM1" s="1" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="EN1" s="1" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="EO1" s="1" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="EP1" s="1" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="EQ1" s="1" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="ER1" s="1" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="ES1" s="1" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="ET1" s="1" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="EU1" s="1" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="EV1" s="1" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="EW1" s="1" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="EX1" s="1" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="EY1" s="1" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="EZ1" s="1" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="FA1" s="1" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="FB1" s="1" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="FC1" s="1" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="FD1" s="1" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="FE1" s="1" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="FF1" s="1" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="FG1" s="1" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="FH1" s="1" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="FI1" s="1" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="FJ1" s="1" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="FK1" s="1" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="FL1" s="1" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="FM1" s="1" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="FN1" s="1" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="FO1" s="1" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="FP1" s="1" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="FQ1" s="1" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="FR1" s="1" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="FS1" s="1" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="FT1" s="1" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="FU1" s="1" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="FV1" s="1" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="FW1" s="1" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -10160,76 +11114,76 @@
         <v>173</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -10262,130 +11216,130 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/02_config/example_single_market/agents.xlsx
+++ b/02_config/example_single_market/agents.xlsx
@@ -8,18 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="sfh" sheetId="1" r:id="rId1"/>
-    <sheet name="mfh" sheetId="2" r:id="rId2"/>
-    <sheet name="ctsp" sheetId="3" r:id="rId3"/>
-    <sheet name="industry" sheetId="4" r:id="rId4"/>
-    <sheet name="producer" sheetId="5" r:id="rId5"/>
-    <sheet name="storage" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="310">
   <si>
     <t>general/agent_id</t>
   </si>
@@ -759,6 +754,12 @@
     <t>ems/market/horizon</t>
   </si>
   <si>
+    <t>ems/market/linear/steps_to_final</t>
+  </si>
+  <si>
+    <t>ems/market/linear/steps_from_init</t>
+  </si>
+  <si>
     <t>ems/market/fcast/local/method</t>
   </si>
   <si>
@@ -795,57 +796,57 @@
     <t>ems/fcasts/update</t>
   </si>
   <si>
-    <t>o8RENvmIJHHNd1l</t>
-  </si>
-  <si>
-    <t>I90EqWRtDwkBV26</t>
-  </si>
-  <si>
-    <t>A0hRymeCrOZSb8w</t>
-  </si>
-  <si>
-    <t>FOSMD7SSeMwEjUC</t>
-  </si>
-  <si>
-    <t>67aIDazktWn6yzC</t>
-  </si>
-  <si>
-    <t>vMMDGls8ojIM2vT</t>
-  </si>
-  <si>
-    <t>ypY3kBiRXLP0Gfn</t>
-  </si>
-  <si>
-    <t>HqZsrPIjCXt8ECE</t>
-  </si>
-  <si>
-    <t>dEY0eRjw9O27gIv</t>
-  </si>
-  <si>
-    <t>SekGK0Bo2wtyeck</t>
+    <t>ifN99SiKLbKqLYQ</t>
+  </si>
+  <si>
+    <t>1rFqHq2yJJfxOl6</t>
+  </si>
+  <si>
+    <t>hslCyhEIwteqbFy</t>
+  </si>
+  <si>
+    <t>xjT3hE41RNaKDoD</t>
+  </si>
+  <si>
+    <t>nAaQFs09neeF8xj</t>
+  </si>
+  <si>
+    <t>S7HAdQZw0nf7sqC</t>
+  </si>
+  <si>
+    <t>s5HnQLfyUPkWATP</t>
+  </si>
+  <si>
+    <t>FGKCErYnity7r96</t>
+  </si>
+  <si>
+    <t>2JnALEtKzJcp7HZ</t>
+  </si>
+  <si>
+    <t>hFAQQgIRFgN33KY</t>
+  </si>
+  <si>
+    <t>hh_2455_0.csv</t>
+  </si>
+  <si>
+    <t>hh_4402_0.csv</t>
+  </si>
+  <si>
+    <t>hh_3863_0.csv</t>
+  </si>
+  <si>
+    <t>hh_2896_0.csv</t>
+  </si>
+  <si>
+    <t>hh_3125_0.csv</t>
+  </si>
+  <si>
+    <t>hh_5527_0.csv</t>
   </si>
   <si>
     <t>hh_4536_0.csv</t>
   </si>
   <si>
-    <t>hh_2896_0.csv</t>
-  </si>
-  <si>
-    <t>hh_5527_0.csv</t>
-  </si>
-  <si>
-    <t>hh_3648_0.csv</t>
-  </si>
-  <si>
-    <t>hh_3125_0.csv</t>
-  </si>
-  <si>
-    <t>hh_4402_0.csv</t>
-  </si>
-  <si>
-    <t>hh_2532_0.csv</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
@@ -861,31 +862,28 @@
     <t>rfr</t>
   </si>
   <si>
-    <t>heat_4536_0.csv</t>
+    <t>heat_2455_0.csv</t>
+  </si>
+  <si>
+    <t>heat_4402_0.csv</t>
+  </si>
+  <si>
+    <t>heat_3863_0.csv</t>
+  </si>
+  <si>
+    <t>heat_gen_5_pu.csv</t>
   </si>
   <si>
     <t>heat_2896_0.csv</t>
   </si>
   <si>
+    <t>heat_gen_1_pu.csv</t>
+  </si>
+  <si>
     <t>heat_5527_0.csv</t>
   </si>
   <si>
-    <t>heat_3648_0.csv</t>
-  </si>
-  <si>
-    <t>heat_gen_1_pu.csv</t>
-  </si>
-  <si>
-    <t>heat_3125_0.csv</t>
-  </si>
-  <si>
-    <t>heat_gen_2_pu.csv</t>
-  </si>
-  <si>
-    <t>heat_4402_0.csv</t>
-  </si>
-  <si>
-    <t>heat_gen_5_pu.csv</t>
+    <t>heat_gen_0_pu.csv</t>
   </si>
   <si>
     <t>naive</t>
@@ -897,37 +895,37 @@
     <t>pv_config.json</t>
   </si>
   <si>
+    <t>green_local</t>
+  </si>
+  <si>
     <t>weather</t>
   </si>
   <si>
-    <t>green_local</t>
-  </si>
-  <si>
     <t>local</t>
   </si>
   <si>
+    <t>hp_DAIKIN Europe_ground.json</t>
+  </si>
+  <si>
     <t>hp_Bosch Thermotechnik_air.json</t>
   </si>
   <si>
-    <t>hp_DAIKIN Europe_ground.json</t>
+    <t>ev_fulltime_41.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_46.csv</t>
+  </si>
+  <si>
+    <t>ev_parttime_90.csv</t>
+  </si>
+  <si>
+    <t>ev_freetime_2.csv</t>
   </si>
   <si>
     <t>ev_freetime_1.csv</t>
   </si>
   <si>
-    <t>ev_freetime_2.csv</t>
-  </si>
-  <si>
-    <t>ev_fulltime_48.csv</t>
-  </si>
-  <si>
-    <t>ev_fulltime_46.csv</t>
-  </si>
-  <si>
-    <t>ev_freetime_3.csv</t>
-  </si>
-  <si>
-    <t>ev_parttime_89.csv</t>
+    <t>ev_fulltime_43.csv</t>
   </si>
   <si>
     <t>min_soc</t>
@@ -946,96 +944,6 @@
   </si>
   <si>
     <t>['naive', 'naive']</t>
-  </si>
-  <si>
-    <t>general/sub_id</t>
-  </si>
-  <si>
-    <t>general/parameters/apartments_independent</t>
-  </si>
-  <si>
-    <t>general/parameters/apartments</t>
-  </si>
-  <si>
-    <t>heat/fcast/arima/days</t>
-  </si>
-  <si>
-    <t>ems/market/fcast/local</t>
-  </si>
-  <si>
-    <t>ems/market/fcast/wholesale</t>
-  </si>
-  <si>
-    <t>general/parameters/type</t>
-  </si>
-  <si>
-    <t>ev/charging_scheme/price_sensitive_threshold</t>
-  </si>
-  <si>
-    <t>ev/charging_scheme/min_soc_val</t>
-  </si>
-  <si>
-    <t>ev/charging_scheme/min_soc_time_val</t>
-  </si>
-  <si>
-    <t>ev/charging_scheme/min_soc_time_time</t>
-  </si>
-  <si>
-    <t>ev/fcast/random_forest_classifier/features</t>
-  </si>
-  <si>
-    <t>psh/owner</t>
-  </si>
-  <si>
-    <t>psh/num</t>
-  </si>
-  <si>
-    <t>psh/sizing/power_0</t>
-  </si>
-  <si>
-    <t>psh/sizing/capacity_0</t>
-  </si>
-  <si>
-    <t>psh/sizing/efficiency_0</t>
-  </si>
-  <si>
-    <t>psh/sizing/soc_0</t>
-  </si>
-  <si>
-    <t>psh/sizing/g2psh_0</t>
-  </si>
-  <si>
-    <t>psh/sizing/psh2g_0</t>
-  </si>
-  <si>
-    <t>psh/quality</t>
-  </si>
-  <si>
-    <t>hydrogen/owner</t>
-  </si>
-  <si>
-    <t>hydrogen/num</t>
-  </si>
-  <si>
-    <t>hydrogen/sizing/power_0</t>
-  </si>
-  <si>
-    <t>hydrogen/sizing/capacity_0</t>
-  </si>
-  <si>
-    <t>hydrogen/sizing/efficiency_0</t>
-  </si>
-  <si>
-    <t>hydrogen/sizing/soc_0</t>
-  </si>
-  <si>
-    <t>hydrogen/sizing/g2h2_0</t>
-  </si>
-  <si>
-    <t>hydrogen/sizing/h22g_0</t>
-  </si>
-  <si>
-    <t>hydrogen/quality</t>
   </si>
 </sst>
 </file>
@@ -1393,13 +1301,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IY11"/>
+  <dimension ref="A1:JA11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:259">
+    <row r="1" spans="1:261">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2174,19 +2082,25 @@
       <c r="IY1" s="1" t="s">
         <v>257</v>
       </c>
+      <c r="IZ1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="JA1" s="1" t="s">
+        <v>259</v>
+      </c>
     </row>
-    <row r="2" spans="1:259">
+    <row r="2" spans="1:261">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -2195,7 +2109,7 @@
         <v>2.6</v>
       </c>
       <c r="J2">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -2207,13 +2121,13 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>4536000</v>
+        <v>2455000</v>
       </c>
       <c r="O2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -2228,10 +2142,10 @@
         <v>9</v>
       </c>
       <c r="U2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="V2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="W2">
         <v>3</v>
@@ -2243,7 +2157,7 @@
         <v>20</v>
       </c>
       <c r="Z2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AA2">
         <v>3</v>
@@ -2255,13 +2169,13 @@
         <v>20</v>
       </c>
       <c r="AD2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AE2">
         <v>3</v>
       </c>
       <c r="AF2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AG2">
         <v>3</v>
@@ -2276,7 +2190,7 @@
         <v>6</v>
       </c>
       <c r="AM2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AN2">
         <v>1</v>
@@ -2291,10 +2205,10 @@
         <v>9</v>
       </c>
       <c r="AR2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AS2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AT2">
         <v>3</v>
@@ -2306,7 +2220,7 @@
         <v>20</v>
       </c>
       <c r="AW2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AX2">
         <v>3</v>
@@ -2318,13 +2232,13 @@
         <v>20</v>
       </c>
       <c r="BA2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BB2">
         <v>3</v>
       </c>
       <c r="BC2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="BD2">
         <v>3</v>
@@ -2336,16 +2250,16 @@
         <v>1</v>
       </c>
       <c r="BG2">
-        <v>19500000</v>
+        <v>5500000</v>
       </c>
       <c r="BH2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="BI2">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="BJ2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BK2">
         <v>1</v>
@@ -2360,10 +2274,10 @@
         <v>9</v>
       </c>
       <c r="BO2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="BP2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BQ2">
         <v>3</v>
@@ -2375,7 +2289,7 @@
         <v>20</v>
       </c>
       <c r="BT2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BU2">
         <v>3</v>
@@ -2387,13 +2301,13 @@
         <v>20</v>
       </c>
       <c r="BX2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BY2">
         <v>3</v>
       </c>
       <c r="BZ2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="CA2">
         <v>0</v>
@@ -2402,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="CF2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="CG2">
         <v>1</v>
@@ -2417,10 +2331,10 @@
         <v>9</v>
       </c>
       <c r="CK2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="CL2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="CM2">
         <v>3</v>
@@ -2432,7 +2346,7 @@
         <v>20</v>
       </c>
       <c r="CP2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="CQ2">
         <v>3</v>
@@ -2444,25 +2358,40 @@
         <v>20</v>
       </c>
       <c r="CT2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="CU2">
         <v>3</v>
       </c>
       <c r="CV2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="CW2">
         <v>3</v>
       </c>
       <c r="CX2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="CZ2">
+        <v>3400</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>292</v>
+      </c>
+      <c r="DB2">
+        <v>-20</v>
+      </c>
+      <c r="DC2">
+        <v>50</v>
+      </c>
+      <c r="DD2" t="b">
+        <v>1</v>
       </c>
       <c r="DE2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="DF2">
         <v>1</v>
@@ -2477,10 +2406,10 @@
         <v>9</v>
       </c>
       <c r="DJ2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="DK2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="DL2">
         <v>3</v>
@@ -2492,7 +2421,7 @@
         <v>20</v>
       </c>
       <c r="DO2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="DP2">
         <v>3</v>
@@ -2504,13 +2433,13 @@
         <v>20</v>
       </c>
       <c r="DS2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="DT2">
         <v>3</v>
       </c>
       <c r="DU2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="DV2">
         <v>3</v>
@@ -2525,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="EC2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="ED2">
         <v>1</v>
@@ -2540,10 +2469,10 @@
         <v>9</v>
       </c>
       <c r="EH2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="EI2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="EJ2">
         <v>3</v>
@@ -2555,7 +2484,7 @@
         <v>20</v>
       </c>
       <c r="EM2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="EN2">
         <v>3</v>
@@ -2567,13 +2496,13 @@
         <v>20</v>
       </c>
       <c r="EQ2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="ER2">
         <v>3</v>
       </c>
       <c r="ES2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="ET2">
         <v>3</v>
@@ -2588,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="FA2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FB2">
         <v>1</v>
@@ -2603,10 +2532,10 @@
         <v>9</v>
       </c>
       <c r="FF2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="FG2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="FH2">
         <v>3</v>
@@ -2618,7 +2547,7 @@
         <v>20</v>
       </c>
       <c r="FK2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="FL2">
         <v>3</v>
@@ -2630,19 +2559,19 @@
         <v>20</v>
       </c>
       <c r="FO2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="FP2">
         <v>3</v>
       </c>
       <c r="FQ2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="FR2">
         <v>3</v>
       </c>
       <c r="FS2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="FT2">
         <v>1</v>
@@ -2651,13 +2580,13 @@
         <v>1</v>
       </c>
       <c r="FV2">
-        <v>9800</v>
+        <v>2800</v>
       </c>
       <c r="FW2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="FX2" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="FY2">
         <v>1</v>
@@ -2672,10 +2601,10 @@
         <v>9</v>
       </c>
       <c r="GC2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="GD2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="GE2">
         <v>3</v>
@@ -2687,7 +2616,7 @@
         <v>20</v>
       </c>
       <c r="GH2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="GI2">
         <v>3</v>
@@ -2699,88 +2628,34 @@
         <v>20</v>
       </c>
       <c r="GL2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="GM2">
         <v>3</v>
       </c>
       <c r="GN2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="GO2">
         <v>3</v>
       </c>
       <c r="GP2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="GQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>2</v>
-      </c>
-      <c r="GS2" t="s">
-        <v>297</v>
-      </c>
-      <c r="GT2">
-        <v>75000</v>
-      </c>
-      <c r="GU2">
-        <v>7200</v>
-      </c>
-      <c r="GV2">
-        <v>11000</v>
-      </c>
-      <c r="GW2">
-        <v>100000</v>
-      </c>
-      <c r="GX2">
-        <v>0.9</v>
-      </c>
-      <c r="GY2">
-        <v>0.8</v>
-      </c>
-      <c r="GZ2" t="b">
-        <v>0</v>
-      </c>
-      <c r="HA2" t="b">
-        <v>0</v>
-      </c>
-      <c r="HB2" t="s">
-        <v>302</v>
-      </c>
-      <c r="HC2">
-        <v>100000</v>
-      </c>
-      <c r="HD2">
-        <v>11000</v>
-      </c>
-      <c r="HE2">
-        <v>22000</v>
-      </c>
-      <c r="HF2">
-        <v>200000</v>
-      </c>
-      <c r="HG2">
-        <v>0.9</v>
-      </c>
-      <c r="HH2">
-        <v>0.8</v>
-      </c>
-      <c r="HI2" t="b">
-        <v>0</v>
-      </c>
-      <c r="HJ2" t="b">
         <v>0</v>
       </c>
       <c r="HK2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="HL2">
         <v>0.05</v>
       </c>
       <c r="HM2">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="HN2">
         <v>0.8</v>
@@ -2789,22 +2664,40 @@
         <v>8.5</v>
       </c>
       <c r="HP2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="HQ2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="HR2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="HS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HT2">
+        <v>1</v>
+      </c>
+      <c r="HU2">
+        <v>2500</v>
+      </c>
+      <c r="HV2">
+        <v>2500</v>
+      </c>
+      <c r="HW2">
+        <v>0.95</v>
+      </c>
+      <c r="HX2">
+        <v>0.1</v>
+      </c>
+      <c r="HY2" t="b">
+        <v>0</v>
+      </c>
+      <c r="HZ2" t="b">
         <v>0</v>
       </c>
       <c r="IA2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="IB2">
         <v>1</v>
@@ -2813,10 +2706,10 @@
         <v>1</v>
       </c>
       <c r="ID2">
-        <v>9800</v>
+        <v>2800</v>
       </c>
       <c r="IE2">
-        <v>19500</v>
+        <v>5500</v>
       </c>
       <c r="IF2">
         <v>0.95</v>
@@ -2825,66 +2718,72 @@
         <v>0.5</v>
       </c>
       <c r="IH2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="II2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="IJ2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="IK2">
         <v>86400</v>
       </c>
       <c r="IL2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="IM2">
+        <v>57600</v>
+      </c>
+      <c r="IN2">
+        <v>1</v>
+      </c>
+      <c r="IO2">
+        <v>0</v>
+      </c>
+      <c r="IP2" t="s">
+        <v>290</v>
+      </c>
+      <c r="IQ2">
+        <v>1</v>
+      </c>
+      <c r="IR2" t="s">
+        <v>290</v>
+      </c>
+      <c r="IS2">
+        <v>1</v>
+      </c>
+      <c r="IT2" t="s">
+        <v>309</v>
+      </c>
+      <c r="IU2" t="s">
+        <v>290</v>
+      </c>
+      <c r="IV2" t="s">
+        <v>290</v>
+      </c>
+      <c r="IW2" t="s">
+        <v>290</v>
+      </c>
+      <c r="IX2" t="s">
+        <v>309</v>
+      </c>
+      <c r="IY2">
         <v>86400</v>
       </c>
-      <c r="IN2" t="s">
-        <v>289</v>
-      </c>
-      <c r="IO2">
-        <v>1</v>
-      </c>
-      <c r="IP2" t="s">
-        <v>289</v>
-      </c>
-      <c r="IQ2">
-        <v>1</v>
-      </c>
-      <c r="IR2" t="s">
-        <v>308</v>
-      </c>
-      <c r="IS2" t="s">
-        <v>289</v>
-      </c>
-      <c r="IT2" t="s">
-        <v>289</v>
-      </c>
-      <c r="IU2" t="s">
-        <v>289</v>
-      </c>
-      <c r="IV2" t="s">
-        <v>308</v>
-      </c>
-      <c r="IW2">
+      <c r="IZ2">
         <v>86400</v>
       </c>
-      <c r="IX2">
-        <v>86400</v>
-      </c>
-      <c r="IY2">
+      <c r="JA2">
         <v>3600</v>
       </c>
     </row>
-    <row r="3" spans="1:259">
+    <row r="3" spans="1:261">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -2911,13 +2810,13 @@
         <v>1</v>
       </c>
       <c r="N3">
-        <v>2896000</v>
+        <v>4402000</v>
       </c>
       <c r="O3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -2932,10 +2831,10 @@
         <v>9</v>
       </c>
       <c r="U3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="V3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="W3">
         <v>3</v>
@@ -2947,7 +2846,7 @@
         <v>20</v>
       </c>
       <c r="Z3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AA3">
         <v>3</v>
@@ -2959,13 +2858,13 @@
         <v>20</v>
       </c>
       <c r="AD3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AE3">
         <v>3</v>
       </c>
       <c r="AF3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AG3">
         <v>3</v>
@@ -2980,7 +2879,7 @@
         <v>6</v>
       </c>
       <c r="AM3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AN3">
         <v>1</v>
@@ -2995,10 +2894,10 @@
         <v>9</v>
       </c>
       <c r="AR3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AS3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AT3">
         <v>3</v>
@@ -3010,7 +2909,7 @@
         <v>20</v>
       </c>
       <c r="AW3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AX3">
         <v>3</v>
@@ -3022,13 +2921,13 @@
         <v>20</v>
       </c>
       <c r="BA3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BB3">
         <v>3</v>
       </c>
       <c r="BC3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="BD3">
         <v>3</v>
@@ -3043,13 +2942,13 @@
         <v>19500000</v>
       </c>
       <c r="BH3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="BI3">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="BJ3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BK3">
         <v>1</v>
@@ -3064,10 +2963,10 @@
         <v>9</v>
       </c>
       <c r="BO3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="BP3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BQ3">
         <v>3</v>
@@ -3079,7 +2978,7 @@
         <v>20</v>
       </c>
       <c r="BT3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BU3">
         <v>3</v>
@@ -3091,13 +2990,13 @@
         <v>20</v>
       </c>
       <c r="BX3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BY3">
         <v>3</v>
       </c>
       <c r="BZ3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="CA3">
         <v>0</v>
@@ -3106,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="CF3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="CG3">
         <v>1</v>
@@ -3121,10 +3020,10 @@
         <v>9</v>
       </c>
       <c r="CK3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="CL3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="CM3">
         <v>3</v>
@@ -3136,7 +3035,7 @@
         <v>20</v>
       </c>
       <c r="CP3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="CQ3">
         <v>3</v>
@@ -3148,25 +3047,40 @@
         <v>20</v>
       </c>
       <c r="CT3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="CU3">
         <v>3</v>
       </c>
       <c r="CV3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="CW3">
         <v>3</v>
       </c>
       <c r="CX3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="CZ3">
+        <v>7900</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>292</v>
+      </c>
+      <c r="DB3">
+        <v>0</v>
+      </c>
+      <c r="DC3">
+        <v>40</v>
+      </c>
+      <c r="DD3" t="b">
+        <v>1</v>
       </c>
       <c r="DE3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="DF3">
         <v>1</v>
@@ -3181,10 +3095,10 @@
         <v>9</v>
       </c>
       <c r="DJ3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="DK3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="DL3">
         <v>3</v>
@@ -3196,7 +3110,7 @@
         <v>20</v>
       </c>
       <c r="DO3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="DP3">
         <v>3</v>
@@ -3208,13 +3122,13 @@
         <v>20</v>
       </c>
       <c r="DS3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="DT3">
         <v>3</v>
       </c>
       <c r="DU3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="DV3">
         <v>3</v>
@@ -3229,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="EC3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="ED3">
         <v>1</v>
@@ -3244,10 +3158,10 @@
         <v>9</v>
       </c>
       <c r="EH3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="EI3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="EJ3">
         <v>3</v>
@@ -3259,7 +3173,7 @@
         <v>20</v>
       </c>
       <c r="EM3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="EN3">
         <v>3</v>
@@ -3271,13 +3185,13 @@
         <v>20</v>
       </c>
       <c r="EQ3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="ER3">
         <v>3</v>
       </c>
       <c r="ES3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="ET3">
         <v>3</v>
@@ -3292,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="FA3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FB3">
         <v>1</v>
@@ -3307,10 +3221,10 @@
         <v>9</v>
       </c>
       <c r="FF3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="FG3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="FH3">
         <v>3</v>
@@ -3322,7 +3236,7 @@
         <v>20</v>
       </c>
       <c r="FK3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="FL3">
         <v>3</v>
@@ -3334,19 +3248,19 @@
         <v>20</v>
       </c>
       <c r="FO3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="FP3">
         <v>3</v>
       </c>
       <c r="FQ3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="FR3">
         <v>3</v>
       </c>
       <c r="FS3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="FT3">
         <v>1</v>
@@ -3358,10 +3272,10 @@
         <v>9800</v>
       </c>
       <c r="FW3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="FX3" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="FY3">
         <v>1</v>
@@ -3376,10 +3290,10 @@
         <v>9</v>
       </c>
       <c r="GC3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="GD3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="GE3">
         <v>3</v>
@@ -3391,7 +3305,7 @@
         <v>20</v>
       </c>
       <c r="GH3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="GI3">
         <v>3</v>
@@ -3403,61 +3317,34 @@
         <v>20</v>
       </c>
       <c r="GL3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="GM3">
         <v>3</v>
       </c>
       <c r="GN3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="GO3">
         <v>3</v>
       </c>
       <c r="GP3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="GQ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>1</v>
-      </c>
-      <c r="GS3" t="s">
-        <v>298</v>
-      </c>
-      <c r="GT3">
-        <v>75000</v>
-      </c>
-      <c r="GU3">
-        <v>7200</v>
-      </c>
-      <c r="GV3">
-        <v>11000</v>
-      </c>
-      <c r="GW3">
-        <v>100000</v>
-      </c>
-      <c r="GX3">
-        <v>0.9</v>
-      </c>
-      <c r="GY3">
-        <v>0.8</v>
-      </c>
-      <c r="GZ3" t="b">
-        <v>0</v>
-      </c>
-      <c r="HA3" t="b">
         <v>0</v>
       </c>
       <c r="HK3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="HL3">
         <v>0.05</v>
       </c>
       <c r="HM3">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="HN3">
         <v>0.8</v>
@@ -3466,22 +3353,40 @@
         <v>8.5</v>
       </c>
       <c r="HP3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="HQ3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="HR3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="HS3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HT3">
+        <v>1</v>
+      </c>
+      <c r="HU3">
+        <v>4400</v>
+      </c>
+      <c r="HV3">
+        <v>4400</v>
+      </c>
+      <c r="HW3">
+        <v>0.95</v>
+      </c>
+      <c r="HX3">
+        <v>0.1</v>
+      </c>
+      <c r="HY3" t="b">
+        <v>0</v>
+      </c>
+      <c r="HZ3" t="b">
         <v>0</v>
       </c>
       <c r="IA3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="IB3">
         <v>1</v>
@@ -3502,72 +3407,78 @@
         <v>0.5</v>
       </c>
       <c r="IH3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="II3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="IJ3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="IK3">
         <v>86400</v>
       </c>
       <c r="IL3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="IM3">
+        <v>57600</v>
+      </c>
+      <c r="IN3">
+        <v>1</v>
+      </c>
+      <c r="IO3">
+        <v>0</v>
+      </c>
+      <c r="IP3" t="s">
+        <v>290</v>
+      </c>
+      <c r="IQ3">
+        <v>1</v>
+      </c>
+      <c r="IR3" t="s">
+        <v>290</v>
+      </c>
+      <c r="IS3">
+        <v>1</v>
+      </c>
+      <c r="IT3" t="s">
+        <v>309</v>
+      </c>
+      <c r="IU3" t="s">
+        <v>290</v>
+      </c>
+      <c r="IV3" t="s">
+        <v>290</v>
+      </c>
+      <c r="IW3" t="s">
+        <v>290</v>
+      </c>
+      <c r="IX3" t="s">
+        <v>309</v>
+      </c>
+      <c r="IY3">
         <v>86400</v>
       </c>
-      <c r="IN3" t="s">
-        <v>289</v>
-      </c>
-      <c r="IO3">
-        <v>1</v>
-      </c>
-      <c r="IP3" t="s">
-        <v>289</v>
-      </c>
-      <c r="IQ3">
-        <v>1</v>
-      </c>
-      <c r="IR3" t="s">
-        <v>308</v>
-      </c>
-      <c r="IS3" t="s">
-        <v>289</v>
-      </c>
-      <c r="IT3" t="s">
-        <v>289</v>
-      </c>
-      <c r="IU3" t="s">
-        <v>289</v>
-      </c>
-      <c r="IV3" t="s">
-        <v>308</v>
-      </c>
-      <c r="IW3">
+      <c r="IZ3">
         <v>86400</v>
       </c>
-      <c r="IX3">
-        <v>86400</v>
-      </c>
-      <c r="IY3">
+      <c r="JA3">
         <v>3600</v>
       </c>
     </row>
-    <row r="4" spans="1:259">
+    <row r="4" spans="1:261">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -3576,7 +3487,7 @@
         <v>2.6</v>
       </c>
       <c r="J4">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -3588,13 +3499,13 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>5527000</v>
+        <v>3863000</v>
       </c>
       <c r="O4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -3609,10 +3520,10 @@
         <v>9</v>
       </c>
       <c r="U4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="V4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="W4">
         <v>3</v>
@@ -3624,7 +3535,7 @@
         <v>20</v>
       </c>
       <c r="Z4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AA4">
         <v>3</v>
@@ -3636,13 +3547,13 @@
         <v>20</v>
       </c>
       <c r="AD4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AE4">
         <v>3</v>
       </c>
       <c r="AF4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AG4">
         <v>3</v>
@@ -3657,7 +3568,7 @@
         <v>6</v>
       </c>
       <c r="AM4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AN4">
         <v>1</v>
@@ -3672,10 +3583,10 @@
         <v>9</v>
       </c>
       <c r="AR4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AS4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AT4">
         <v>3</v>
@@ -3687,7 +3598,7 @@
         <v>20</v>
       </c>
       <c r="AW4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AX4">
         <v>3</v>
@@ -3699,13 +3610,13 @@
         <v>20</v>
       </c>
       <c r="BA4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BB4">
         <v>3</v>
       </c>
       <c r="BC4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="BD4">
         <v>3</v>
@@ -3717,16 +3628,16 @@
         <v>1</v>
       </c>
       <c r="BG4">
-        <v>5500000</v>
+        <v>19500000</v>
       </c>
       <c r="BH4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="BI4">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="BJ4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BK4">
         <v>1</v>
@@ -3741,10 +3652,10 @@
         <v>9</v>
       </c>
       <c r="BO4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="BP4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BQ4">
         <v>3</v>
@@ -3756,7 +3667,7 @@
         <v>20</v>
       </c>
       <c r="BT4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BU4">
         <v>3</v>
@@ -3768,13 +3679,13 @@
         <v>20</v>
       </c>
       <c r="BX4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BY4">
         <v>3</v>
       </c>
       <c r="BZ4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="CA4">
         <v>0</v>
@@ -3783,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="CF4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="CG4">
         <v>1</v>
@@ -3798,10 +3709,10 @@
         <v>9</v>
       </c>
       <c r="CK4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="CL4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="CM4">
         <v>3</v>
@@ -3813,7 +3724,7 @@
         <v>20</v>
       </c>
       <c r="CP4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="CQ4">
         <v>3</v>
@@ -3825,13 +3736,13 @@
         <v>20</v>
       </c>
       <c r="CT4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="CU4">
         <v>3</v>
       </c>
       <c r="CV4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="CW4">
         <v>3</v>
@@ -3843,10 +3754,10 @@
         <v>1</v>
       </c>
       <c r="CZ4">
-        <v>8600</v>
+        <v>6500</v>
       </c>
       <c r="DA4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="DB4">
         <v>0</v>
@@ -3858,7 +3769,7 @@
         <v>1</v>
       </c>
       <c r="DE4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="DF4">
         <v>1</v>
@@ -3873,10 +3784,10 @@
         <v>9</v>
       </c>
       <c r="DJ4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="DK4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="DL4">
         <v>3</v>
@@ -3888,7 +3799,7 @@
         <v>20</v>
       </c>
       <c r="DO4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="DP4">
         <v>3</v>
@@ -3900,13 +3811,13 @@
         <v>20</v>
       </c>
       <c r="DS4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="DT4">
         <v>3</v>
       </c>
       <c r="DU4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="DV4">
         <v>3</v>
@@ -3921,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="EC4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="ED4">
         <v>1</v>
@@ -3936,10 +3847,10 @@
         <v>9</v>
       </c>
       <c r="EH4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="EI4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="EJ4">
         <v>3</v>
@@ -3951,7 +3862,7 @@
         <v>20</v>
       </c>
       <c r="EM4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="EN4">
         <v>3</v>
@@ -3963,13 +3874,13 @@
         <v>20</v>
       </c>
       <c r="EQ4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="ER4">
         <v>3</v>
       </c>
       <c r="ES4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="ET4">
         <v>3</v>
@@ -3984,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="FA4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FB4">
         <v>1</v>
@@ -3999,10 +3910,10 @@
         <v>9</v>
       </c>
       <c r="FF4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="FG4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="FH4">
         <v>3</v>
@@ -4014,7 +3925,7 @@
         <v>20</v>
       </c>
       <c r="FK4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="FL4">
         <v>3</v>
@@ -4026,19 +3937,19 @@
         <v>20</v>
       </c>
       <c r="FO4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="FP4">
         <v>3</v>
       </c>
       <c r="FQ4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="FR4">
         <v>3</v>
       </c>
       <c r="FS4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="FT4">
         <v>1</v>
@@ -4047,13 +3958,13 @@
         <v>1</v>
       </c>
       <c r="FV4">
-        <v>2800</v>
+        <v>9800</v>
       </c>
       <c r="FW4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="FX4" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="FY4">
         <v>1</v>
@@ -4068,10 +3979,10 @@
         <v>9</v>
       </c>
       <c r="GC4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="GD4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="GE4">
         <v>3</v>
@@ -4083,7 +3994,7 @@
         <v>20</v>
       </c>
       <c r="GH4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="GI4">
         <v>3</v>
@@ -4095,19 +4006,19 @@
         <v>20</v>
       </c>
       <c r="GL4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="GM4">
         <v>3</v>
       </c>
       <c r="GN4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="GO4">
         <v>3</v>
       </c>
       <c r="GP4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="GQ4">
         <v>0</v>
@@ -4116,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="HK4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="HL4">
         <v>0.05</v>
       </c>
       <c r="HM4">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="HN4">
         <v>0.8</v>
@@ -4131,22 +4042,40 @@
         <v>8.5</v>
       </c>
       <c r="HP4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="HQ4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="HR4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="HS4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HT4">
+        <v>1</v>
+      </c>
+      <c r="HU4">
+        <v>3900</v>
+      </c>
+      <c r="HV4">
+        <v>3900</v>
+      </c>
+      <c r="HW4">
+        <v>0.95</v>
+      </c>
+      <c r="HX4">
+        <v>0.1</v>
+      </c>
+      <c r="HY4" t="b">
+        <v>0</v>
+      </c>
+      <c r="HZ4" t="b">
         <v>0</v>
       </c>
       <c r="IA4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="IB4">
         <v>1</v>
@@ -4155,10 +4084,10 @@
         <v>1</v>
       </c>
       <c r="ID4">
-        <v>2800</v>
+        <v>9800</v>
       </c>
       <c r="IE4">
-        <v>5500</v>
+        <v>19500</v>
       </c>
       <c r="IF4">
         <v>0.95</v>
@@ -4167,66 +4096,72 @@
         <v>0.5</v>
       </c>
       <c r="IH4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="II4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="IJ4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="IK4">
         <v>86400</v>
       </c>
       <c r="IL4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="IM4">
+        <v>72000</v>
+      </c>
+      <c r="IN4">
+        <v>1</v>
+      </c>
+      <c r="IO4">
+        <v>0</v>
+      </c>
+      <c r="IP4" t="s">
+        <v>290</v>
+      </c>
+      <c r="IQ4">
+        <v>1</v>
+      </c>
+      <c r="IR4" t="s">
+        <v>290</v>
+      </c>
+      <c r="IS4">
+        <v>1</v>
+      </c>
+      <c r="IT4" t="s">
+        <v>309</v>
+      </c>
+      <c r="IU4" t="s">
+        <v>290</v>
+      </c>
+      <c r="IV4" t="s">
+        <v>290</v>
+      </c>
+      <c r="IW4" t="s">
+        <v>290</v>
+      </c>
+      <c r="IX4" t="s">
+        <v>309</v>
+      </c>
+      <c r="IY4">
         <v>86400</v>
       </c>
-      <c r="IN4" t="s">
-        <v>289</v>
-      </c>
-      <c r="IO4">
-        <v>1</v>
-      </c>
-      <c r="IP4" t="s">
-        <v>289</v>
-      </c>
-      <c r="IQ4">
-        <v>1</v>
-      </c>
-      <c r="IR4" t="s">
-        <v>308</v>
-      </c>
-      <c r="IS4" t="s">
-        <v>289</v>
-      </c>
-      <c r="IT4" t="s">
-        <v>289</v>
-      </c>
-      <c r="IU4" t="s">
-        <v>289</v>
-      </c>
-      <c r="IV4" t="s">
-        <v>308</v>
-      </c>
-      <c r="IW4">
+      <c r="IZ4">
         <v>86400</v>
       </c>
-      <c r="IX4">
-        <v>86400</v>
-      </c>
-      <c r="IY4">
+      <c r="JA4">
         <v>3600</v>
       </c>
     </row>
-    <row r="5" spans="1:259">
+    <row r="5" spans="1:261">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -4253,13 +4188,13 @@
         <v>1</v>
       </c>
       <c r="N5">
-        <v>3648000</v>
+        <v>4402000</v>
       </c>
       <c r="O5" t="s">
         <v>271</v>
       </c>
       <c r="P5" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -4274,10 +4209,10 @@
         <v>9</v>
       </c>
       <c r="U5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="V5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="W5">
         <v>3</v>
@@ -4289,7 +4224,7 @@
         <v>20</v>
       </c>
       <c r="Z5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AA5">
         <v>3</v>
@@ -4301,13 +4236,13 @@
         <v>20</v>
       </c>
       <c r="AD5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AE5">
         <v>3</v>
       </c>
       <c r="AF5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AG5">
         <v>3</v>
@@ -4322,7 +4257,7 @@
         <v>6</v>
       </c>
       <c r="AM5" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AN5">
         <v>1</v>
@@ -4337,10 +4272,10 @@
         <v>9</v>
       </c>
       <c r="AR5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AS5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AT5">
         <v>3</v>
@@ -4352,7 +4287,7 @@
         <v>20</v>
       </c>
       <c r="AW5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AX5">
         <v>3</v>
@@ -4364,13 +4299,13 @@
         <v>20</v>
       </c>
       <c r="BA5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BB5">
         <v>3</v>
       </c>
       <c r="BC5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="BD5">
         <v>3</v>
@@ -4385,13 +4320,13 @@
         <v>19500000</v>
       </c>
       <c r="BH5" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="BI5">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="BJ5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BK5">
         <v>1</v>
@@ -4406,10 +4341,10 @@
         <v>9</v>
       </c>
       <c r="BO5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="BP5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BQ5">
         <v>3</v>
@@ -4421,7 +4356,7 @@
         <v>20</v>
       </c>
       <c r="BT5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BU5">
         <v>3</v>
@@ -4433,13 +4368,13 @@
         <v>20</v>
       </c>
       <c r="BX5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BY5">
         <v>3</v>
       </c>
       <c r="BZ5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="CA5">
         <v>0</v>
@@ -4448,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="CF5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="CG5">
         <v>1</v>
@@ -4463,10 +4398,10 @@
         <v>9</v>
       </c>
       <c r="CK5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="CL5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="CM5">
         <v>3</v>
@@ -4478,7 +4413,7 @@
         <v>20</v>
       </c>
       <c r="CP5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="CQ5">
         <v>3</v>
@@ -4490,13 +4425,13 @@
         <v>20</v>
       </c>
       <c r="CT5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="CU5">
         <v>3</v>
       </c>
       <c r="CV5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="CW5">
         <v>3</v>
@@ -4508,22 +4443,22 @@
         <v>1</v>
       </c>
       <c r="CZ5">
-        <v>4900</v>
+        <v>5600</v>
       </c>
       <c r="DA5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="DB5">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="DD5" t="b">
         <v>1</v>
       </c>
       <c r="DE5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="DF5">
         <v>1</v>
@@ -4538,10 +4473,10 @@
         <v>9</v>
       </c>
       <c r="DJ5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="DK5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="DL5">
         <v>3</v>
@@ -4553,7 +4488,7 @@
         <v>20</v>
       </c>
       <c r="DO5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="DP5">
         <v>3</v>
@@ -4565,13 +4500,13 @@
         <v>20</v>
       </c>
       <c r="DS5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="DT5">
         <v>3</v>
       </c>
       <c r="DU5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="DV5">
         <v>3</v>
@@ -4586,7 +4521,7 @@
         <v>0</v>
       </c>
       <c r="EC5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="ED5">
         <v>1</v>
@@ -4601,10 +4536,10 @@
         <v>9</v>
       </c>
       <c r="EH5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="EI5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="EJ5">
         <v>3</v>
@@ -4616,7 +4551,7 @@
         <v>20</v>
       </c>
       <c r="EM5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="EN5">
         <v>3</v>
@@ -4628,13 +4563,13 @@
         <v>20</v>
       </c>
       <c r="EQ5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="ER5">
         <v>3</v>
       </c>
       <c r="ES5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="ET5">
         <v>3</v>
@@ -4649,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="FA5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FB5">
         <v>1</v>
@@ -4664,10 +4599,10 @@
         <v>9</v>
       </c>
       <c r="FF5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="FG5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="FH5">
         <v>3</v>
@@ -4679,7 +4614,7 @@
         <v>20</v>
       </c>
       <c r="FK5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="FL5">
         <v>3</v>
@@ -4691,19 +4626,19 @@
         <v>20</v>
       </c>
       <c r="FO5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="FP5">
         <v>3</v>
       </c>
       <c r="FQ5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="FR5">
         <v>3</v>
       </c>
       <c r="FS5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="FT5">
         <v>1</v>
@@ -4715,10 +4650,10 @@
         <v>9800</v>
       </c>
       <c r="FW5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="FX5" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="FY5">
         <v>1</v>
@@ -4733,10 +4668,10 @@
         <v>9</v>
       </c>
       <c r="GC5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="GD5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="GE5">
         <v>3</v>
@@ -4748,7 +4683,7 @@
         <v>20</v>
       </c>
       <c r="GH5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="GI5">
         <v>3</v>
@@ -4760,40 +4695,40 @@
         <v>20</v>
       </c>
       <c r="GL5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="GM5">
         <v>3</v>
       </c>
       <c r="GN5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="GO5">
         <v>3</v>
       </c>
       <c r="GP5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="GQ5">
         <v>1</v>
       </c>
       <c r="GR5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GS5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="GT5">
-        <v>50000</v>
+        <v>75000</v>
       </c>
       <c r="GU5">
         <v>7200</v>
       </c>
       <c r="GV5">
-        <v>7200</v>
+        <v>11000</v>
       </c>
       <c r="GW5">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="GX5">
         <v>0.9</v>
@@ -4807,14 +4742,41 @@
       <c r="HA5" t="b">
         <v>0</v>
       </c>
+      <c r="HB5" t="s">
+        <v>303</v>
+      </c>
+      <c r="HC5">
+        <v>50000</v>
+      </c>
+      <c r="HD5">
+        <v>7200</v>
+      </c>
+      <c r="HE5">
+        <v>7200</v>
+      </c>
+      <c r="HF5">
+        <v>50000</v>
+      </c>
+      <c r="HG5">
+        <v>0.9</v>
+      </c>
+      <c r="HH5">
+        <v>0.8</v>
+      </c>
+      <c r="HI5" t="b">
+        <v>0</v>
+      </c>
+      <c r="HJ5" t="b">
+        <v>0</v>
+      </c>
       <c r="HK5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="HL5">
         <v>0.05</v>
       </c>
       <c r="HM5">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="HN5">
         <v>0.8</v>
@@ -4823,13 +4785,13 @@
         <v>8.5</v>
       </c>
       <c r="HP5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="HQ5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="HR5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="HS5">
         <v>1</v>
@@ -4838,10 +4800,10 @@
         <v>1</v>
       </c>
       <c r="HU5">
-        <v>3600</v>
+        <v>4400</v>
       </c>
       <c r="HV5">
-        <v>3600</v>
+        <v>4400</v>
       </c>
       <c r="HW5">
         <v>0.95</v>
@@ -4856,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="IA5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="IB5">
         <v>1</v>
@@ -4877,66 +4839,72 @@
         <v>0.5</v>
       </c>
       <c r="IH5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="II5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="IJ5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="IK5">
         <v>86400</v>
       </c>
       <c r="IL5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="IM5">
+        <v>57600</v>
+      </c>
+      <c r="IN5">
+        <v>1</v>
+      </c>
+      <c r="IO5">
+        <v>0</v>
+      </c>
+      <c r="IP5" t="s">
+        <v>290</v>
+      </c>
+      <c r="IQ5">
+        <v>1</v>
+      </c>
+      <c r="IR5" t="s">
+        <v>290</v>
+      </c>
+      <c r="IS5">
+        <v>1</v>
+      </c>
+      <c r="IT5" t="s">
+        <v>309</v>
+      </c>
+      <c r="IU5" t="s">
+        <v>290</v>
+      </c>
+      <c r="IV5" t="s">
+        <v>290</v>
+      </c>
+      <c r="IW5" t="s">
+        <v>290</v>
+      </c>
+      <c r="IX5" t="s">
+        <v>309</v>
+      </c>
+      <c r="IY5">
         <v>86400</v>
       </c>
-      <c r="IN5" t="s">
-        <v>289</v>
-      </c>
-      <c r="IO5">
-        <v>1</v>
-      </c>
-      <c r="IP5" t="s">
-        <v>289</v>
-      </c>
-      <c r="IQ5">
-        <v>1</v>
-      </c>
-      <c r="IR5" t="s">
-        <v>308</v>
-      </c>
-      <c r="IS5" t="s">
-        <v>289</v>
-      </c>
-      <c r="IT5" t="s">
-        <v>289</v>
-      </c>
-      <c r="IU5" t="s">
-        <v>289</v>
-      </c>
-      <c r="IV5" t="s">
-        <v>308</v>
-      </c>
-      <c r="IW5">
+      <c r="IZ5">
         <v>86400</v>
       </c>
-      <c r="IX5">
-        <v>86400</v>
-      </c>
-      <c r="IY5">
+      <c r="JA5">
         <v>3600</v>
       </c>
     </row>
-    <row r="6" spans="1:259">
+    <row r="6" spans="1:261">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -4963,13 +4931,13 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>3125000</v>
+        <v>2896000</v>
       </c>
       <c r="O6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -4984,10 +4952,10 @@
         <v>9</v>
       </c>
       <c r="U6" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="V6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="W6">
         <v>3</v>
@@ -4999,7 +4967,7 @@
         <v>20</v>
       </c>
       <c r="Z6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AA6">
         <v>3</v>
@@ -5011,13 +4979,13 @@
         <v>20</v>
       </c>
       <c r="AD6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AE6">
         <v>3</v>
       </c>
       <c r="AF6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AG6">
         <v>3</v>
@@ -5032,7 +5000,7 @@
         <v>6</v>
       </c>
       <c r="AM6" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AN6">
         <v>1</v>
@@ -5047,10 +5015,10 @@
         <v>9</v>
       </c>
       <c r="AR6" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AS6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AT6">
         <v>3</v>
@@ -5062,7 +5030,7 @@
         <v>20</v>
       </c>
       <c r="AW6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AX6">
         <v>3</v>
@@ -5074,13 +5042,13 @@
         <v>20</v>
       </c>
       <c r="BA6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BB6">
         <v>3</v>
       </c>
       <c r="BC6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="BD6">
         <v>3</v>
@@ -5095,13 +5063,13 @@
         <v>5500000</v>
       </c>
       <c r="BH6" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="BI6">
         <v>55</v>
       </c>
       <c r="BJ6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BK6">
         <v>1</v>
@@ -5116,10 +5084,10 @@
         <v>9</v>
       </c>
       <c r="BO6" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="BP6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BQ6">
         <v>3</v>
@@ -5131,7 +5099,7 @@
         <v>20</v>
       </c>
       <c r="BT6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BU6">
         <v>3</v>
@@ -5143,13 +5111,13 @@
         <v>20</v>
       </c>
       <c r="BX6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BY6">
         <v>3</v>
       </c>
       <c r="BZ6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="CA6">
         <v>0</v>
@@ -5158,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="CF6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="CG6">
         <v>1</v>
@@ -5173,10 +5141,10 @@
         <v>9</v>
       </c>
       <c r="CK6" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="CL6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="CM6">
         <v>3</v>
@@ -5188,7 +5156,7 @@
         <v>20</v>
       </c>
       <c r="CP6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="CQ6">
         <v>3</v>
@@ -5200,40 +5168,25 @@
         <v>20</v>
       </c>
       <c r="CT6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="CU6">
         <v>3</v>
       </c>
       <c r="CV6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="CW6">
         <v>3</v>
       </c>
       <c r="CX6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>1</v>
-      </c>
-      <c r="CZ6">
-        <v>4900</v>
-      </c>
-      <c r="DA6" t="s">
-        <v>291</v>
-      </c>
-      <c r="DB6">
-        <v>0</v>
-      </c>
-      <c r="DC6">
-        <v>40</v>
-      </c>
-      <c r="DD6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="DF6">
         <v>1</v>
@@ -5248,10 +5201,10 @@
         <v>9</v>
       </c>
       <c r="DJ6" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="DK6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="DL6">
         <v>3</v>
@@ -5263,7 +5216,7 @@
         <v>20</v>
       </c>
       <c r="DO6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="DP6">
         <v>3</v>
@@ -5275,13 +5228,13 @@
         <v>20</v>
       </c>
       <c r="DS6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="DT6">
         <v>3</v>
       </c>
       <c r="DU6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="DV6">
         <v>3</v>
@@ -5296,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="EC6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="ED6">
         <v>1</v>
@@ -5311,10 +5264,10 @@
         <v>9</v>
       </c>
       <c r="EH6" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="EI6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="EJ6">
         <v>3</v>
@@ -5326,7 +5279,7 @@
         <v>20</v>
       </c>
       <c r="EM6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="EN6">
         <v>3</v>
@@ -5338,13 +5291,13 @@
         <v>20</v>
       </c>
       <c r="EQ6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="ER6">
         <v>3</v>
       </c>
       <c r="ES6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="ET6">
         <v>3</v>
@@ -5359,7 +5312,7 @@
         <v>0</v>
       </c>
       <c r="FA6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FB6">
         <v>1</v>
@@ -5374,10 +5327,10 @@
         <v>9</v>
       </c>
       <c r="FF6" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="FG6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="FH6">
         <v>3</v>
@@ -5389,7 +5342,7 @@
         <v>20</v>
       </c>
       <c r="FK6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="FL6">
         <v>3</v>
@@ -5401,19 +5354,19 @@
         <v>20</v>
       </c>
       <c r="FO6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="FP6">
         <v>3</v>
       </c>
       <c r="FQ6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="FR6">
         <v>3</v>
       </c>
       <c r="FS6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="FT6">
         <v>1</v>
@@ -5425,10 +5378,10 @@
         <v>2800</v>
       </c>
       <c r="FW6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="FX6" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="FY6">
         <v>1</v>
@@ -5443,10 +5396,10 @@
         <v>9</v>
       </c>
       <c r="GC6" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="GD6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="GE6">
         <v>3</v>
@@ -5458,7 +5411,7 @@
         <v>20</v>
       </c>
       <c r="GH6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="GI6">
         <v>3</v>
@@ -5470,28 +5423,28 @@
         <v>20</v>
       </c>
       <c r="GL6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="GM6">
         <v>3</v>
       </c>
       <c r="GN6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="GO6">
         <v>3</v>
       </c>
       <c r="GP6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="GQ6">
         <v>1</v>
       </c>
       <c r="GR6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GS6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="GT6">
         <v>100000</v>
@@ -5517,14 +5470,41 @@
       <c r="HA6" t="b">
         <v>0</v>
       </c>
+      <c r="HB6" t="s">
+        <v>299</v>
+      </c>
+      <c r="HC6">
+        <v>75000</v>
+      </c>
+      <c r="HD6">
+        <v>7200</v>
+      </c>
+      <c r="HE6">
+        <v>11000</v>
+      </c>
+      <c r="HF6">
+        <v>100000</v>
+      </c>
+      <c r="HG6">
+        <v>0.9</v>
+      </c>
+      <c r="HH6">
+        <v>0.8</v>
+      </c>
+      <c r="HI6" t="b">
+        <v>0</v>
+      </c>
+      <c r="HJ6" t="b">
+        <v>0</v>
+      </c>
       <c r="HK6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="HL6">
         <v>0.05</v>
       </c>
       <c r="HM6">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="HN6">
         <v>0.8</v>
@@ -5533,40 +5513,22 @@
         <v>8.5</v>
       </c>
       <c r="HP6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="HQ6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="HR6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="HS6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HT6">
-        <v>1</v>
-      </c>
-      <c r="HU6">
-        <v>3100</v>
-      </c>
-      <c r="HV6">
-        <v>3100</v>
-      </c>
-      <c r="HW6">
-        <v>0.95</v>
-      </c>
-      <c r="HX6">
-        <v>0.1</v>
-      </c>
-      <c r="HY6" t="b">
-        <v>0</v>
-      </c>
-      <c r="HZ6" t="b">
         <v>0</v>
       </c>
       <c r="IA6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="IB6">
         <v>1</v>
@@ -5587,72 +5549,78 @@
         <v>0.5</v>
       </c>
       <c r="IH6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="II6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="IJ6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="IK6">
         <v>86400</v>
       </c>
       <c r="IL6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="IM6">
+        <v>43200</v>
+      </c>
+      <c r="IN6">
+        <v>1</v>
+      </c>
+      <c r="IO6">
+        <v>0</v>
+      </c>
+      <c r="IP6" t="s">
+        <v>290</v>
+      </c>
+      <c r="IQ6">
+        <v>1</v>
+      </c>
+      <c r="IR6" t="s">
+        <v>290</v>
+      </c>
+      <c r="IS6">
+        <v>1</v>
+      </c>
+      <c r="IT6" t="s">
+        <v>309</v>
+      </c>
+      <c r="IU6" t="s">
+        <v>290</v>
+      </c>
+      <c r="IV6" t="s">
+        <v>290</v>
+      </c>
+      <c r="IW6" t="s">
+        <v>290</v>
+      </c>
+      <c r="IX6" t="s">
+        <v>309</v>
+      </c>
+      <c r="IY6">
         <v>86400</v>
       </c>
-      <c r="IN6" t="s">
-        <v>289</v>
-      </c>
-      <c r="IO6">
-        <v>1</v>
-      </c>
-      <c r="IP6" t="s">
-        <v>289</v>
-      </c>
-      <c r="IQ6">
-        <v>1</v>
-      </c>
-      <c r="IR6" t="s">
-        <v>308</v>
-      </c>
-      <c r="IS6" t="s">
-        <v>289</v>
-      </c>
-      <c r="IT6" t="s">
-        <v>289</v>
-      </c>
-      <c r="IU6" t="s">
-        <v>289</v>
-      </c>
-      <c r="IV6" t="s">
-        <v>308</v>
-      </c>
-      <c r="IW6">
+      <c r="IZ6">
         <v>86400</v>
       </c>
-      <c r="IX6">
-        <v>86400</v>
-      </c>
-      <c r="IY6">
+      <c r="JA6">
         <v>3600</v>
       </c>
     </row>
-    <row r="7" spans="1:259">
+    <row r="7" spans="1:261">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -5661,7 +5629,7 @@
         <v>2.6</v>
       </c>
       <c r="J7">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -5673,13 +5641,13 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>3648000</v>
+        <v>3863000</v>
       </c>
       <c r="O7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -5694,10 +5662,10 @@
         <v>9</v>
       </c>
       <c r="U7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="V7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="W7">
         <v>3</v>
@@ -5709,7 +5677,7 @@
         <v>20</v>
       </c>
       <c r="Z7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AA7">
         <v>3</v>
@@ -5721,13 +5689,13 @@
         <v>20</v>
       </c>
       <c r="AD7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AE7">
         <v>3</v>
       </c>
       <c r="AF7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AG7">
         <v>3</v>
@@ -5742,7 +5710,7 @@
         <v>6</v>
       </c>
       <c r="AM7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AN7">
         <v>1</v>
@@ -5757,10 +5725,10 @@
         <v>9</v>
       </c>
       <c r="AR7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AS7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AT7">
         <v>3</v>
@@ -5772,7 +5740,7 @@
         <v>20</v>
       </c>
       <c r="AW7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AX7">
         <v>3</v>
@@ -5784,13 +5752,13 @@
         <v>20</v>
       </c>
       <c r="BA7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BB7">
         <v>3</v>
       </c>
       <c r="BC7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="BD7">
         <v>3</v>
@@ -5802,16 +5770,16 @@
         <v>1</v>
       </c>
       <c r="BG7">
-        <v>19500000</v>
+        <v>5500000</v>
       </c>
       <c r="BH7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BI7">
         <v>55</v>
       </c>
       <c r="BJ7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BK7">
         <v>1</v>
@@ -5826,10 +5794,10 @@
         <v>9</v>
       </c>
       <c r="BO7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="BP7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BQ7">
         <v>3</v>
@@ -5841,7 +5809,7 @@
         <v>20</v>
       </c>
       <c r="BT7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BU7">
         <v>3</v>
@@ -5853,13 +5821,13 @@
         <v>20</v>
       </c>
       <c r="BX7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BY7">
         <v>3</v>
       </c>
       <c r="BZ7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="CA7">
         <v>0</v>
@@ -5868,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="CF7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="CG7">
         <v>1</v>
@@ -5883,10 +5851,10 @@
         <v>9</v>
       </c>
       <c r="CK7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="CL7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="CM7">
         <v>3</v>
@@ -5898,7 +5866,7 @@
         <v>20</v>
       </c>
       <c r="CP7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="CQ7">
         <v>3</v>
@@ -5910,13 +5878,13 @@
         <v>20</v>
       </c>
       <c r="CT7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="CU7">
         <v>3</v>
       </c>
       <c r="CV7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="CW7">
         <v>3</v>
@@ -5928,10 +5896,10 @@
         <v>1</v>
       </c>
       <c r="CZ7">
-        <v>4400</v>
+        <v>5800</v>
       </c>
       <c r="DA7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="DB7">
         <v>0</v>
@@ -5943,7 +5911,7 @@
         <v>1</v>
       </c>
       <c r="DE7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="DF7">
         <v>1</v>
@@ -5958,10 +5926,10 @@
         <v>9</v>
       </c>
       <c r="DJ7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="DK7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="DL7">
         <v>3</v>
@@ -5973,7 +5941,7 @@
         <v>20</v>
       </c>
       <c r="DO7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="DP7">
         <v>3</v>
@@ -5985,13 +5953,13 @@
         <v>20</v>
       </c>
       <c r="DS7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="DT7">
         <v>3</v>
       </c>
       <c r="DU7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="DV7">
         <v>3</v>
@@ -6006,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="EC7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="ED7">
         <v>1</v>
@@ -6021,10 +5989,10 @@
         <v>9</v>
       </c>
       <c r="EH7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="EI7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="EJ7">
         <v>3</v>
@@ -6036,7 +6004,7 @@
         <v>20</v>
       </c>
       <c r="EM7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="EN7">
         <v>3</v>
@@ -6048,13 +6016,13 @@
         <v>20</v>
       </c>
       <c r="EQ7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="ER7">
         <v>3</v>
       </c>
       <c r="ES7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="ET7">
         <v>3</v>
@@ -6069,7 +6037,7 @@
         <v>0</v>
       </c>
       <c r="FA7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FB7">
         <v>1</v>
@@ -6084,10 +6052,10 @@
         <v>9</v>
       </c>
       <c r="FF7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="FG7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="FH7">
         <v>3</v>
@@ -6099,7 +6067,7 @@
         <v>20</v>
       </c>
       <c r="FK7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="FL7">
         <v>3</v>
@@ -6111,19 +6079,19 @@
         <v>20</v>
       </c>
       <c r="FO7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="FP7">
         <v>3</v>
       </c>
       <c r="FQ7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="FR7">
         <v>3</v>
       </c>
       <c r="FS7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="FT7">
         <v>1</v>
@@ -6132,13 +6100,13 @@
         <v>1</v>
       </c>
       <c r="FV7">
-        <v>9800</v>
+        <v>2800</v>
       </c>
       <c r="FW7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="FX7" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="FY7">
         <v>1</v>
@@ -6153,10 +6121,10 @@
         <v>9</v>
       </c>
       <c r="GC7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="GD7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="GE7">
         <v>3</v>
@@ -6168,7 +6136,7 @@
         <v>20</v>
       </c>
       <c r="GH7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="GI7">
         <v>3</v>
@@ -6180,34 +6148,61 @@
         <v>20</v>
       </c>
       <c r="GL7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="GM7">
         <v>3</v>
       </c>
       <c r="GN7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="GO7">
         <v>3</v>
       </c>
       <c r="GP7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="GQ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GR7">
+        <v>1</v>
+      </c>
+      <c r="GS7" t="s">
+        <v>300</v>
+      </c>
+      <c r="GT7">
+        <v>50000</v>
+      </c>
+      <c r="GU7">
+        <v>7200</v>
+      </c>
+      <c r="GV7">
+        <v>7200</v>
+      </c>
+      <c r="GW7">
+        <v>50000</v>
+      </c>
+      <c r="GX7">
+        <v>0.9</v>
+      </c>
+      <c r="GY7">
+        <v>0.8</v>
+      </c>
+      <c r="GZ7" t="b">
+        <v>0</v>
+      </c>
+      <c r="HA7" t="b">
         <v>0</v>
       </c>
       <c r="HK7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="HL7">
         <v>0.05</v>
       </c>
       <c r="HM7">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="HN7">
         <v>0.8</v>
@@ -6216,13 +6211,13 @@
         <v>8.5</v>
       </c>
       <c r="HP7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="HQ7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="HR7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="HS7">
         <v>1</v>
@@ -6231,10 +6226,10 @@
         <v>1</v>
       </c>
       <c r="HU7">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="HV7">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="HW7">
         <v>0.95</v>
@@ -6249,7 +6244,7 @@
         <v>0</v>
       </c>
       <c r="IA7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="IB7">
         <v>1</v>
@@ -6258,10 +6253,10 @@
         <v>1</v>
       </c>
       <c r="ID7">
-        <v>9800</v>
+        <v>2800</v>
       </c>
       <c r="IE7">
-        <v>19500</v>
+        <v>5500</v>
       </c>
       <c r="IF7">
         <v>0.95</v>
@@ -6270,72 +6265,78 @@
         <v>0.5</v>
       </c>
       <c r="IH7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="II7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="IJ7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="IK7">
         <v>86400</v>
       </c>
       <c r="IL7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="IM7">
+        <v>72000</v>
+      </c>
+      <c r="IN7">
+        <v>1</v>
+      </c>
+      <c r="IO7">
+        <v>0</v>
+      </c>
+      <c r="IP7" t="s">
+        <v>290</v>
+      </c>
+      <c r="IQ7">
+        <v>1</v>
+      </c>
+      <c r="IR7" t="s">
+        <v>290</v>
+      </c>
+      <c r="IS7">
+        <v>1</v>
+      </c>
+      <c r="IT7" t="s">
+        <v>309</v>
+      </c>
+      <c r="IU7" t="s">
+        <v>290</v>
+      </c>
+      <c r="IV7" t="s">
+        <v>290</v>
+      </c>
+      <c r="IW7" t="s">
+        <v>290</v>
+      </c>
+      <c r="IX7" t="s">
+        <v>309</v>
+      </c>
+      <c r="IY7">
         <v>86400</v>
       </c>
-      <c r="IN7" t="s">
-        <v>289</v>
-      </c>
-      <c r="IO7">
-        <v>1</v>
-      </c>
-      <c r="IP7" t="s">
-        <v>289</v>
-      </c>
-      <c r="IQ7">
-        <v>1</v>
-      </c>
-      <c r="IR7" t="s">
-        <v>308</v>
-      </c>
-      <c r="IS7" t="s">
-        <v>289</v>
-      </c>
-      <c r="IT7" t="s">
-        <v>289</v>
-      </c>
-      <c r="IU7" t="s">
-        <v>289</v>
-      </c>
-      <c r="IV7" t="s">
-        <v>308</v>
-      </c>
-      <c r="IW7">
+      <c r="IZ7">
         <v>86400</v>
       </c>
-      <c r="IX7">
-        <v>86400</v>
-      </c>
-      <c r="IY7">
+      <c r="JA7">
         <v>3600</v>
       </c>
     </row>
-    <row r="8" spans="1:259">
+    <row r="8" spans="1:261">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -6344,7 +6345,7 @@
         <v>2.6</v>
       </c>
       <c r="J8">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -6359,10 +6360,10 @@
         <v>3125000</v>
       </c>
       <c r="O8" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P8" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -6377,10 +6378,10 @@
         <v>9</v>
       </c>
       <c r="U8" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="V8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="W8">
         <v>3</v>
@@ -6392,7 +6393,7 @@
         <v>20</v>
       </c>
       <c r="Z8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AA8">
         <v>3</v>
@@ -6404,13 +6405,13 @@
         <v>20</v>
       </c>
       <c r="AD8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AE8">
         <v>3</v>
       </c>
       <c r="AF8" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AG8">
         <v>3</v>
@@ -6425,7 +6426,7 @@
         <v>6</v>
       </c>
       <c r="AM8" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AN8">
         <v>1</v>
@@ -6440,10 +6441,10 @@
         <v>9</v>
       </c>
       <c r="AR8" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AS8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AT8">
         <v>3</v>
@@ -6455,7 +6456,7 @@
         <v>20</v>
       </c>
       <c r="AW8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AX8">
         <v>3</v>
@@ -6467,13 +6468,13 @@
         <v>20</v>
       </c>
       <c r="BA8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BB8">
         <v>3</v>
       </c>
       <c r="BC8" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="BD8">
         <v>3</v>
@@ -6485,16 +6486,16 @@
         <v>1</v>
       </c>
       <c r="BG8">
-        <v>19500000</v>
+        <v>5500000</v>
       </c>
       <c r="BH8" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="BI8">
         <v>55</v>
       </c>
       <c r="BJ8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BK8">
         <v>1</v>
@@ -6509,10 +6510,10 @@
         <v>9</v>
       </c>
       <c r="BO8" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="BP8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BQ8">
         <v>3</v>
@@ -6524,7 +6525,7 @@
         <v>20</v>
       </c>
       <c r="BT8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BU8">
         <v>3</v>
@@ -6536,13 +6537,13 @@
         <v>20</v>
       </c>
       <c r="BX8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BY8">
         <v>3</v>
       </c>
       <c r="BZ8" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="CA8">
         <v>0</v>
@@ -6551,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="CF8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="CG8">
         <v>1</v>
@@ -6566,10 +6567,10 @@
         <v>9</v>
       </c>
       <c r="CK8" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="CL8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="CM8">
         <v>3</v>
@@ -6581,7 +6582,7 @@
         <v>20</v>
       </c>
       <c r="CP8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="CQ8">
         <v>3</v>
@@ -6593,40 +6594,25 @@
         <v>20</v>
       </c>
       <c r="CT8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="CU8">
         <v>3</v>
       </c>
       <c r="CV8" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="CW8">
         <v>3</v>
       </c>
       <c r="CX8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY8">
-        <v>1</v>
-      </c>
-      <c r="CZ8">
-        <v>5300</v>
-      </c>
-      <c r="DA8" t="s">
-        <v>291</v>
-      </c>
-      <c r="DB8">
-        <v>-20</v>
-      </c>
-      <c r="DC8">
-        <v>50</v>
-      </c>
-      <c r="DD8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="DF8">
         <v>1</v>
@@ -6641,10 +6627,10 @@
         <v>9</v>
       </c>
       <c r="DJ8" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="DK8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="DL8">
         <v>3</v>
@@ -6656,7 +6642,7 @@
         <v>20</v>
       </c>
       <c r="DO8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="DP8">
         <v>3</v>
@@ -6668,13 +6654,13 @@
         <v>20</v>
       </c>
       <c r="DS8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="DT8">
         <v>3</v>
       </c>
       <c r="DU8" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="DV8">
         <v>3</v>
@@ -6689,7 +6675,7 @@
         <v>0</v>
       </c>
       <c r="EC8" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="ED8">
         <v>1</v>
@@ -6704,10 +6690,10 @@
         <v>9</v>
       </c>
       <c r="EH8" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="EI8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="EJ8">
         <v>3</v>
@@ -6719,7 +6705,7 @@
         <v>20</v>
       </c>
       <c r="EM8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="EN8">
         <v>3</v>
@@ -6731,13 +6717,13 @@
         <v>20</v>
       </c>
       <c r="EQ8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="ER8">
         <v>3</v>
       </c>
       <c r="ES8" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="ET8">
         <v>3</v>
@@ -6752,7 +6738,7 @@
         <v>0</v>
       </c>
       <c r="FA8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FB8">
         <v>1</v>
@@ -6767,10 +6753,10 @@
         <v>9</v>
       </c>
       <c r="FF8" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="FG8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="FH8">
         <v>3</v>
@@ -6782,7 +6768,7 @@
         <v>20</v>
       </c>
       <c r="FK8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="FL8">
         <v>3</v>
@@ -6794,19 +6780,19 @@
         <v>20</v>
       </c>
       <c r="FO8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="FP8">
         <v>3</v>
       </c>
       <c r="FQ8" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="FR8">
         <v>3</v>
       </c>
       <c r="FS8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="FT8">
         <v>1</v>
@@ -6815,13 +6801,13 @@
         <v>1</v>
       </c>
       <c r="FV8">
-        <v>9800</v>
+        <v>2800</v>
       </c>
       <c r="FW8" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="FX8" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="FY8">
         <v>1</v>
@@ -6836,10 +6822,10 @@
         <v>9</v>
       </c>
       <c r="GC8" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="GD8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="GE8">
         <v>3</v>
@@ -6851,7 +6837,7 @@
         <v>20</v>
       </c>
       <c r="GH8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="GI8">
         <v>3</v>
@@ -6863,19 +6849,19 @@
         <v>20</v>
       </c>
       <c r="GL8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="GM8">
         <v>3</v>
       </c>
       <c r="GN8" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="GO8">
         <v>3</v>
       </c>
       <c r="GP8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="GQ8">
         <v>1</v>
@@ -6887,16 +6873,16 @@
         <v>301</v>
       </c>
       <c r="GT8">
-        <v>50000</v>
+        <v>75000</v>
       </c>
       <c r="GU8">
         <v>7200</v>
       </c>
       <c r="GV8">
-        <v>7200</v>
+        <v>11000</v>
       </c>
       <c r="GW8">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="GX8">
         <v>0.9</v>
@@ -6911,13 +6897,13 @@
         <v>0</v>
       </c>
       <c r="HK8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="HL8">
         <v>0.05</v>
       </c>
       <c r="HM8">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="HN8">
         <v>0.8</v>
@@ -6926,40 +6912,22 @@
         <v>8.5</v>
       </c>
       <c r="HP8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="HQ8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="HR8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="HS8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HT8">
-        <v>1</v>
-      </c>
-      <c r="HU8">
-        <v>3100</v>
-      </c>
-      <c r="HV8">
-        <v>3100</v>
-      </c>
-      <c r="HW8">
-        <v>0.95</v>
-      </c>
-      <c r="HX8">
-        <v>0.1</v>
-      </c>
-      <c r="HY8" t="b">
-        <v>0</v>
-      </c>
-      <c r="HZ8" t="b">
         <v>0</v>
       </c>
       <c r="IA8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="IB8">
         <v>1</v>
@@ -6968,10 +6936,10 @@
         <v>1</v>
       </c>
       <c r="ID8">
-        <v>9800</v>
+        <v>2800</v>
       </c>
       <c r="IE8">
-        <v>19500</v>
+        <v>5500</v>
       </c>
       <c r="IF8">
         <v>0.95</v>
@@ -6980,72 +6948,78 @@
         <v>0.5</v>
       </c>
       <c r="IH8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="II8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="IJ8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="IK8">
         <v>86400</v>
       </c>
       <c r="IL8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="IM8">
         <v>86400</v>
       </c>
-      <c r="IN8" t="s">
-        <v>289</v>
+      <c r="IN8">
+        <v>1</v>
       </c>
       <c r="IO8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IP8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="IQ8">
         <v>1</v>
       </c>
       <c r="IR8" t="s">
-        <v>308</v>
-      </c>
-      <c r="IS8" t="s">
-        <v>289</v>
+        <v>290</v>
+      </c>
+      <c r="IS8">
+        <v>1</v>
       </c>
       <c r="IT8" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="IU8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="IV8" t="s">
-        <v>308</v>
-      </c>
-      <c r="IW8">
+        <v>290</v>
+      </c>
+      <c r="IW8" t="s">
+        <v>290</v>
+      </c>
+      <c r="IX8" t="s">
+        <v>309</v>
+      </c>
+      <c r="IY8">
         <v>86400</v>
       </c>
-      <c r="IX8">
+      <c r="IZ8">
         <v>86400</v>
       </c>
-      <c r="IY8">
+      <c r="JA8">
         <v>3600</v>
       </c>
     </row>
-    <row r="9" spans="1:259">
+    <row r="9" spans="1:261">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -7054,7 +7028,7 @@
         <v>2.6</v>
       </c>
       <c r="J9">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -7069,10 +7043,10 @@
         <v>5527000</v>
       </c>
       <c r="O9" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="P9" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -7087,10 +7061,10 @@
         <v>9</v>
       </c>
       <c r="U9" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="V9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="W9">
         <v>3</v>
@@ -7102,7 +7076,7 @@
         <v>20</v>
       </c>
       <c r="Z9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AA9">
         <v>3</v>
@@ -7114,13 +7088,13 @@
         <v>20</v>
       </c>
       <c r="AD9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AE9">
         <v>3</v>
       </c>
       <c r="AF9" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AG9">
         <v>3</v>
@@ -7135,7 +7109,7 @@
         <v>6</v>
       </c>
       <c r="AM9" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AN9">
         <v>1</v>
@@ -7150,10 +7124,10 @@
         <v>9</v>
       </c>
       <c r="AR9" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AS9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AT9">
         <v>3</v>
@@ -7165,7 +7139,7 @@
         <v>20</v>
       </c>
       <c r="AW9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AX9">
         <v>3</v>
@@ -7177,13 +7151,13 @@
         <v>20</v>
       </c>
       <c r="BA9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BB9">
         <v>3</v>
       </c>
       <c r="BC9" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="BD9">
         <v>3</v>
@@ -7195,16 +7169,16 @@
         <v>1</v>
       </c>
       <c r="BG9">
-        <v>5500000</v>
+        <v>19500000</v>
       </c>
       <c r="BH9" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="BI9">
         <v>55</v>
       </c>
       <c r="BJ9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BK9">
         <v>1</v>
@@ -7219,10 +7193,10 @@
         <v>9</v>
       </c>
       <c r="BO9" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="BP9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BQ9">
         <v>3</v>
@@ -7234,7 +7208,7 @@
         <v>20</v>
       </c>
       <c r="BT9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BU9">
         <v>3</v>
@@ -7246,13 +7220,13 @@
         <v>20</v>
       </c>
       <c r="BX9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BY9">
         <v>3</v>
       </c>
       <c r="BZ9" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="CA9">
         <v>0</v>
@@ -7261,7 +7235,7 @@
         <v>0</v>
       </c>
       <c r="CF9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="CG9">
         <v>1</v>
@@ -7276,10 +7250,10 @@
         <v>9</v>
       </c>
       <c r="CK9" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="CL9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="CM9">
         <v>3</v>
@@ -7291,7 +7265,7 @@
         <v>20</v>
       </c>
       <c r="CP9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="CQ9">
         <v>3</v>
@@ -7303,13 +7277,13 @@
         <v>20</v>
       </c>
       <c r="CT9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="CU9">
         <v>3</v>
       </c>
       <c r="CV9" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="CW9">
         <v>3</v>
@@ -7321,22 +7295,22 @@
         <v>1</v>
       </c>
       <c r="CZ9">
-        <v>8700</v>
+        <v>9800</v>
       </c>
       <c r="DA9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="DB9">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="DC9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="DD9" t="b">
         <v>1</v>
       </c>
       <c r="DE9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="DF9">
         <v>1</v>
@@ -7351,10 +7325,10 @@
         <v>9</v>
       </c>
       <c r="DJ9" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="DK9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="DL9">
         <v>3</v>
@@ -7366,7 +7340,7 @@
         <v>20</v>
       </c>
       <c r="DO9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="DP9">
         <v>3</v>
@@ -7378,13 +7352,13 @@
         <v>20</v>
       </c>
       <c r="DS9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="DT9">
         <v>3</v>
       </c>
       <c r="DU9" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="DV9">
         <v>3</v>
@@ -7399,7 +7373,7 @@
         <v>0</v>
       </c>
       <c r="EC9" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="ED9">
         <v>1</v>
@@ -7414,10 +7388,10 @@
         <v>9</v>
       </c>
       <c r="EH9" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="EI9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="EJ9">
         <v>3</v>
@@ -7429,7 +7403,7 @@
         <v>20</v>
       </c>
       <c r="EM9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="EN9">
         <v>3</v>
@@ -7441,13 +7415,13 @@
         <v>20</v>
       </c>
       <c r="EQ9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="ER9">
         <v>3</v>
       </c>
       <c r="ES9" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="ET9">
         <v>3</v>
@@ -7462,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="FA9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FB9">
         <v>1</v>
@@ -7477,10 +7451,10 @@
         <v>9</v>
       </c>
       <c r="FF9" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="FG9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="FH9">
         <v>3</v>
@@ -7492,7 +7466,7 @@
         <v>20</v>
       </c>
       <c r="FK9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="FL9">
         <v>3</v>
@@ -7504,19 +7478,19 @@
         <v>20</v>
       </c>
       <c r="FO9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="FP9">
         <v>3</v>
       </c>
       <c r="FQ9" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="FR9">
         <v>3</v>
       </c>
       <c r="FS9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="FT9">
         <v>1</v>
@@ -7525,13 +7499,13 @@
         <v>1</v>
       </c>
       <c r="FV9">
-        <v>2800</v>
+        <v>9800</v>
       </c>
       <c r="FW9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="FX9" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="FY9">
         <v>1</v>
@@ -7546,10 +7520,10 @@
         <v>9</v>
       </c>
       <c r="GC9" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="GD9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="GE9">
         <v>3</v>
@@ -7561,7 +7535,7 @@
         <v>20</v>
       </c>
       <c r="GH9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="GI9">
         <v>3</v>
@@ -7573,19 +7547,19 @@
         <v>20</v>
       </c>
       <c r="GL9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="GM9">
         <v>3</v>
       </c>
       <c r="GN9" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="GO9">
         <v>3</v>
       </c>
       <c r="GP9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="GQ9">
         <v>0</v>
@@ -7594,13 +7568,13 @@
         <v>0</v>
       </c>
       <c r="HK9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="HL9">
         <v>0.05</v>
       </c>
       <c r="HM9">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="HN9">
         <v>0.8</v>
@@ -7609,13 +7583,13 @@
         <v>8.5</v>
       </c>
       <c r="HP9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="HQ9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="HR9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="HS9">
         <v>1</v>
@@ -7642,7 +7616,7 @@
         <v>0</v>
       </c>
       <c r="IA9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="IB9">
         <v>1</v>
@@ -7651,10 +7625,10 @@
         <v>1</v>
       </c>
       <c r="ID9">
-        <v>2800</v>
+        <v>9800</v>
       </c>
       <c r="IE9">
-        <v>5500</v>
+        <v>19500</v>
       </c>
       <c r="IF9">
         <v>0.95</v>
@@ -7663,66 +7637,72 @@
         <v>0.5</v>
       </c>
       <c r="IH9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="II9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="IJ9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="IK9">
         <v>86400</v>
       </c>
       <c r="IL9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="IM9">
+        <v>43200</v>
+      </c>
+      <c r="IN9">
+        <v>1</v>
+      </c>
+      <c r="IO9">
+        <v>0</v>
+      </c>
+      <c r="IP9" t="s">
+        <v>290</v>
+      </c>
+      <c r="IQ9">
+        <v>1</v>
+      </c>
+      <c r="IR9" t="s">
+        <v>290</v>
+      </c>
+      <c r="IS9">
+        <v>1</v>
+      </c>
+      <c r="IT9" t="s">
+        <v>309</v>
+      </c>
+      <c r="IU9" t="s">
+        <v>290</v>
+      </c>
+      <c r="IV9" t="s">
+        <v>290</v>
+      </c>
+      <c r="IW9" t="s">
+        <v>290</v>
+      </c>
+      <c r="IX9" t="s">
+        <v>309</v>
+      </c>
+      <c r="IY9">
         <v>86400</v>
       </c>
-      <c r="IN9" t="s">
-        <v>289</v>
-      </c>
-      <c r="IO9">
-        <v>1</v>
-      </c>
-      <c r="IP9" t="s">
-        <v>289</v>
-      </c>
-      <c r="IQ9">
-        <v>1</v>
-      </c>
-      <c r="IR9" t="s">
-        <v>308</v>
-      </c>
-      <c r="IS9" t="s">
-        <v>289</v>
-      </c>
-      <c r="IT9" t="s">
-        <v>289</v>
-      </c>
-      <c r="IU9" t="s">
-        <v>289</v>
-      </c>
-      <c r="IV9" t="s">
-        <v>308</v>
-      </c>
-      <c r="IW9">
+      <c r="IZ9">
         <v>86400</v>
       </c>
-      <c r="IX9">
-        <v>86400</v>
-      </c>
-      <c r="IY9">
+      <c r="JA9">
         <v>3600</v>
       </c>
     </row>
-    <row r="10" spans="1:259">
+    <row r="10" spans="1:261">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -7749,13 +7729,13 @@
         <v>1</v>
       </c>
       <c r="N10">
-        <v>4402000</v>
+        <v>4536000</v>
       </c>
       <c r="O10" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="P10" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -7770,10 +7750,10 @@
         <v>9</v>
       </c>
       <c r="U10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="V10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="W10">
         <v>3</v>
@@ -7785,7 +7765,7 @@
         <v>20</v>
       </c>
       <c r="Z10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AA10">
         <v>3</v>
@@ -7797,13 +7777,13 @@
         <v>20</v>
       </c>
       <c r="AD10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AE10">
         <v>3</v>
       </c>
       <c r="AF10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AG10">
         <v>3</v>
@@ -7818,7 +7798,7 @@
         <v>6</v>
       </c>
       <c r="AM10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AN10">
         <v>1</v>
@@ -7833,10 +7813,10 @@
         <v>9</v>
       </c>
       <c r="AR10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AS10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AT10">
         <v>3</v>
@@ -7848,7 +7828,7 @@
         <v>20</v>
       </c>
       <c r="AW10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AX10">
         <v>3</v>
@@ -7860,13 +7840,13 @@
         <v>20</v>
       </c>
       <c r="BA10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BB10">
         <v>3</v>
       </c>
       <c r="BC10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="BD10">
         <v>3</v>
@@ -7881,13 +7861,13 @@
         <v>5500000</v>
       </c>
       <c r="BH10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="BI10">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="BJ10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BK10">
         <v>1</v>
@@ -7902,10 +7882,10 @@
         <v>9</v>
       </c>
       <c r="BO10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="BP10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BQ10">
         <v>3</v>
@@ -7917,7 +7897,7 @@
         <v>20</v>
       </c>
       <c r="BT10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BU10">
         <v>3</v>
@@ -7929,13 +7909,13 @@
         <v>20</v>
       </c>
       <c r="BX10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BY10">
         <v>3</v>
       </c>
       <c r="BZ10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="CA10">
         <v>0</v>
@@ -7944,7 +7924,7 @@
         <v>0</v>
       </c>
       <c r="CF10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="CG10">
         <v>1</v>
@@ -7959,10 +7939,10 @@
         <v>9</v>
       </c>
       <c r="CK10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="CL10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="CM10">
         <v>3</v>
@@ -7974,7 +7954,7 @@
         <v>20</v>
       </c>
       <c r="CP10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="CQ10">
         <v>3</v>
@@ -7986,13 +7966,13 @@
         <v>20</v>
       </c>
       <c r="CT10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="CU10">
         <v>3</v>
       </c>
       <c r="CV10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="CW10">
         <v>3</v>
@@ -8004,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="DE10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="DF10">
         <v>1</v>
@@ -8019,10 +7999,10 @@
         <v>9</v>
       </c>
       <c r="DJ10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="DK10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="DL10">
         <v>3</v>
@@ -8034,7 +8014,7 @@
         <v>20</v>
       </c>
       <c r="DO10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="DP10">
         <v>3</v>
@@ -8046,13 +8026,13 @@
         <v>20</v>
       </c>
       <c r="DS10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="DT10">
         <v>3</v>
       </c>
       <c r="DU10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="DV10">
         <v>3</v>
@@ -8067,7 +8047,7 @@
         <v>0</v>
       </c>
       <c r="EC10" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="ED10">
         <v>1</v>
@@ -8082,10 +8062,10 @@
         <v>9</v>
       </c>
       <c r="EH10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="EI10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="EJ10">
         <v>3</v>
@@ -8097,7 +8077,7 @@
         <v>20</v>
       </c>
       <c r="EM10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="EN10">
         <v>3</v>
@@ -8109,13 +8089,13 @@
         <v>20</v>
       </c>
       <c r="EQ10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="ER10">
         <v>3</v>
       </c>
       <c r="ES10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="ET10">
         <v>3</v>
@@ -8130,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="FA10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FB10">
         <v>1</v>
@@ -8145,10 +8125,10 @@
         <v>9</v>
       </c>
       <c r="FF10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="FG10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="FH10">
         <v>3</v>
@@ -8160,7 +8140,7 @@
         <v>20</v>
       </c>
       <c r="FK10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="FL10">
         <v>3</v>
@@ -8172,19 +8152,19 @@
         <v>20</v>
       </c>
       <c r="FO10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="FP10">
         <v>3</v>
       </c>
       <c r="FQ10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="FR10">
         <v>3</v>
       </c>
       <c r="FS10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="FT10">
         <v>1</v>
@@ -8196,10 +8176,10 @@
         <v>2800</v>
       </c>
       <c r="FW10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="FX10" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="FY10">
         <v>1</v>
@@ -8214,10 +8194,10 @@
         <v>9</v>
       </c>
       <c r="GC10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="GD10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="GE10">
         <v>3</v>
@@ -8229,7 +8209,7 @@
         <v>20</v>
       </c>
       <c r="GH10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="GI10">
         <v>3</v>
@@ -8241,34 +8221,61 @@
         <v>20</v>
       </c>
       <c r="GL10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="GM10">
         <v>3</v>
       </c>
       <c r="GN10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="GO10">
         <v>3</v>
       </c>
       <c r="GP10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="GQ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GR10">
+        <v>1</v>
+      </c>
+      <c r="GS10" t="s">
+        <v>302</v>
+      </c>
+      <c r="GT10">
+        <v>50000</v>
+      </c>
+      <c r="GU10">
+        <v>7200</v>
+      </c>
+      <c r="GV10">
+        <v>7200</v>
+      </c>
+      <c r="GW10">
+        <v>50000</v>
+      </c>
+      <c r="GX10">
+        <v>0.9</v>
+      </c>
+      <c r="GY10">
+        <v>0.8</v>
+      </c>
+      <c r="GZ10" t="b">
+        <v>0</v>
+      </c>
+      <c r="HA10" t="b">
         <v>0</v>
       </c>
       <c r="HK10" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="HL10">
         <v>0.05</v>
       </c>
       <c r="HM10">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="HN10">
         <v>0.8</v>
@@ -8277,13 +8284,13 @@
         <v>8.5</v>
       </c>
       <c r="HP10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="HQ10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="HR10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="HS10">
         <v>0</v>
@@ -8292,7 +8299,7 @@
         <v>0</v>
       </c>
       <c r="IA10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="IB10">
         <v>1</v>
@@ -8313,72 +8320,78 @@
         <v>0.5</v>
       </c>
       <c r="IH10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="II10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="IJ10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="IK10">
         <v>86400</v>
       </c>
       <c r="IL10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="IM10">
+        <v>57600</v>
+      </c>
+      <c r="IN10">
+        <v>1</v>
+      </c>
+      <c r="IO10">
+        <v>0</v>
+      </c>
+      <c r="IP10" t="s">
+        <v>290</v>
+      </c>
+      <c r="IQ10">
+        <v>1</v>
+      </c>
+      <c r="IR10" t="s">
+        <v>290</v>
+      </c>
+      <c r="IS10">
+        <v>1</v>
+      </c>
+      <c r="IT10" t="s">
+        <v>309</v>
+      </c>
+      <c r="IU10" t="s">
+        <v>290</v>
+      </c>
+      <c r="IV10" t="s">
+        <v>290</v>
+      </c>
+      <c r="IW10" t="s">
+        <v>290</v>
+      </c>
+      <c r="IX10" t="s">
+        <v>309</v>
+      </c>
+      <c r="IY10">
         <v>86400</v>
       </c>
-      <c r="IN10" t="s">
-        <v>289</v>
-      </c>
-      <c r="IO10">
-        <v>1</v>
-      </c>
-      <c r="IP10" t="s">
-        <v>289</v>
-      </c>
-      <c r="IQ10">
-        <v>1</v>
-      </c>
-      <c r="IR10" t="s">
-        <v>308</v>
-      </c>
-      <c r="IS10" t="s">
-        <v>289</v>
-      </c>
-      <c r="IT10" t="s">
-        <v>289</v>
-      </c>
-      <c r="IU10" t="s">
-        <v>289</v>
-      </c>
-      <c r="IV10" t="s">
-        <v>308</v>
-      </c>
-      <c r="IW10">
+      <c r="IZ10">
         <v>86400</v>
       </c>
-      <c r="IX10">
-        <v>86400</v>
-      </c>
-      <c r="IY10">
+      <c r="JA10">
         <v>3600</v>
       </c>
     </row>
-    <row r="11" spans="1:259">
+    <row r="11" spans="1:261">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -8387,7 +8400,7 @@
         <v>2.6</v>
       </c>
       <c r="J11">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -8399,13 +8412,13 @@
         <v>1</v>
       </c>
       <c r="N11">
-        <v>2532000</v>
+        <v>5527000</v>
       </c>
       <c r="O11" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P11" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -8420,10 +8433,10 @@
         <v>9</v>
       </c>
       <c r="U11" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="V11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="W11">
         <v>3</v>
@@ -8435,7 +8448,7 @@
         <v>20</v>
       </c>
       <c r="Z11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AA11">
         <v>3</v>
@@ -8447,13 +8460,13 @@
         <v>20</v>
       </c>
       <c r="AD11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AE11">
         <v>3</v>
       </c>
       <c r="AF11" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AG11">
         <v>3</v>
@@ -8468,7 +8481,7 @@
         <v>6</v>
       </c>
       <c r="AM11" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AN11">
         <v>1</v>
@@ -8483,10 +8496,10 @@
         <v>9</v>
       </c>
       <c r="AR11" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AS11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AT11">
         <v>3</v>
@@ -8498,7 +8511,7 @@
         <v>20</v>
       </c>
       <c r="AW11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AX11">
         <v>3</v>
@@ -8510,13 +8523,13 @@
         <v>20</v>
       </c>
       <c r="BA11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BB11">
         <v>3</v>
       </c>
       <c r="BC11" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="BD11">
         <v>3</v>
@@ -8528,16 +8541,16 @@
         <v>1</v>
       </c>
       <c r="BG11">
-        <v>5500000</v>
+        <v>19500000</v>
       </c>
       <c r="BH11" t="s">
         <v>288</v>
       </c>
       <c r="BI11">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="BJ11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BK11">
         <v>1</v>
@@ -8552,10 +8565,10 @@
         <v>9</v>
       </c>
       <c r="BO11" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="BP11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BQ11">
         <v>3</v>
@@ -8567,7 +8580,7 @@
         <v>20</v>
       </c>
       <c r="BT11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BU11">
         <v>3</v>
@@ -8579,13 +8592,13 @@
         <v>20</v>
       </c>
       <c r="BX11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BY11">
         <v>3</v>
       </c>
       <c r="BZ11" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="CA11">
         <v>0</v>
@@ -8594,7 +8607,7 @@
         <v>0</v>
       </c>
       <c r="CF11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="CG11">
         <v>1</v>
@@ -8609,10 +8622,10 @@
         <v>9</v>
       </c>
       <c r="CK11" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="CL11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="CM11">
         <v>3</v>
@@ -8624,7 +8637,7 @@
         <v>20</v>
       </c>
       <c r="CP11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="CQ11">
         <v>3</v>
@@ -8636,13 +8649,13 @@
         <v>20</v>
       </c>
       <c r="CT11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="CU11">
         <v>3</v>
       </c>
       <c r="CV11" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="CW11">
         <v>3</v>
@@ -8654,10 +8667,10 @@
         <v>1</v>
       </c>
       <c r="CZ11">
-        <v>3200</v>
+        <v>7900</v>
       </c>
       <c r="DA11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="DB11">
         <v>0</v>
@@ -8669,7 +8682,7 @@
         <v>1</v>
       </c>
       <c r="DE11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="DF11">
         <v>1</v>
@@ -8684,10 +8697,10 @@
         <v>9</v>
       </c>
       <c r="DJ11" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="DK11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="DL11">
         <v>3</v>
@@ -8699,7 +8712,7 @@
         <v>20</v>
       </c>
       <c r="DO11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="DP11">
         <v>3</v>
@@ -8711,13 +8724,13 @@
         <v>20</v>
       </c>
       <c r="DS11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="DT11">
         <v>3</v>
       </c>
       <c r="DU11" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="DV11">
         <v>3</v>
@@ -8732,7 +8745,7 @@
         <v>0</v>
       </c>
       <c r="EC11" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="ED11">
         <v>1</v>
@@ -8747,10 +8760,10 @@
         <v>9</v>
       </c>
       <c r="EH11" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="EI11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="EJ11">
         <v>3</v>
@@ -8762,7 +8775,7 @@
         <v>20</v>
       </c>
       <c r="EM11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="EN11">
         <v>3</v>
@@ -8774,13 +8787,13 @@
         <v>20</v>
       </c>
       <c r="EQ11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="ER11">
         <v>3</v>
       </c>
       <c r="ES11" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="ET11">
         <v>3</v>
@@ -8795,7 +8808,7 @@
         <v>0</v>
       </c>
       <c r="FA11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FB11">
         <v>1</v>
@@ -8810,10 +8823,10 @@
         <v>9</v>
       </c>
       <c r="FF11" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="FG11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="FH11">
         <v>3</v>
@@ -8825,7 +8838,7 @@
         <v>20</v>
       </c>
       <c r="FK11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="FL11">
         <v>3</v>
@@ -8837,19 +8850,19 @@
         <v>20</v>
       </c>
       <c r="FO11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="FP11">
         <v>3</v>
       </c>
       <c r="FQ11" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="FR11">
         <v>3</v>
       </c>
       <c r="FS11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="FT11">
         <v>1</v>
@@ -8858,13 +8871,13 @@
         <v>1</v>
       </c>
       <c r="FV11">
-        <v>2800</v>
+        <v>9800</v>
       </c>
       <c r="FW11" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="FX11" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="FY11">
         <v>1</v>
@@ -8879,10 +8892,10 @@
         <v>9</v>
       </c>
       <c r="GC11" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="GD11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="GE11">
         <v>3</v>
@@ -8894,7 +8907,7 @@
         <v>20</v>
       </c>
       <c r="GH11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="GI11">
         <v>3</v>
@@ -8906,19 +8919,19 @@
         <v>20</v>
       </c>
       <c r="GL11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="GM11">
         <v>3</v>
       </c>
       <c r="GN11" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="GO11">
         <v>3</v>
       </c>
       <c r="GP11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="GQ11">
         <v>0</v>
@@ -8927,13 +8940,13 @@
         <v>0</v>
       </c>
       <c r="HK11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="HL11">
         <v>0.05</v>
       </c>
       <c r="HM11">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="HN11">
         <v>0.8</v>
@@ -8942,40 +8955,22 @@
         <v>8.5</v>
       </c>
       <c r="HP11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="HQ11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="HR11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="HS11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HT11">
-        <v>1</v>
-      </c>
-      <c r="HU11">
-        <v>2500</v>
-      </c>
-      <c r="HV11">
-        <v>2500</v>
-      </c>
-      <c r="HW11">
-        <v>0.95</v>
-      </c>
-      <c r="HX11">
-        <v>0.1</v>
-      </c>
-      <c r="HY11" t="b">
-        <v>0</v>
-      </c>
-      <c r="HZ11" t="b">
         <v>0</v>
       </c>
       <c r="IA11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="IB11">
         <v>1</v>
@@ -8984,10 +8979,10 @@
         <v>1</v>
       </c>
       <c r="ID11">
-        <v>2800</v>
+        <v>9800</v>
       </c>
       <c r="IE11">
-        <v>5500</v>
+        <v>19500</v>
       </c>
       <c r="IF11">
         <v>0.95</v>
@@ -8996,2350 +8991,64 @@
         <v>0.5</v>
       </c>
       <c r="IH11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="II11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="IJ11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="IK11">
         <v>86400</v>
       </c>
       <c r="IL11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="IM11">
+        <v>72000</v>
+      </c>
+      <c r="IN11">
+        <v>1</v>
+      </c>
+      <c r="IO11">
+        <v>0</v>
+      </c>
+      <c r="IP11" t="s">
+        <v>290</v>
+      </c>
+      <c r="IQ11">
+        <v>1</v>
+      </c>
+      <c r="IR11" t="s">
+        <v>290</v>
+      </c>
+      <c r="IS11">
+        <v>1</v>
+      </c>
+      <c r="IT11" t="s">
+        <v>309</v>
+      </c>
+      <c r="IU11" t="s">
+        <v>290</v>
+      </c>
+      <c r="IV11" t="s">
+        <v>290</v>
+      </c>
+      <c r="IW11" t="s">
+        <v>290</v>
+      </c>
+      <c r="IX11" t="s">
+        <v>309</v>
+      </c>
+      <c r="IY11">
         <v>86400</v>
       </c>
-      <c r="IN11" t="s">
-        <v>289</v>
-      </c>
-      <c r="IO11">
-        <v>1</v>
-      </c>
-      <c r="IP11" t="s">
-        <v>289</v>
-      </c>
-      <c r="IQ11">
-        <v>1</v>
-      </c>
-      <c r="IR11" t="s">
-        <v>308</v>
-      </c>
-      <c r="IS11" t="s">
-        <v>289</v>
-      </c>
-      <c r="IT11" t="s">
-        <v>289</v>
-      </c>
-      <c r="IU11" t="s">
-        <v>289</v>
-      </c>
-      <c r="IV11" t="s">
-        <v>308</v>
-      </c>
-      <c r="IW11">
+      <c r="IZ11">
         <v>86400</v>
       </c>
-      <c r="IX11">
-        <v>86400</v>
-      </c>
-      <c r="IY11">
+      <c r="JA11">
         <v>3600</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:II1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:243">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="ER1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="ES1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="ET1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="EV1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="EX1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="EY1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="EZ1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="FA1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="FB1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="FC1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="FD1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="FE1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="FF1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="FG1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="FH1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="FI1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="FK1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="FL1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="FM1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="FN1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="FO1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="FP1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="FQ1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="FR1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="FS1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="FT1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="FU1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="FV1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="FW1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="FX1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="FY1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="FZ1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="GA1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="GB1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="GC1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="GD1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="GE1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="GF1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="GG1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="GH1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="GI1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="GJ1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="GK1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="GL1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="GM1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="GN1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="GO1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="GP1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="GQ1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="GR1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="GS1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="GT1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="GU1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="GV1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="GW1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="GX1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="GY1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="GZ1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="HA1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="HB1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="HC1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="HD1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="HE1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="HF1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="HG1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="HH1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="HI1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="HJ1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="HK1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="HL1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="HM1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="HN1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="HO1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="HP1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="HQ1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="HR1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="HS1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="HT1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="HU1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="HV1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="HW1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="HX1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="HY1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="HZ1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="IA1" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="IB1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="IC1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="ID1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="IE1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="IF1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="IG1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="IH1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="II1" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:FN1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:170">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="ER1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="ES1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="ET1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="EV1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="EX1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="EY1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="EZ1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="FA1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="FB1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="FC1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="FD1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="FE1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="FF1" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="FG1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="FH1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="FI1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="FK1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="FL1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="FM1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="FN1" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:FW1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:179">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="ER1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="ES1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="ET1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="EV1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="EX1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="EY1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="EZ1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="FA1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="FB1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="FC1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="FD1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="FE1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="FF1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="FG1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="FH1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="FI1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="FK1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="FL1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="FM1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="FN1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="FO1" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="FP1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="FQ1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="FR1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="FS1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="FT1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="FU1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="FV1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="FW1" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:CZ1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:104">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:AV1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:48">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/02_config/example_single_market/agents.xlsx
+++ b/02_config/example_single_market/agents.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge23nur\Documents\Python Scripts\HAMLET\02_config\example_single_market\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46780918-6FD3-432D-A5B0-9AA117D6CA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="38590" yWindow="1280" windowWidth="28740" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sfh" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -949,8 +955,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1013,13 +1019,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1057,7 +1071,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1091,6 +1105,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1125,9 +1140,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1300,14 +1316,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:JA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="CJ1" workbookViewId="0">
+      <selection activeCell="DD12" sqref="DD12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:261">
+    <row r="1" spans="1:261" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2089,7 +2107,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:261">
+    <row r="2" spans="1:261" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2388,7 +2406,7 @@
         <v>50</v>
       </c>
       <c r="DD2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE2" t="s">
         <v>290</v>
@@ -2778,7 +2796,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="3" spans="1:261">
+    <row r="3" spans="1:261" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3077,7 +3095,7 @@
         <v>40</v>
       </c>
       <c r="DD3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE3" t="s">
         <v>290</v>
@@ -3467,7 +3485,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="4" spans="1:261">
+    <row r="4" spans="1:261" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3766,7 +3784,7 @@
         <v>40</v>
       </c>
       <c r="DD4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE4" t="s">
         <v>290</v>
@@ -4156,7 +4174,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="5" spans="1:261">
+    <row r="5" spans="1:261" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4455,7 +4473,7 @@
         <v>40</v>
       </c>
       <c r="DD5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE5" t="s">
         <v>290</v>
@@ -4899,7 +4917,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="6" spans="1:261">
+    <row r="6" spans="1:261" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5609,7 +5627,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="7" spans="1:261">
+    <row r="7" spans="1:261" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5908,7 +5926,7 @@
         <v>40</v>
       </c>
       <c r="DD7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE7" t="s">
         <v>290</v>
@@ -6325,7 +6343,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="8" spans="1:261">
+    <row r="8" spans="1:261" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -7008,7 +7026,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="9" spans="1:261">
+    <row r="9" spans="1:261" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -7307,7 +7325,7 @@
         <v>50</v>
       </c>
       <c r="DD9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE9" t="s">
         <v>290</v>
@@ -7697,7 +7715,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="10" spans="1:261">
+    <row r="10" spans="1:261" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -8380,7 +8398,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="11" spans="1:261">
+    <row r="11" spans="1:261" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -8679,7 +8697,7 @@
         <v>40</v>
       </c>
       <c r="DD11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE11" t="s">
         <v>290</v>

--- a/02_config/example_single_market/agents.xlsx
+++ b/02_config/example_single_market/agents.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge23nur\Documents\Python Scripts\HAMLET\02_config\example_single_market\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46780918-6FD3-432D-A5B0-9AA117D6CA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38590" yWindow="1280" windowWidth="28740" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="sfh" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="318">
   <si>
     <t>general/agent_id</t>
   </si>
@@ -748,10 +742,34 @@
     <t>ems/controller/rtc/method</t>
   </si>
   <si>
-    <t>ems/controller/mpc/method</t>
-  </si>
-  <si>
-    <t>ems/controller/mpc/horizon</t>
+    <t>ems/controller/rtc/linopy/solver</t>
+  </si>
+  <si>
+    <t>ems/controller/rtc/linopy/time_limit</t>
+  </si>
+  <si>
+    <t>ems/controller/rtc/poi/solver</t>
+  </si>
+  <si>
+    <t>ems/controller/rtc/poi/time_limit</t>
+  </si>
+  <si>
+    <t>ems/controller/fbc/method</t>
+  </si>
+  <si>
+    <t>ems/controller/fbc/horizon</t>
+  </si>
+  <si>
+    <t>ems/controller/fbc/linopy/solver</t>
+  </si>
+  <si>
+    <t>ems/controller/fbc/linopy/time_limit</t>
+  </si>
+  <si>
+    <t>ems/controller/fbc/poi/solver</t>
+  </si>
+  <si>
+    <t>ems/controller/fbc/poi/time_limit</t>
   </si>
   <si>
     <t>ems/market/strategy</t>
@@ -802,57 +820,57 @@
     <t>ems/fcasts/update</t>
   </si>
   <si>
-    <t>ifN99SiKLbKqLYQ</t>
-  </si>
-  <si>
-    <t>1rFqHq2yJJfxOl6</t>
-  </si>
-  <si>
-    <t>hslCyhEIwteqbFy</t>
-  </si>
-  <si>
-    <t>xjT3hE41RNaKDoD</t>
-  </si>
-  <si>
-    <t>nAaQFs09neeF8xj</t>
-  </si>
-  <si>
-    <t>S7HAdQZw0nf7sqC</t>
-  </si>
-  <si>
-    <t>s5HnQLfyUPkWATP</t>
-  </si>
-  <si>
-    <t>FGKCErYnity7r96</t>
-  </si>
-  <si>
-    <t>2JnALEtKzJcp7HZ</t>
-  </si>
-  <si>
-    <t>hFAQQgIRFgN33KY</t>
-  </si>
-  <si>
-    <t>hh_2455_0.csv</t>
-  </si>
-  <si>
-    <t>hh_4402_0.csv</t>
+    <t>BsIKeyrf1lj3rVO</t>
+  </si>
+  <si>
+    <t>8f3vvlIRj9ICt8O</t>
+  </si>
+  <si>
+    <t>T0trImFXXGMgP9I</t>
+  </si>
+  <si>
+    <t>bZHXZoNjVVbyhNo</t>
+  </si>
+  <si>
+    <t>79O1mruFbVgykmF</t>
+  </si>
+  <si>
+    <t>EVzNaAJab8rA3Go</t>
+  </si>
+  <si>
+    <t>QFcbDCphvAGIikn</t>
+  </si>
+  <si>
+    <t>N0HOa2ZKJcz12gC</t>
+  </si>
+  <si>
+    <t>Ts9tuWCg09uwsSa</t>
+  </si>
+  <si>
+    <t>spIQTuoMuglwLsn</t>
+  </si>
+  <si>
+    <t>hh_2959_0.csv</t>
+  </si>
+  <si>
+    <t>hh_5527_0.csv</t>
+  </si>
+  <si>
+    <t>hh_2896_0.csv</t>
   </si>
   <si>
     <t>hh_3863_0.csv</t>
   </si>
   <si>
-    <t>hh_2896_0.csv</t>
+    <t>hh_4536_0.csv</t>
+  </si>
+  <si>
+    <t>hh_3564_0.csv</t>
   </si>
   <si>
     <t>hh_3125_0.csv</t>
   </si>
   <si>
-    <t>hh_5527_0.csv</t>
-  </si>
-  <si>
-    <t>hh_4536_0.csv</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
@@ -868,28 +886,28 @@
     <t>rfr</t>
   </si>
   <si>
-    <t>heat_2455_0.csv</t>
-  </si>
-  <si>
-    <t>heat_4402_0.csv</t>
+    <t>heat_2959_0.csv</t>
+  </si>
+  <si>
+    <t>heat_5527_0.csv</t>
+  </si>
+  <si>
+    <t>heat_gen_0_pu.csv</t>
   </si>
   <si>
     <t>heat_3863_0.csv</t>
   </si>
   <si>
+    <t>heat_4536_0.csv</t>
+  </si>
+  <si>
     <t>heat_gen_5_pu.csv</t>
   </si>
   <si>
-    <t>heat_2896_0.csv</t>
-  </si>
-  <si>
-    <t>heat_gen_1_pu.csv</t>
-  </si>
-  <si>
-    <t>heat_5527_0.csv</t>
-  </si>
-  <si>
-    <t>heat_gen_0_pu.csv</t>
+    <t>heat_3564_0.csv</t>
+  </si>
+  <si>
+    <t>heat_3125_0.csv</t>
   </si>
   <si>
     <t>naive</t>
@@ -910,28 +928,25 @@
     <t>local</t>
   </si>
   <si>
+    <t>hp_Bosch Thermotechnik_air.json</t>
+  </si>
+  <si>
     <t>hp_DAIKIN Europe_ground.json</t>
   </si>
   <si>
-    <t>hp_Bosch Thermotechnik_air.json</t>
-  </si>
-  <si>
-    <t>ev_fulltime_41.csv</t>
-  </si>
-  <si>
-    <t>ev_fulltime_46.csv</t>
-  </si>
-  <si>
-    <t>ev_parttime_90.csv</t>
-  </si>
-  <si>
-    <t>ev_freetime_2.csv</t>
+    <t>ev_fulltime_48.csv</t>
   </si>
   <si>
     <t>ev_freetime_1.csv</t>
   </si>
   <si>
-    <t>ev_fulltime_43.csv</t>
+    <t>ev_fulltime_47.csv</t>
+  </si>
+  <si>
+    <t>ev_freetime_3.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_44.csv</t>
   </si>
   <si>
     <t>min_soc</t>
@@ -944,6 +959,9 @@
   </si>
   <si>
     <t>linopy</t>
+  </si>
+  <si>
+    <t>gurobi</t>
   </si>
   <si>
     <t>linear</t>
@@ -955,8 +973,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1019,21 +1037,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1071,7 +1081,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1105,7 +1115,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1140,10 +1149,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1316,16 +1324,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JA11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:JI11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CJ1" workbookViewId="0">
-      <selection activeCell="DD12" sqref="DD12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:261" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:269">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2106,13 +2112,37 @@
       <c r="JA1" s="1" t="s">
         <v>259</v>
       </c>
+      <c r="JB1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="JC1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="JD1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="JE1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="JF1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="JG1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="JH1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="JI1" s="1" t="s">
+        <v>267</v>
+      </c>
     </row>
-    <row r="2" spans="1:261" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:269">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -2139,13 +2169,13 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>2455000</v>
+        <v>2959000</v>
       </c>
       <c r="O2" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="P2" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -2160,10 +2190,10 @@
         <v>9</v>
       </c>
       <c r="U2" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="V2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="W2">
         <v>3</v>
@@ -2175,7 +2205,7 @@
         <v>20</v>
       </c>
       <c r="Z2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AA2">
         <v>3</v>
@@ -2187,13 +2217,13 @@
         <v>20</v>
       </c>
       <c r="AD2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AE2">
         <v>3</v>
       </c>
       <c r="AF2" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="AG2">
         <v>3</v>
@@ -2208,7 +2238,7 @@
         <v>6</v>
       </c>
       <c r="AM2" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="AN2">
         <v>1</v>
@@ -2223,10 +2253,10 @@
         <v>9</v>
       </c>
       <c r="AR2" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AS2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AT2">
         <v>3</v>
@@ -2238,7 +2268,7 @@
         <v>20</v>
       </c>
       <c r="AW2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AX2">
         <v>3</v>
@@ -2250,13 +2280,13 @@
         <v>20</v>
       </c>
       <c r="BA2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="BB2">
         <v>3</v>
       </c>
       <c r="BC2" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="BD2">
         <v>3</v>
@@ -2271,13 +2301,13 @@
         <v>5500000</v>
       </c>
       <c r="BH2" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="BI2">
         <v>55</v>
       </c>
       <c r="BJ2" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="BK2">
         <v>1</v>
@@ -2292,10 +2322,10 @@
         <v>9</v>
       </c>
       <c r="BO2" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="BP2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="BQ2">
         <v>3</v>
@@ -2307,7 +2337,7 @@
         <v>20</v>
       </c>
       <c r="BT2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="BU2">
         <v>3</v>
@@ -2319,13 +2349,13 @@
         <v>20</v>
       </c>
       <c r="BX2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="BY2">
         <v>3</v>
       </c>
       <c r="BZ2" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="CA2">
         <v>0</v>
@@ -2334,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="CF2" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="CG2">
         <v>1</v>
@@ -2349,10 +2379,10 @@
         <v>9</v>
       </c>
       <c r="CK2" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="CL2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="CM2">
         <v>3</v>
@@ -2364,7 +2394,7 @@
         <v>20</v>
       </c>
       <c r="CP2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="CQ2">
         <v>3</v>
@@ -2376,13 +2406,13 @@
         <v>20</v>
       </c>
       <c r="CT2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="CU2">
         <v>3</v>
       </c>
       <c r="CV2" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="CW2">
         <v>3</v>
@@ -2394,22 +2424,22 @@
         <v>1</v>
       </c>
       <c r="CZ2">
-        <v>3400</v>
+        <v>5100</v>
       </c>
       <c r="DA2" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="DB2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="DD2" t="b">
         <v>0</v>
       </c>
       <c r="DE2" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="DF2">
         <v>1</v>
@@ -2424,10 +2454,10 @@
         <v>9</v>
       </c>
       <c r="DJ2" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="DK2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="DL2">
         <v>3</v>
@@ -2439,7 +2469,7 @@
         <v>20</v>
       </c>
       <c r="DO2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="DP2">
         <v>3</v>
@@ -2451,19 +2481,19 @@
         <v>20</v>
       </c>
       <c r="DS2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="DT2">
         <v>3</v>
       </c>
       <c r="DU2" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="DV2">
         <v>3</v>
       </c>
       <c r="DW2" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="DX2">
         <v>0</v>
@@ -2472,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="EC2" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="ED2">
         <v>1</v>
@@ -2487,10 +2517,10 @@
         <v>9</v>
       </c>
       <c r="EH2" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="EI2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="EJ2">
         <v>3</v>
@@ -2502,7 +2532,7 @@
         <v>20</v>
       </c>
       <c r="EM2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="EN2">
         <v>3</v>
@@ -2514,19 +2544,19 @@
         <v>20</v>
       </c>
       <c r="EQ2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="ER2">
         <v>3</v>
       </c>
       <c r="ES2" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="ET2">
         <v>3</v>
       </c>
       <c r="EU2" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="EV2">
         <v>0</v>
@@ -2535,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="FA2" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="FB2">
         <v>1</v>
@@ -2550,10 +2580,10 @@
         <v>9</v>
       </c>
       <c r="FF2" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="FG2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="FH2">
         <v>3</v>
@@ -2565,7 +2595,7 @@
         <v>20</v>
       </c>
       <c r="FK2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="FL2">
         <v>3</v>
@@ -2577,19 +2607,19 @@
         <v>20</v>
       </c>
       <c r="FO2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="FP2">
         <v>3</v>
       </c>
       <c r="FQ2" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="FR2">
         <v>3</v>
       </c>
       <c r="FS2" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="FT2">
         <v>1</v>
@@ -2601,10 +2631,10 @@
         <v>2800</v>
       </c>
       <c r="FW2" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="FX2" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="FY2">
         <v>1</v>
@@ -2619,10 +2649,10 @@
         <v>9</v>
       </c>
       <c r="GC2" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="GD2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="GE2">
         <v>3</v>
@@ -2634,7 +2664,7 @@
         <v>20</v>
       </c>
       <c r="GH2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="GI2">
         <v>3</v>
@@ -2646,28 +2676,82 @@
         <v>20</v>
       </c>
       <c r="GL2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="GM2">
         <v>3</v>
       </c>
       <c r="GN2" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="GO2">
         <v>3</v>
       </c>
       <c r="GP2" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="GQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GR2">
+        <v>2</v>
+      </c>
+      <c r="GS2" t="s">
+        <v>306</v>
+      </c>
+      <c r="GT2">
+        <v>50000</v>
+      </c>
+      <c r="GU2">
+        <v>7200</v>
+      </c>
+      <c r="GV2">
+        <v>7200</v>
+      </c>
+      <c r="GW2">
+        <v>50000</v>
+      </c>
+      <c r="GX2">
+        <v>0.9</v>
+      </c>
+      <c r="GY2">
+        <v>0.8</v>
+      </c>
+      <c r="GZ2" t="b">
+        <v>0</v>
+      </c>
+      <c r="HA2" t="b">
+        <v>0</v>
+      </c>
+      <c r="HB2" t="s">
+        <v>308</v>
+      </c>
+      <c r="HC2">
+        <v>50000</v>
+      </c>
+      <c r="HD2">
+        <v>7200</v>
+      </c>
+      <c r="HE2">
+        <v>7200</v>
+      </c>
+      <c r="HF2">
+        <v>50000</v>
+      </c>
+      <c r="HG2">
+        <v>0.9</v>
+      </c>
+      <c r="HH2">
+        <v>0.8</v>
+      </c>
+      <c r="HI2" t="b">
+        <v>0</v>
+      </c>
+      <c r="HJ2" t="b">
         <v>0</v>
       </c>
       <c r="HK2" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="HL2">
         <v>0.05</v>
@@ -2682,13 +2766,13 @@
         <v>8.5</v>
       </c>
       <c r="HP2" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="HQ2" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="HR2" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="HS2">
         <v>1</v>
@@ -2697,10 +2781,10 @@
         <v>1</v>
       </c>
       <c r="HU2">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="HV2">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="HW2">
         <v>0.95</v>
@@ -2715,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="IA2" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="IB2">
         <v>1</v>
@@ -2736,78 +2820,102 @@
         <v>0.5</v>
       </c>
       <c r="IH2" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="II2" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="IJ2" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="IK2">
+        <v>120</v>
+      </c>
+      <c r="IL2" t="s">
+        <v>315</v>
+      </c>
+      <c r="IM2">
+        <v>120</v>
+      </c>
+      <c r="IN2" t="s">
+        <v>314</v>
+      </c>
+      <c r="IO2">
         <v>86400</v>
       </c>
-      <c r="IL2" t="s">
-        <v>308</v>
-      </c>
-      <c r="IM2">
-        <v>57600</v>
-      </c>
-      <c r="IN2">
-        <v>1</v>
-      </c>
-      <c r="IO2">
-        <v>0</v>
-      </c>
       <c r="IP2" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="IQ2">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="IR2" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="IS2">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="IT2" t="s">
-        <v>309</v>
-      </c>
-      <c r="IU2" t="s">
-        <v>290</v>
-      </c>
-      <c r="IV2" t="s">
-        <v>290</v>
-      </c>
-      <c r="IW2" t="s">
-        <v>290</v>
+        <v>316</v>
+      </c>
+      <c r="IU2">
+        <v>43200</v>
+      </c>
+      <c r="IV2">
+        <v>1</v>
+      </c>
+      <c r="IW2">
+        <v>0</v>
       </c>
       <c r="IX2" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="IY2">
+        <v>1</v>
+      </c>
+      <c r="IZ2" t="s">
+        <v>298</v>
+      </c>
+      <c r="JA2">
+        <v>1</v>
+      </c>
+      <c r="JB2" t="s">
+        <v>317</v>
+      </c>
+      <c r="JC2" t="s">
+        <v>298</v>
+      </c>
+      <c r="JD2" t="s">
+        <v>298</v>
+      </c>
+      <c r="JE2" t="s">
+        <v>298</v>
+      </c>
+      <c r="JF2" t="s">
+        <v>317</v>
+      </c>
+      <c r="JG2">
         <v>86400</v>
       </c>
-      <c r="IZ2">
+      <c r="JH2">
         <v>86400</v>
       </c>
-      <c r="JA2">
+      <c r="JI2">
         <v>3600</v>
       </c>
     </row>
-    <row r="3" spans="1:261" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:269">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -2816,7 +2924,7 @@
         <v>2.6</v>
       </c>
       <c r="J3">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -2828,13 +2936,13 @@
         <v>1</v>
       </c>
       <c r="N3">
-        <v>4402000</v>
+        <v>5527000</v>
       </c>
       <c r="O3" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="P3" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -2849,10 +2957,10 @@
         <v>9</v>
       </c>
       <c r="U3" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="V3" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="W3">
         <v>3</v>
@@ -2864,7 +2972,7 @@
         <v>20</v>
       </c>
       <c r="Z3" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AA3">
         <v>3</v>
@@ -2876,13 +2984,13 @@
         <v>20</v>
       </c>
       <c r="AD3" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AE3">
         <v>3</v>
       </c>
       <c r="AF3" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="AG3">
         <v>3</v>
@@ -2897,7 +3005,7 @@
         <v>6</v>
       </c>
       <c r="AM3" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="AN3">
         <v>1</v>
@@ -2912,10 +3020,10 @@
         <v>9</v>
       </c>
       <c r="AR3" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AS3" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AT3">
         <v>3</v>
@@ -2927,7 +3035,7 @@
         <v>20</v>
       </c>
       <c r="AW3" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AX3">
         <v>3</v>
@@ -2939,13 +3047,13 @@
         <v>20</v>
       </c>
       <c r="BA3" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="BB3">
         <v>3</v>
       </c>
       <c r="BC3" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="BD3">
         <v>3</v>
@@ -2957,16 +3065,16 @@
         <v>1</v>
       </c>
       <c r="BG3">
-        <v>19500000</v>
+        <v>5500000</v>
       </c>
       <c r="BH3" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="BI3">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="BJ3" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="BK3">
         <v>1</v>
@@ -2981,10 +3089,10 @@
         <v>9</v>
       </c>
       <c r="BO3" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="BP3" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="BQ3">
         <v>3</v>
@@ -2996,7 +3104,7 @@
         <v>20</v>
       </c>
       <c r="BT3" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="BU3">
         <v>3</v>
@@ -3008,13 +3116,13 @@
         <v>20</v>
       </c>
       <c r="BX3" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="BY3">
         <v>3</v>
       </c>
       <c r="BZ3" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="CA3">
         <v>0</v>
@@ -3023,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="CF3" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="CG3">
         <v>1</v>
@@ -3038,10 +3146,10 @@
         <v>9</v>
       </c>
       <c r="CK3" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="CL3" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="CM3">
         <v>3</v>
@@ -3053,7 +3161,7 @@
         <v>20</v>
       </c>
       <c r="CP3" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="CQ3">
         <v>3</v>
@@ -3065,40 +3173,25 @@
         <v>20</v>
       </c>
       <c r="CT3" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="CU3">
         <v>3</v>
       </c>
       <c r="CV3" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="CW3">
         <v>3</v>
       </c>
       <c r="CX3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>1</v>
-      </c>
-      <c r="CZ3">
-        <v>7900</v>
-      </c>
-      <c r="DA3" t="s">
-        <v>292</v>
-      </c>
-      <c r="DB3">
-        <v>0</v>
-      </c>
-      <c r="DC3">
-        <v>40</v>
-      </c>
-      <c r="DD3" t="b">
         <v>0</v>
       </c>
       <c r="DE3" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="DF3">
         <v>1</v>
@@ -3113,10 +3206,10 @@
         <v>9</v>
       </c>
       <c r="DJ3" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="DK3" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="DL3">
         <v>3</v>
@@ -3128,7 +3221,7 @@
         <v>20</v>
       </c>
       <c r="DO3" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="DP3">
         <v>3</v>
@@ -3140,19 +3233,19 @@
         <v>20</v>
       </c>
       <c r="DS3" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="DT3">
         <v>3</v>
       </c>
       <c r="DU3" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="DV3">
         <v>3</v>
       </c>
       <c r="DW3" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="DX3">
         <v>0</v>
@@ -3161,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="EC3" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="ED3">
         <v>1</v>
@@ -3176,10 +3269,10 @@
         <v>9</v>
       </c>
       <c r="EH3" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="EI3" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="EJ3">
         <v>3</v>
@@ -3191,7 +3284,7 @@
         <v>20</v>
       </c>
       <c r="EM3" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="EN3">
         <v>3</v>
@@ -3203,19 +3296,19 @@
         <v>20</v>
       </c>
       <c r="EQ3" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="ER3">
         <v>3</v>
       </c>
       <c r="ES3" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="ET3">
         <v>3</v>
       </c>
       <c r="EU3" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="EV3">
         <v>0</v>
@@ -3224,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="FA3" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="FB3">
         <v>1</v>
@@ -3239,10 +3332,10 @@
         <v>9</v>
       </c>
       <c r="FF3" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="FG3" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="FH3">
         <v>3</v>
@@ -3254,7 +3347,7 @@
         <v>20</v>
       </c>
       <c r="FK3" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="FL3">
         <v>3</v>
@@ -3266,19 +3359,19 @@
         <v>20</v>
       </c>
       <c r="FO3" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="FP3">
         <v>3</v>
       </c>
       <c r="FQ3" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="FR3">
         <v>3</v>
       </c>
       <c r="FS3" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="FT3">
         <v>1</v>
@@ -3287,13 +3380,13 @@
         <v>1</v>
       </c>
       <c r="FV3">
-        <v>9800</v>
+        <v>2800</v>
       </c>
       <c r="FW3" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="FX3" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="FY3">
         <v>1</v>
@@ -3308,10 +3401,10 @@
         <v>9</v>
       </c>
       <c r="GC3" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="GD3" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="GE3">
         <v>3</v>
@@ -3323,7 +3416,7 @@
         <v>20</v>
       </c>
       <c r="GH3" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="GI3">
         <v>3</v>
@@ -3335,28 +3428,55 @@
         <v>20</v>
       </c>
       <c r="GL3" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="GM3">
         <v>3</v>
       </c>
       <c r="GN3" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="GO3">
         <v>3</v>
       </c>
       <c r="GP3" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="GQ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GR3">
+        <v>1</v>
+      </c>
+      <c r="GS3" t="s">
+        <v>307</v>
+      </c>
+      <c r="GT3">
+        <v>100000</v>
+      </c>
+      <c r="GU3">
+        <v>11000</v>
+      </c>
+      <c r="GV3">
+        <v>22000</v>
+      </c>
+      <c r="GW3">
+        <v>200000</v>
+      </c>
+      <c r="GX3">
+        <v>0.9</v>
+      </c>
+      <c r="GY3">
+        <v>0.8</v>
+      </c>
+      <c r="GZ3" t="b">
+        <v>0</v>
+      </c>
+      <c r="HA3" t="b">
         <v>0</v>
       </c>
       <c r="HK3" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="HL3">
         <v>0.05</v>
@@ -3371,40 +3491,22 @@
         <v>8.5</v>
       </c>
       <c r="HP3" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="HQ3" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="HR3" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="HS3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HT3">
-        <v>1</v>
-      </c>
-      <c r="HU3">
-        <v>4400</v>
-      </c>
-      <c r="HV3">
-        <v>4400</v>
-      </c>
-      <c r="HW3">
-        <v>0.95</v>
-      </c>
-      <c r="HX3">
-        <v>0.1</v>
-      </c>
-      <c r="HY3" t="b">
-        <v>0</v>
-      </c>
-      <c r="HZ3" t="b">
         <v>0</v>
       </c>
       <c r="IA3" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="IB3">
         <v>1</v>
@@ -3413,10 +3515,10 @@
         <v>1</v>
       </c>
       <c r="ID3">
-        <v>9800</v>
+        <v>2800</v>
       </c>
       <c r="IE3">
-        <v>19500</v>
+        <v>5500</v>
       </c>
       <c r="IF3">
         <v>0.95</v>
@@ -3425,72 +3527,96 @@
         <v>0.5</v>
       </c>
       <c r="IH3" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="II3" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="IJ3" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="IK3">
+        <v>120</v>
+      </c>
+      <c r="IL3" t="s">
+        <v>315</v>
+      </c>
+      <c r="IM3">
+        <v>120</v>
+      </c>
+      <c r="IN3" t="s">
+        <v>314</v>
+      </c>
+      <c r="IO3">
         <v>86400</v>
       </c>
-      <c r="IL3" t="s">
-        <v>308</v>
-      </c>
-      <c r="IM3">
+      <c r="IP3" t="s">
+        <v>315</v>
+      </c>
+      <c r="IQ3">
+        <v>120</v>
+      </c>
+      <c r="IR3" t="s">
+        <v>315</v>
+      </c>
+      <c r="IS3">
+        <v>120</v>
+      </c>
+      <c r="IT3" t="s">
+        <v>316</v>
+      </c>
+      <c r="IU3">
         <v>57600</v>
       </c>
-      <c r="IN3">
-        <v>1</v>
-      </c>
-      <c r="IO3">
-        <v>0</v>
-      </c>
-      <c r="IP3" t="s">
-        <v>290</v>
-      </c>
-      <c r="IQ3">
-        <v>1</v>
-      </c>
-      <c r="IR3" t="s">
-        <v>290</v>
-      </c>
-      <c r="IS3">
-        <v>1</v>
-      </c>
-      <c r="IT3" t="s">
-        <v>309</v>
-      </c>
-      <c r="IU3" t="s">
-        <v>290</v>
-      </c>
-      <c r="IV3" t="s">
-        <v>290</v>
-      </c>
-      <c r="IW3" t="s">
-        <v>290</v>
+      <c r="IV3">
+        <v>1</v>
+      </c>
+      <c r="IW3">
+        <v>0</v>
       </c>
       <c r="IX3" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="IY3">
+        <v>1</v>
+      </c>
+      <c r="IZ3" t="s">
+        <v>298</v>
+      </c>
+      <c r="JA3">
+        <v>1</v>
+      </c>
+      <c r="JB3" t="s">
+        <v>317</v>
+      </c>
+      <c r="JC3" t="s">
+        <v>298</v>
+      </c>
+      <c r="JD3" t="s">
+        <v>298</v>
+      </c>
+      <c r="JE3" t="s">
+        <v>298</v>
+      </c>
+      <c r="JF3" t="s">
+        <v>317</v>
+      </c>
+      <c r="JG3">
         <v>86400</v>
       </c>
-      <c r="IZ3">
+      <c r="JH3">
         <v>86400</v>
       </c>
-      <c r="JA3">
+      <c r="JI3">
         <v>3600</v>
       </c>
     </row>
-    <row r="4" spans="1:261" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:269">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -3517,13 +3643,13 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>3863000</v>
+        <v>2896000</v>
       </c>
       <c r="O4" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="P4" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -3538,10 +3664,10 @@
         <v>9</v>
       </c>
       <c r="U4" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="V4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="W4">
         <v>3</v>
@@ -3553,7 +3679,7 @@
         <v>20</v>
       </c>
       <c r="Z4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AA4">
         <v>3</v>
@@ -3565,13 +3691,13 @@
         <v>20</v>
       </c>
       <c r="AD4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AE4">
         <v>3</v>
       </c>
       <c r="AF4" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="AG4">
         <v>3</v>
@@ -3586,7 +3712,7 @@
         <v>6</v>
       </c>
       <c r="AM4" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="AN4">
         <v>1</v>
@@ -3601,10 +3727,10 @@
         <v>9</v>
       </c>
       <c r="AR4" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AS4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AT4">
         <v>3</v>
@@ -3616,7 +3742,7 @@
         <v>20</v>
       </c>
       <c r="AW4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AX4">
         <v>3</v>
@@ -3628,13 +3754,13 @@
         <v>20</v>
       </c>
       <c r="BA4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="BB4">
         <v>3</v>
       </c>
       <c r="BC4" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="BD4">
         <v>3</v>
@@ -3649,13 +3775,13 @@
         <v>19500000</v>
       </c>
       <c r="BH4" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="BI4">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="BJ4" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="BK4">
         <v>1</v>
@@ -3670,10 +3796,10 @@
         <v>9</v>
       </c>
       <c r="BO4" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="BP4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="BQ4">
         <v>3</v>
@@ -3685,7 +3811,7 @@
         <v>20</v>
       </c>
       <c r="BT4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="BU4">
         <v>3</v>
@@ -3697,13 +3823,13 @@
         <v>20</v>
       </c>
       <c r="BX4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="BY4">
         <v>3</v>
       </c>
       <c r="BZ4" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="CA4">
         <v>0</v>
@@ -3712,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="CF4" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="CG4">
         <v>1</v>
@@ -3727,10 +3853,10 @@
         <v>9</v>
       </c>
       <c r="CK4" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="CL4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="CM4">
         <v>3</v>
@@ -3742,7 +3868,7 @@
         <v>20</v>
       </c>
       <c r="CP4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="CQ4">
         <v>3</v>
@@ -3754,40 +3880,25 @@
         <v>20</v>
       </c>
       <c r="CT4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="CU4">
         <v>3</v>
       </c>
       <c r="CV4" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="CW4">
         <v>3</v>
       </c>
       <c r="CX4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>1</v>
-      </c>
-      <c r="CZ4">
-        <v>6500</v>
-      </c>
-      <c r="DA4" t="s">
-        <v>292</v>
-      </c>
-      <c r="DB4">
-        <v>0</v>
-      </c>
-      <c r="DC4">
-        <v>40</v>
-      </c>
-      <c r="DD4" t="b">
         <v>0</v>
       </c>
       <c r="DE4" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="DF4">
         <v>1</v>
@@ -3802,10 +3913,10 @@
         <v>9</v>
       </c>
       <c r="DJ4" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="DK4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="DL4">
         <v>3</v>
@@ -3817,7 +3928,7 @@
         <v>20</v>
       </c>
       <c r="DO4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="DP4">
         <v>3</v>
@@ -3829,19 +3940,19 @@
         <v>20</v>
       </c>
       <c r="DS4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="DT4">
         <v>3</v>
       </c>
       <c r="DU4" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="DV4">
         <v>3</v>
       </c>
       <c r="DW4" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="DX4">
         <v>0</v>
@@ -3850,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="EC4" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="ED4">
         <v>1</v>
@@ -3865,10 +3976,10 @@
         <v>9</v>
       </c>
       <c r="EH4" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="EI4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="EJ4">
         <v>3</v>
@@ -3880,7 +3991,7 @@
         <v>20</v>
       </c>
       <c r="EM4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="EN4">
         <v>3</v>
@@ -3892,19 +4003,19 @@
         <v>20</v>
       </c>
       <c r="EQ4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="ER4">
         <v>3</v>
       </c>
       <c r="ES4" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="ET4">
         <v>3</v>
       </c>
       <c r="EU4" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="EV4">
         <v>0</v>
@@ -3913,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="FA4" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="FB4">
         <v>1</v>
@@ -3928,10 +4039,10 @@
         <v>9</v>
       </c>
       <c r="FF4" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="FG4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="FH4">
         <v>3</v>
@@ -3943,7 +4054,7 @@
         <v>20</v>
       </c>
       <c r="FK4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="FL4">
         <v>3</v>
@@ -3955,19 +4066,19 @@
         <v>20</v>
       </c>
       <c r="FO4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="FP4">
         <v>3</v>
       </c>
       <c r="FQ4" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="FR4">
         <v>3</v>
       </c>
       <c r="FS4" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="FT4">
         <v>1</v>
@@ -3979,10 +4090,10 @@
         <v>9800</v>
       </c>
       <c r="FW4" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="FX4" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="FY4">
         <v>1</v>
@@ -3997,10 +4108,10 @@
         <v>9</v>
       </c>
       <c r="GC4" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="GD4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="GE4">
         <v>3</v>
@@ -4012,7 +4123,7 @@
         <v>20</v>
       </c>
       <c r="GH4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="GI4">
         <v>3</v>
@@ -4024,28 +4135,55 @@
         <v>20</v>
       </c>
       <c r="GL4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="GM4">
         <v>3</v>
       </c>
       <c r="GN4" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="GO4">
         <v>3</v>
       </c>
       <c r="GP4" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="GQ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GR4">
+        <v>1</v>
+      </c>
+      <c r="GS4" t="s">
+        <v>308</v>
+      </c>
+      <c r="GT4">
+        <v>75000</v>
+      </c>
+      <c r="GU4">
+        <v>7200</v>
+      </c>
+      <c r="GV4">
+        <v>11000</v>
+      </c>
+      <c r="GW4">
+        <v>100000</v>
+      </c>
+      <c r="GX4">
+        <v>0.9</v>
+      </c>
+      <c r="GY4">
+        <v>0.8</v>
+      </c>
+      <c r="GZ4" t="b">
+        <v>0</v>
+      </c>
+      <c r="HA4" t="b">
         <v>0</v>
       </c>
       <c r="HK4" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="HL4">
         <v>0.05</v>
@@ -4060,40 +4198,22 @@
         <v>8.5</v>
       </c>
       <c r="HP4" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="HQ4" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="HR4" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="HS4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HT4">
-        <v>1</v>
-      </c>
-      <c r="HU4">
-        <v>3900</v>
-      </c>
-      <c r="HV4">
-        <v>3900</v>
-      </c>
-      <c r="HW4">
-        <v>0.95</v>
-      </c>
-      <c r="HX4">
-        <v>0.1</v>
-      </c>
-      <c r="HY4" t="b">
-        <v>0</v>
-      </c>
-      <c r="HZ4" t="b">
         <v>0</v>
       </c>
       <c r="IA4" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="IB4">
         <v>1</v>
@@ -4114,72 +4234,96 @@
         <v>0.5</v>
       </c>
       <c r="IH4" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="II4" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="IJ4" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="IK4">
+        <v>120</v>
+      </c>
+      <c r="IL4" t="s">
+        <v>315</v>
+      </c>
+      <c r="IM4">
+        <v>120</v>
+      </c>
+      <c r="IN4" t="s">
+        <v>314</v>
+      </c>
+      <c r="IO4">
         <v>86400</v>
       </c>
-      <c r="IL4" t="s">
-        <v>308</v>
-      </c>
-      <c r="IM4">
-        <v>72000</v>
-      </c>
-      <c r="IN4">
-        <v>1</v>
-      </c>
-      <c r="IO4">
-        <v>0</v>
-      </c>
       <c r="IP4" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="IQ4">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="IR4" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="IS4">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="IT4" t="s">
-        <v>309</v>
-      </c>
-      <c r="IU4" t="s">
-        <v>290</v>
-      </c>
-      <c r="IV4" t="s">
-        <v>290</v>
-      </c>
-      <c r="IW4" t="s">
-        <v>290</v>
+        <v>316</v>
+      </c>
+      <c r="IU4">
+        <v>57600</v>
+      </c>
+      <c r="IV4">
+        <v>1</v>
+      </c>
+      <c r="IW4">
+        <v>0</v>
       </c>
       <c r="IX4" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="IY4">
+        <v>1</v>
+      </c>
+      <c r="IZ4" t="s">
+        <v>298</v>
+      </c>
+      <c r="JA4">
+        <v>1</v>
+      </c>
+      <c r="JB4" t="s">
+        <v>317</v>
+      </c>
+      <c r="JC4" t="s">
+        <v>298</v>
+      </c>
+      <c r="JD4" t="s">
+        <v>298</v>
+      </c>
+      <c r="JE4" t="s">
+        <v>298</v>
+      </c>
+      <c r="JF4" t="s">
+        <v>317</v>
+      </c>
+      <c r="JG4">
         <v>86400</v>
       </c>
-      <c r="IZ4">
+      <c r="JH4">
         <v>86400</v>
       </c>
-      <c r="JA4">
+      <c r="JI4">
         <v>3600</v>
       </c>
     </row>
-    <row r="5" spans="1:261" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:269">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -4206,13 +4350,13 @@
         <v>1</v>
       </c>
       <c r="N5">
-        <v>4402000</v>
+        <v>3863000</v>
       </c>
       <c r="O5" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="P5" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -4227,10 +4371,10 @@
         <v>9</v>
       </c>
       <c r="U5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="V5" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="W5">
         <v>3</v>
@@ -4242,7 +4386,7 @@
         <v>20</v>
       </c>
       <c r="Z5" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AA5">
         <v>3</v>
@@ -4254,13 +4398,13 @@
         <v>20</v>
       </c>
       <c r="AD5" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AE5">
         <v>3</v>
       </c>
       <c r="AF5" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="AG5">
         <v>3</v>
@@ -4275,7 +4419,7 @@
         <v>6</v>
       </c>
       <c r="AM5" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="AN5">
         <v>1</v>
@@ -4290,10 +4434,10 @@
         <v>9</v>
       </c>
       <c r="AR5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AS5" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AT5">
         <v>3</v>
@@ -4305,7 +4449,7 @@
         <v>20</v>
       </c>
       <c r="AW5" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AX5">
         <v>3</v>
@@ -4317,13 +4461,13 @@
         <v>20</v>
       </c>
       <c r="BA5" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="BB5">
         <v>3</v>
       </c>
       <c r="BC5" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="BD5">
         <v>3</v>
@@ -4338,13 +4482,13 @@
         <v>19500000</v>
       </c>
       <c r="BH5" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="BI5">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="BJ5" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="BK5">
         <v>1</v>
@@ -4359,10 +4503,10 @@
         <v>9</v>
       </c>
       <c r="BO5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="BP5" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="BQ5">
         <v>3</v>
@@ -4374,7 +4518,7 @@
         <v>20</v>
       </c>
       <c r="BT5" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="BU5">
         <v>3</v>
@@ -4386,13 +4530,13 @@
         <v>20</v>
       </c>
       <c r="BX5" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="BY5">
         <v>3</v>
       </c>
       <c r="BZ5" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="CA5">
         <v>0</v>
@@ -4401,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="CF5" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="CG5">
         <v>1</v>
@@ -4416,10 +4560,10 @@
         <v>9</v>
       </c>
       <c r="CK5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="CL5" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="CM5">
         <v>3</v>
@@ -4431,7 +4575,7 @@
         <v>20</v>
       </c>
       <c r="CP5" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="CQ5">
         <v>3</v>
@@ -4443,13 +4587,13 @@
         <v>20</v>
       </c>
       <c r="CT5" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="CU5">
         <v>3</v>
       </c>
       <c r="CV5" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="CW5">
         <v>3</v>
@@ -4461,10 +4605,10 @@
         <v>1</v>
       </c>
       <c r="CZ5">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="DA5" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="DB5">
         <v>0</v>
@@ -4476,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="DE5" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="DF5">
         <v>1</v>
@@ -4491,10 +4635,10 @@
         <v>9</v>
       </c>
       <c r="DJ5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="DK5" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="DL5">
         <v>3</v>
@@ -4506,7 +4650,7 @@
         <v>20</v>
       </c>
       <c r="DO5" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="DP5">
         <v>3</v>
@@ -4518,19 +4662,19 @@
         <v>20</v>
       </c>
       <c r="DS5" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="DT5">
         <v>3</v>
       </c>
       <c r="DU5" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="DV5">
         <v>3</v>
       </c>
       <c r="DW5" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="DX5">
         <v>0</v>
@@ -4539,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="EC5" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="ED5">
         <v>1</v>
@@ -4554,10 +4698,10 @@
         <v>9</v>
       </c>
       <c r="EH5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="EI5" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="EJ5">
         <v>3</v>
@@ -4569,7 +4713,7 @@
         <v>20</v>
       </c>
       <c r="EM5" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="EN5">
         <v>3</v>
@@ -4581,19 +4725,19 @@
         <v>20</v>
       </c>
       <c r="EQ5" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="ER5">
         <v>3</v>
       </c>
       <c r="ES5" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="ET5">
         <v>3</v>
       </c>
       <c r="EU5" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="EV5">
         <v>0</v>
@@ -4602,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="FA5" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="FB5">
         <v>1</v>
@@ -4617,10 +4761,10 @@
         <v>9</v>
       </c>
       <c r="FF5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="FG5" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="FH5">
         <v>3</v>
@@ -4632,7 +4776,7 @@
         <v>20</v>
       </c>
       <c r="FK5" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="FL5">
         <v>3</v>
@@ -4644,19 +4788,19 @@
         <v>20</v>
       </c>
       <c r="FO5" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="FP5">
         <v>3</v>
       </c>
       <c r="FQ5" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="FR5">
         <v>3</v>
       </c>
       <c r="FS5" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="FT5">
         <v>1</v>
@@ -4668,10 +4812,10 @@
         <v>9800</v>
       </c>
       <c r="FW5" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="FX5" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="FY5">
         <v>1</v>
@@ -4686,10 +4830,10 @@
         <v>9</v>
       </c>
       <c r="GC5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="GD5" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="GE5">
         <v>3</v>
@@ -4701,7 +4845,7 @@
         <v>20</v>
       </c>
       <c r="GH5" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="GI5">
         <v>3</v>
@@ -4713,82 +4857,28 @@
         <v>20</v>
       </c>
       <c r="GL5" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="GM5">
         <v>3</v>
       </c>
       <c r="GN5" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="GO5">
         <v>3</v>
       </c>
       <c r="GP5" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="GQ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>2</v>
-      </c>
-      <c r="GS5" t="s">
-        <v>298</v>
-      </c>
-      <c r="GT5">
-        <v>75000</v>
-      </c>
-      <c r="GU5">
-        <v>7200</v>
-      </c>
-      <c r="GV5">
-        <v>11000</v>
-      </c>
-      <c r="GW5">
-        <v>100000</v>
-      </c>
-      <c r="GX5">
-        <v>0.9</v>
-      </c>
-      <c r="GY5">
-        <v>0.8</v>
-      </c>
-      <c r="GZ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="HA5" t="b">
-        <v>0</v>
-      </c>
-      <c r="HB5" t="s">
-        <v>303</v>
-      </c>
-      <c r="HC5">
-        <v>50000</v>
-      </c>
-      <c r="HD5">
-        <v>7200</v>
-      </c>
-      <c r="HE5">
-        <v>7200</v>
-      </c>
-      <c r="HF5">
-        <v>50000</v>
-      </c>
-      <c r="HG5">
-        <v>0.9</v>
-      </c>
-      <c r="HH5">
-        <v>0.8</v>
-      </c>
-      <c r="HI5" t="b">
-        <v>0</v>
-      </c>
-      <c r="HJ5" t="b">
         <v>0</v>
       </c>
       <c r="HK5" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="HL5">
         <v>0.05</v>
@@ -4803,13 +4893,13 @@
         <v>8.5</v>
       </c>
       <c r="HP5" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="HQ5" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="HR5" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="HS5">
         <v>1</v>
@@ -4818,10 +4908,10 @@
         <v>1</v>
       </c>
       <c r="HU5">
-        <v>4400</v>
+        <v>3900</v>
       </c>
       <c r="HV5">
-        <v>4400</v>
+        <v>3900</v>
       </c>
       <c r="HW5">
         <v>0.95</v>
@@ -4836,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="IA5" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="IB5">
         <v>1</v>
@@ -4857,72 +4947,96 @@
         <v>0.5</v>
       </c>
       <c r="IH5" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="II5" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="IJ5" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="IK5">
+        <v>120</v>
+      </c>
+      <c r="IL5" t="s">
+        <v>315</v>
+      </c>
+      <c r="IM5">
+        <v>120</v>
+      </c>
+      <c r="IN5" t="s">
+        <v>314</v>
+      </c>
+      <c r="IO5">
         <v>86400</v>
       </c>
-      <c r="IL5" t="s">
-        <v>308</v>
-      </c>
-      <c r="IM5">
-        <v>57600</v>
-      </c>
-      <c r="IN5">
-        <v>1</v>
-      </c>
-      <c r="IO5">
-        <v>0</v>
-      </c>
       <c r="IP5" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="IQ5">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="IR5" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="IS5">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="IT5" t="s">
-        <v>309</v>
-      </c>
-      <c r="IU5" t="s">
-        <v>290</v>
-      </c>
-      <c r="IV5" t="s">
-        <v>290</v>
-      </c>
-      <c r="IW5" t="s">
-        <v>290</v>
+        <v>316</v>
+      </c>
+      <c r="IU5">
+        <v>86400</v>
+      </c>
+      <c r="IV5">
+        <v>1</v>
+      </c>
+      <c r="IW5">
+        <v>0</v>
       </c>
       <c r="IX5" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="IY5">
+        <v>1</v>
+      </c>
+      <c r="IZ5" t="s">
+        <v>298</v>
+      </c>
+      <c r="JA5">
+        <v>1</v>
+      </c>
+      <c r="JB5" t="s">
+        <v>317</v>
+      </c>
+      <c r="JC5" t="s">
+        <v>298</v>
+      </c>
+      <c r="JD5" t="s">
+        <v>298</v>
+      </c>
+      <c r="JE5" t="s">
+        <v>298</v>
+      </c>
+      <c r="JF5" t="s">
+        <v>317</v>
+      </c>
+      <c r="JG5">
         <v>86400</v>
       </c>
-      <c r="IZ5">
+      <c r="JH5">
         <v>86400</v>
       </c>
-      <c r="JA5">
+      <c r="JI5">
         <v>3600</v>
       </c>
     </row>
-    <row r="6" spans="1:261" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:269">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -4949,13 +5063,13 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>2896000</v>
+        <v>4536000</v>
       </c>
       <c r="O6" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="P6" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -4970,10 +5084,10 @@
         <v>9</v>
       </c>
       <c r="U6" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="V6" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="W6">
         <v>3</v>
@@ -4985,7 +5099,7 @@
         <v>20</v>
       </c>
       <c r="Z6" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AA6">
         <v>3</v>
@@ -4997,13 +5111,13 @@
         <v>20</v>
       </c>
       <c r="AD6" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AE6">
         <v>3</v>
       </c>
       <c r="AF6" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="AG6">
         <v>3</v>
@@ -5018,7 +5132,7 @@
         <v>6</v>
       </c>
       <c r="AM6" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="AN6">
         <v>1</v>
@@ -5033,10 +5147,10 @@
         <v>9</v>
       </c>
       <c r="AR6" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AS6" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AT6">
         <v>3</v>
@@ -5048,7 +5162,7 @@
         <v>20</v>
       </c>
       <c r="AW6" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AX6">
         <v>3</v>
@@ -5060,13 +5174,13 @@
         <v>20</v>
       </c>
       <c r="BA6" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="BB6">
         <v>3</v>
       </c>
       <c r="BC6" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="BD6">
         <v>3</v>
@@ -5081,13 +5195,13 @@
         <v>5500000</v>
       </c>
       <c r="BH6" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="BI6">
         <v>55</v>
       </c>
       <c r="BJ6" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="BK6">
         <v>1</v>
@@ -5102,10 +5216,10 @@
         <v>9</v>
       </c>
       <c r="BO6" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="BP6" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="BQ6">
         <v>3</v>
@@ -5117,7 +5231,7 @@
         <v>20</v>
       </c>
       <c r="BT6" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="BU6">
         <v>3</v>
@@ -5129,13 +5243,13 @@
         <v>20</v>
       </c>
       <c r="BX6" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="BY6">
         <v>3</v>
       </c>
       <c r="BZ6" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="CA6">
         <v>0</v>
@@ -5144,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="CF6" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="CG6">
         <v>1</v>
@@ -5159,10 +5273,10 @@
         <v>9</v>
       </c>
       <c r="CK6" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="CL6" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="CM6">
         <v>3</v>
@@ -5174,7 +5288,7 @@
         <v>20</v>
       </c>
       <c r="CP6" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="CQ6">
         <v>3</v>
@@ -5186,25 +5300,40 @@
         <v>20</v>
       </c>
       <c r="CT6" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="CU6">
         <v>3</v>
       </c>
       <c r="CV6" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="CW6">
         <v>3</v>
       </c>
       <c r="CX6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY6">
+        <v>1</v>
+      </c>
+      <c r="CZ6">
+        <v>7200</v>
+      </c>
+      <c r="DA6" t="s">
+        <v>300</v>
+      </c>
+      <c r="DB6">
+        <v>-20</v>
+      </c>
+      <c r="DC6">
+        <v>50</v>
+      </c>
+      <c r="DD6" t="b">
         <v>0</v>
       </c>
       <c r="DE6" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="DF6">
         <v>1</v>
@@ -5219,10 +5348,10 @@
         <v>9</v>
       </c>
       <c r="DJ6" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="DK6" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="DL6">
         <v>3</v>
@@ -5234,7 +5363,7 @@
         <v>20</v>
       </c>
       <c r="DO6" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="DP6">
         <v>3</v>
@@ -5246,19 +5375,19 @@
         <v>20</v>
       </c>
       <c r="DS6" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="DT6">
         <v>3</v>
       </c>
       <c r="DU6" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="DV6">
         <v>3</v>
       </c>
       <c r="DW6" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="DX6">
         <v>0</v>
@@ -5267,7 +5396,7 @@
         <v>0</v>
       </c>
       <c r="EC6" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="ED6">
         <v>1</v>
@@ -5282,10 +5411,10 @@
         <v>9</v>
       </c>
       <c r="EH6" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="EI6" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="EJ6">
         <v>3</v>
@@ -5297,7 +5426,7 @@
         <v>20</v>
       </c>
       <c r="EM6" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="EN6">
         <v>3</v>
@@ -5309,19 +5438,19 @@
         <v>20</v>
       </c>
       <c r="EQ6" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="ER6">
         <v>3</v>
       </c>
       <c r="ES6" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="ET6">
         <v>3</v>
       </c>
       <c r="EU6" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="EV6">
         <v>0</v>
@@ -5330,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="FA6" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="FB6">
         <v>1</v>
@@ -5345,10 +5474,10 @@
         <v>9</v>
       </c>
       <c r="FF6" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="FG6" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="FH6">
         <v>3</v>
@@ -5360,7 +5489,7 @@
         <v>20</v>
       </c>
       <c r="FK6" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="FL6">
         <v>3</v>
@@ -5372,19 +5501,19 @@
         <v>20</v>
       </c>
       <c r="FO6" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="FP6">
         <v>3</v>
       </c>
       <c r="FQ6" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="FR6">
         <v>3</v>
       </c>
       <c r="FS6" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="FT6">
         <v>1</v>
@@ -5396,10 +5525,10 @@
         <v>2800</v>
       </c>
       <c r="FW6" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="FX6" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="FY6">
         <v>1</v>
@@ -5414,10 +5543,10 @@
         <v>9</v>
       </c>
       <c r="GC6" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="GD6" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="GE6">
         <v>3</v>
@@ -5429,7 +5558,7 @@
         <v>20</v>
       </c>
       <c r="GH6" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="GI6">
         <v>3</v>
@@ -5441,40 +5570,40 @@
         <v>20</v>
       </c>
       <c r="GL6" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="GM6">
         <v>3</v>
       </c>
       <c r="GN6" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="GO6">
         <v>3</v>
       </c>
       <c r="GP6" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="GQ6">
         <v>1</v>
       </c>
       <c r="GR6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GS6" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="GT6">
+        <v>75000</v>
+      </c>
+      <c r="GU6">
+        <v>7200</v>
+      </c>
+      <c r="GV6">
+        <v>11000</v>
+      </c>
+      <c r="GW6">
         <v>100000</v>
-      </c>
-      <c r="GU6">
-        <v>11000</v>
-      </c>
-      <c r="GV6">
-        <v>22000</v>
-      </c>
-      <c r="GW6">
-        <v>200000</v>
       </c>
       <c r="GX6">
         <v>0.9</v>
@@ -5488,35 +5617,8 @@
       <c r="HA6" t="b">
         <v>0</v>
       </c>
-      <c r="HB6" t="s">
-        <v>299</v>
-      </c>
-      <c r="HC6">
-        <v>75000</v>
-      </c>
-      <c r="HD6">
-        <v>7200</v>
-      </c>
-      <c r="HE6">
-        <v>11000</v>
-      </c>
-      <c r="HF6">
-        <v>100000</v>
-      </c>
-      <c r="HG6">
-        <v>0.9</v>
-      </c>
-      <c r="HH6">
-        <v>0.8</v>
-      </c>
-      <c r="HI6" t="b">
-        <v>0</v>
-      </c>
-      <c r="HJ6" t="b">
-        <v>0</v>
-      </c>
       <c r="HK6" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="HL6">
         <v>0.05</v>
@@ -5531,22 +5633,40 @@
         <v>8.5</v>
       </c>
       <c r="HP6" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="HQ6" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="HR6" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="HS6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HT6">
+        <v>1</v>
+      </c>
+      <c r="HU6">
+        <v>4500</v>
+      </c>
+      <c r="HV6">
+        <v>4500</v>
+      </c>
+      <c r="HW6">
+        <v>0.95</v>
+      </c>
+      <c r="HX6">
+        <v>0.1</v>
+      </c>
+      <c r="HY6" t="b">
+        <v>0</v>
+      </c>
+      <c r="HZ6" t="b">
         <v>0</v>
       </c>
       <c r="IA6" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="IB6">
         <v>1</v>
@@ -5567,72 +5687,96 @@
         <v>0.5</v>
       </c>
       <c r="IH6" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="II6" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="IJ6" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="IK6">
+        <v>120</v>
+      </c>
+      <c r="IL6" t="s">
+        <v>315</v>
+      </c>
+      <c r="IM6">
+        <v>120</v>
+      </c>
+      <c r="IN6" t="s">
+        <v>314</v>
+      </c>
+      <c r="IO6">
         <v>86400</v>
       </c>
-      <c r="IL6" t="s">
-        <v>308</v>
-      </c>
-      <c r="IM6">
-        <v>43200</v>
-      </c>
-      <c r="IN6">
-        <v>1</v>
-      </c>
-      <c r="IO6">
-        <v>0</v>
-      </c>
       <c r="IP6" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="IQ6">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="IR6" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="IS6">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="IT6" t="s">
-        <v>309</v>
-      </c>
-      <c r="IU6" t="s">
-        <v>290</v>
-      </c>
-      <c r="IV6" t="s">
-        <v>290</v>
-      </c>
-      <c r="IW6" t="s">
-        <v>290</v>
+        <v>316</v>
+      </c>
+      <c r="IU6">
+        <v>72000</v>
+      </c>
+      <c r="IV6">
+        <v>1</v>
+      </c>
+      <c r="IW6">
+        <v>0</v>
       </c>
       <c r="IX6" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="IY6">
+        <v>1</v>
+      </c>
+      <c r="IZ6" t="s">
+        <v>298</v>
+      </c>
+      <c r="JA6">
+        <v>1</v>
+      </c>
+      <c r="JB6" t="s">
+        <v>317</v>
+      </c>
+      <c r="JC6" t="s">
+        <v>298</v>
+      </c>
+      <c r="JD6" t="s">
+        <v>298</v>
+      </c>
+      <c r="JE6" t="s">
+        <v>298</v>
+      </c>
+      <c r="JF6" t="s">
+        <v>317</v>
+      </c>
+      <c r="JG6">
         <v>86400</v>
       </c>
-      <c r="IZ6">
+      <c r="JH6">
         <v>86400</v>
       </c>
-      <c r="JA6">
+      <c r="JI6">
         <v>3600</v>
       </c>
     </row>
-    <row r="7" spans="1:261" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:269">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -5662,10 +5806,10 @@
         <v>3863000</v>
       </c>
       <c r="O7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="P7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -5680,10 +5824,10 @@
         <v>9</v>
       </c>
       <c r="U7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="V7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="W7">
         <v>3</v>
@@ -5695,7 +5839,7 @@
         <v>20</v>
       </c>
       <c r="Z7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AA7">
         <v>3</v>
@@ -5707,13 +5851,13 @@
         <v>20</v>
       </c>
       <c r="AD7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AE7">
         <v>3</v>
       </c>
       <c r="AF7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="AG7">
         <v>3</v>
@@ -5728,7 +5872,7 @@
         <v>6</v>
       </c>
       <c r="AM7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="AN7">
         <v>1</v>
@@ -5743,10 +5887,10 @@
         <v>9</v>
       </c>
       <c r="AR7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AS7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AT7">
         <v>3</v>
@@ -5758,7 +5902,7 @@
         <v>20</v>
       </c>
       <c r="AW7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AX7">
         <v>3</v>
@@ -5770,13 +5914,13 @@
         <v>20</v>
       </c>
       <c r="BA7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="BB7">
         <v>3</v>
       </c>
       <c r="BC7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="BD7">
         <v>3</v>
@@ -5791,13 +5935,13 @@
         <v>5500000</v>
       </c>
       <c r="BH7" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="BI7">
         <v>55</v>
       </c>
       <c r="BJ7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="BK7">
         <v>1</v>
@@ -5812,10 +5956,10 @@
         <v>9</v>
       </c>
       <c r="BO7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="BP7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="BQ7">
         <v>3</v>
@@ -5827,7 +5971,7 @@
         <v>20</v>
       </c>
       <c r="BT7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="BU7">
         <v>3</v>
@@ -5839,13 +5983,13 @@
         <v>20</v>
       </c>
       <c r="BX7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="BY7">
         <v>3</v>
       </c>
       <c r="BZ7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="CA7">
         <v>0</v>
@@ -5854,7 +5998,7 @@
         <v>0</v>
       </c>
       <c r="CF7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="CG7">
         <v>1</v>
@@ -5869,10 +6013,10 @@
         <v>9</v>
       </c>
       <c r="CK7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="CL7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="CM7">
         <v>3</v>
@@ -5884,7 +6028,7 @@
         <v>20</v>
       </c>
       <c r="CP7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="CQ7">
         <v>3</v>
@@ -5896,13 +6040,13 @@
         <v>20</v>
       </c>
       <c r="CT7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="CU7">
         <v>3</v>
       </c>
       <c r="CV7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="CW7">
         <v>3</v>
@@ -5914,10 +6058,10 @@
         <v>1</v>
       </c>
       <c r="CZ7">
-        <v>5800</v>
+        <v>4700</v>
       </c>
       <c r="DA7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="DB7">
         <v>0</v>
@@ -5929,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="DE7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="DF7">
         <v>1</v>
@@ -5944,10 +6088,10 @@
         <v>9</v>
       </c>
       <c r="DJ7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="DK7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="DL7">
         <v>3</v>
@@ -5959,7 +6103,7 @@
         <v>20</v>
       </c>
       <c r="DO7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="DP7">
         <v>3</v>
@@ -5971,19 +6115,19 @@
         <v>20</v>
       </c>
       <c r="DS7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="DT7">
         <v>3</v>
       </c>
       <c r="DU7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="DV7">
         <v>3</v>
       </c>
       <c r="DW7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="DX7">
         <v>0</v>
@@ -5992,7 +6136,7 @@
         <v>0</v>
       </c>
       <c r="EC7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="ED7">
         <v>1</v>
@@ -6007,10 +6151,10 @@
         <v>9</v>
       </c>
       <c r="EH7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="EI7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="EJ7">
         <v>3</v>
@@ -6022,7 +6166,7 @@
         <v>20</v>
       </c>
       <c r="EM7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="EN7">
         <v>3</v>
@@ -6034,19 +6178,19 @@
         <v>20</v>
       </c>
       <c r="EQ7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="ER7">
         <v>3</v>
       </c>
       <c r="ES7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="ET7">
         <v>3</v>
       </c>
       <c r="EU7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="EV7">
         <v>0</v>
@@ -6055,7 +6199,7 @@
         <v>0</v>
       </c>
       <c r="FA7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="FB7">
         <v>1</v>
@@ -6070,10 +6214,10 @@
         <v>9</v>
       </c>
       <c r="FF7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="FG7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="FH7">
         <v>3</v>
@@ -6085,7 +6229,7 @@
         <v>20</v>
       </c>
       <c r="FK7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="FL7">
         <v>3</v>
@@ -6097,19 +6241,19 @@
         <v>20</v>
       </c>
       <c r="FO7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="FP7">
         <v>3</v>
       </c>
       <c r="FQ7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="FR7">
         <v>3</v>
       </c>
       <c r="FS7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="FT7">
         <v>1</v>
@@ -6121,10 +6265,10 @@
         <v>2800</v>
       </c>
       <c r="FW7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="FX7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="FY7">
         <v>1</v>
@@ -6139,10 +6283,10 @@
         <v>9</v>
       </c>
       <c r="GC7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="GD7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="GE7">
         <v>3</v>
@@ -6154,7 +6298,7 @@
         <v>20</v>
       </c>
       <c r="GH7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="GI7">
         <v>3</v>
@@ -6166,55 +6310,28 @@
         <v>20</v>
       </c>
       <c r="GL7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="GM7">
         <v>3</v>
       </c>
       <c r="GN7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="GO7">
         <v>3</v>
       </c>
       <c r="GP7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="GQ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GR7">
-        <v>1</v>
-      </c>
-      <c r="GS7" t="s">
-        <v>300</v>
-      </c>
-      <c r="GT7">
-        <v>50000</v>
-      </c>
-      <c r="GU7">
-        <v>7200</v>
-      </c>
-      <c r="GV7">
-        <v>7200</v>
-      </c>
-      <c r="GW7">
-        <v>50000</v>
-      </c>
-      <c r="GX7">
-        <v>0.9</v>
-      </c>
-      <c r="GY7">
-        <v>0.8</v>
-      </c>
-      <c r="GZ7" t="b">
-        <v>0</v>
-      </c>
-      <c r="HA7" t="b">
         <v>0</v>
       </c>
       <c r="HK7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="HL7">
         <v>0.05</v>
@@ -6229,13 +6346,13 @@
         <v>8.5</v>
       </c>
       <c r="HP7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="HQ7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="HR7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="HS7">
         <v>1</v>
@@ -6262,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="IA7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="IB7">
         <v>1</v>
@@ -6283,72 +6400,96 @@
         <v>0.5</v>
       </c>
       <c r="IH7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="II7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="IJ7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="IK7">
+        <v>120</v>
+      </c>
+      <c r="IL7" t="s">
+        <v>315</v>
+      </c>
+      <c r="IM7">
+        <v>120</v>
+      </c>
+      <c r="IN7" t="s">
+        <v>314</v>
+      </c>
+      <c r="IO7">
         <v>86400</v>
       </c>
-      <c r="IL7" t="s">
-        <v>308</v>
-      </c>
-      <c r="IM7">
+      <c r="IP7" t="s">
+        <v>315</v>
+      </c>
+      <c r="IQ7">
+        <v>120</v>
+      </c>
+      <c r="IR7" t="s">
+        <v>315</v>
+      </c>
+      <c r="IS7">
+        <v>120</v>
+      </c>
+      <c r="IT7" t="s">
+        <v>316</v>
+      </c>
+      <c r="IU7">
         <v>72000</v>
       </c>
-      <c r="IN7">
-        <v>1</v>
-      </c>
-      <c r="IO7">
-        <v>0</v>
-      </c>
-      <c r="IP7" t="s">
-        <v>290</v>
-      </c>
-      <c r="IQ7">
-        <v>1</v>
-      </c>
-      <c r="IR7" t="s">
-        <v>290</v>
-      </c>
-      <c r="IS7">
-        <v>1</v>
-      </c>
-      <c r="IT7" t="s">
-        <v>309</v>
-      </c>
-      <c r="IU7" t="s">
-        <v>290</v>
-      </c>
-      <c r="IV7" t="s">
-        <v>290</v>
-      </c>
-      <c r="IW7" t="s">
-        <v>290</v>
+      <c r="IV7">
+        <v>1</v>
+      </c>
+      <c r="IW7">
+        <v>0</v>
       </c>
       <c r="IX7" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="IY7">
+        <v>1</v>
+      </c>
+      <c r="IZ7" t="s">
+        <v>298</v>
+      </c>
+      <c r="JA7">
+        <v>1</v>
+      </c>
+      <c r="JB7" t="s">
+        <v>317</v>
+      </c>
+      <c r="JC7" t="s">
+        <v>298</v>
+      </c>
+      <c r="JD7" t="s">
+        <v>298</v>
+      </c>
+      <c r="JE7" t="s">
+        <v>298</v>
+      </c>
+      <c r="JF7" t="s">
+        <v>317</v>
+      </c>
+      <c r="JG7">
         <v>86400</v>
       </c>
-      <c r="IZ7">
+      <c r="JH7">
         <v>86400</v>
       </c>
-      <c r="JA7">
+      <c r="JI7">
         <v>3600</v>
       </c>
     </row>
-    <row r="8" spans="1:261" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:269">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -6375,13 +6516,13 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>3125000</v>
+        <v>3863000</v>
       </c>
       <c r="O8" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="P8" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -6396,10 +6537,10 @@
         <v>9</v>
       </c>
       <c r="U8" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="V8" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="W8">
         <v>3</v>
@@ -6411,7 +6552,7 @@
         <v>20</v>
       </c>
       <c r="Z8" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AA8">
         <v>3</v>
@@ -6423,13 +6564,13 @@
         <v>20</v>
       </c>
       <c r="AD8" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AE8">
         <v>3</v>
       </c>
       <c r="AF8" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="AG8">
         <v>3</v>
@@ -6444,7 +6585,7 @@
         <v>6</v>
       </c>
       <c r="AM8" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="AN8">
         <v>1</v>
@@ -6459,10 +6600,10 @@
         <v>9</v>
       </c>
       <c r="AR8" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AS8" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AT8">
         <v>3</v>
@@ -6474,7 +6615,7 @@
         <v>20</v>
       </c>
       <c r="AW8" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AX8">
         <v>3</v>
@@ -6486,13 +6627,13 @@
         <v>20</v>
       </c>
       <c r="BA8" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="BB8">
         <v>3</v>
       </c>
       <c r="BC8" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="BD8">
         <v>3</v>
@@ -6507,13 +6648,13 @@
         <v>5500000</v>
       </c>
       <c r="BH8" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="BI8">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="BJ8" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="BK8">
         <v>1</v>
@@ -6528,10 +6669,10 @@
         <v>9</v>
       </c>
       <c r="BO8" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="BP8" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="BQ8">
         <v>3</v>
@@ -6543,7 +6684,7 @@
         <v>20</v>
       </c>
       <c r="BT8" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="BU8">
         <v>3</v>
@@ -6555,13 +6696,13 @@
         <v>20</v>
       </c>
       <c r="BX8" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="BY8">
         <v>3</v>
       </c>
       <c r="BZ8" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="CA8">
         <v>0</v>
@@ -6570,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="CF8" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="CG8">
         <v>1</v>
@@ -6585,10 +6726,10 @@
         <v>9</v>
       </c>
       <c r="CK8" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="CL8" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="CM8">
         <v>3</v>
@@ -6600,7 +6741,7 @@
         <v>20</v>
       </c>
       <c r="CP8" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="CQ8">
         <v>3</v>
@@ -6612,13 +6753,13 @@
         <v>20</v>
       </c>
       <c r="CT8" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="CU8">
         <v>3</v>
       </c>
       <c r="CV8" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="CW8">
         <v>3</v>
@@ -6630,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="DE8" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="DF8">
         <v>1</v>
@@ -6645,10 +6786,10 @@
         <v>9</v>
       </c>
       <c r="DJ8" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="DK8" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="DL8">
         <v>3</v>
@@ -6660,7 +6801,7 @@
         <v>20</v>
       </c>
       <c r="DO8" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="DP8">
         <v>3</v>
@@ -6672,19 +6813,19 @@
         <v>20</v>
       </c>
       <c r="DS8" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="DT8">
         <v>3</v>
       </c>
       <c r="DU8" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="DV8">
         <v>3</v>
       </c>
       <c r="DW8" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="DX8">
         <v>0</v>
@@ -6693,7 +6834,7 @@
         <v>0</v>
       </c>
       <c r="EC8" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="ED8">
         <v>1</v>
@@ -6708,10 +6849,10 @@
         <v>9</v>
       </c>
       <c r="EH8" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="EI8" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="EJ8">
         <v>3</v>
@@ -6723,7 +6864,7 @@
         <v>20</v>
       </c>
       <c r="EM8" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="EN8">
         <v>3</v>
@@ -6735,19 +6876,19 @@
         <v>20</v>
       </c>
       <c r="EQ8" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="ER8">
         <v>3</v>
       </c>
       <c r="ES8" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="ET8">
         <v>3</v>
       </c>
       <c r="EU8" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="EV8">
         <v>0</v>
@@ -6756,7 +6897,7 @@
         <v>0</v>
       </c>
       <c r="FA8" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="FB8">
         <v>1</v>
@@ -6771,10 +6912,10 @@
         <v>9</v>
       </c>
       <c r="FF8" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="FG8" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="FH8">
         <v>3</v>
@@ -6786,7 +6927,7 @@
         <v>20</v>
       </c>
       <c r="FK8" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="FL8">
         <v>3</v>
@@ -6798,19 +6939,19 @@
         <v>20</v>
       </c>
       <c r="FO8" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="FP8">
         <v>3</v>
       </c>
       <c r="FQ8" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="FR8">
         <v>3</v>
       </c>
       <c r="FS8" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="FT8">
         <v>1</v>
@@ -6822,10 +6963,10 @@
         <v>2800</v>
       </c>
       <c r="FW8" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="FX8" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="FY8">
         <v>1</v>
@@ -6840,10 +6981,10 @@
         <v>9</v>
       </c>
       <c r="GC8" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="GD8" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="GE8">
         <v>3</v>
@@ -6855,7 +6996,7 @@
         <v>20</v>
       </c>
       <c r="GH8" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="GI8">
         <v>3</v>
@@ -6867,55 +7008,28 @@
         <v>20</v>
       </c>
       <c r="GL8" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="GM8">
         <v>3</v>
       </c>
       <c r="GN8" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="GO8">
         <v>3</v>
       </c>
       <c r="GP8" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="GQ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GR8">
-        <v>1</v>
-      </c>
-      <c r="GS8" t="s">
-        <v>301</v>
-      </c>
-      <c r="GT8">
-        <v>75000</v>
-      </c>
-      <c r="GU8">
-        <v>7200</v>
-      </c>
-      <c r="GV8">
-        <v>11000</v>
-      </c>
-      <c r="GW8">
-        <v>100000</v>
-      </c>
-      <c r="GX8">
-        <v>0.9</v>
-      </c>
-      <c r="GY8">
-        <v>0.8</v>
-      </c>
-      <c r="GZ8" t="b">
-        <v>0</v>
-      </c>
-      <c r="HA8" t="b">
         <v>0</v>
       </c>
       <c r="HK8" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="HL8">
         <v>0.05</v>
@@ -6930,13 +7044,13 @@
         <v>8.5</v>
       </c>
       <c r="HP8" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="HQ8" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="HR8" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="HS8">
         <v>0</v>
@@ -6945,7 +7059,7 @@
         <v>0</v>
       </c>
       <c r="IA8" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="IB8">
         <v>1</v>
@@ -6966,72 +7080,96 @@
         <v>0.5</v>
       </c>
       <c r="IH8" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="II8" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="IJ8" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="IK8">
+        <v>120</v>
+      </c>
+      <c r="IL8" t="s">
+        <v>315</v>
+      </c>
+      <c r="IM8">
+        <v>120</v>
+      </c>
+      <c r="IN8" t="s">
+        <v>314</v>
+      </c>
+      <c r="IO8">
         <v>86400</v>
       </c>
-      <c r="IL8" t="s">
-        <v>308</v>
-      </c>
-      <c r="IM8">
+      <c r="IP8" t="s">
+        <v>315</v>
+      </c>
+      <c r="IQ8">
+        <v>120</v>
+      </c>
+      <c r="IR8" t="s">
+        <v>315</v>
+      </c>
+      <c r="IS8">
+        <v>120</v>
+      </c>
+      <c r="IT8" t="s">
+        <v>316</v>
+      </c>
+      <c r="IU8">
         <v>86400</v>
       </c>
-      <c r="IN8">
-        <v>1</v>
-      </c>
-      <c r="IO8">
-        <v>0</v>
-      </c>
-      <c r="IP8" t="s">
-        <v>290</v>
-      </c>
-      <c r="IQ8">
-        <v>1</v>
-      </c>
-      <c r="IR8" t="s">
-        <v>290</v>
-      </c>
-      <c r="IS8">
-        <v>1</v>
-      </c>
-      <c r="IT8" t="s">
-        <v>309</v>
-      </c>
-      <c r="IU8" t="s">
-        <v>290</v>
-      </c>
-      <c r="IV8" t="s">
-        <v>290</v>
-      </c>
-      <c r="IW8" t="s">
-        <v>290</v>
+      <c r="IV8">
+        <v>1</v>
+      </c>
+      <c r="IW8">
+        <v>0</v>
       </c>
       <c r="IX8" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="IY8">
+        <v>1</v>
+      </c>
+      <c r="IZ8" t="s">
+        <v>298</v>
+      </c>
+      <c r="JA8">
+        <v>1</v>
+      </c>
+      <c r="JB8" t="s">
+        <v>317</v>
+      </c>
+      <c r="JC8" t="s">
+        <v>298</v>
+      </c>
+      <c r="JD8" t="s">
+        <v>298</v>
+      </c>
+      <c r="JE8" t="s">
+        <v>298</v>
+      </c>
+      <c r="JF8" t="s">
+        <v>317</v>
+      </c>
+      <c r="JG8">
         <v>86400</v>
       </c>
-      <c r="IZ8">
+      <c r="JH8">
         <v>86400</v>
       </c>
-      <c r="JA8">
+      <c r="JI8">
         <v>3600</v>
       </c>
     </row>
-    <row r="9" spans="1:261" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:269">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -7058,13 +7196,13 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <v>5527000</v>
+        <v>3564000</v>
       </c>
       <c r="O9" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="P9" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -7079,10 +7217,10 @@
         <v>9</v>
       </c>
       <c r="U9" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="V9" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="W9">
         <v>3</v>
@@ -7094,7 +7232,7 @@
         <v>20</v>
       </c>
       <c r="Z9" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AA9">
         <v>3</v>
@@ -7106,13 +7244,13 @@
         <v>20</v>
       </c>
       <c r="AD9" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AE9">
         <v>3</v>
       </c>
       <c r="AF9" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="AG9">
         <v>3</v>
@@ -7127,7 +7265,7 @@
         <v>6</v>
       </c>
       <c r="AM9" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="AN9">
         <v>1</v>
@@ -7142,10 +7280,10 @@
         <v>9</v>
       </c>
       <c r="AR9" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AS9" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AT9">
         <v>3</v>
@@ -7157,7 +7295,7 @@
         <v>20</v>
       </c>
       <c r="AW9" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AX9">
         <v>3</v>
@@ -7169,13 +7307,13 @@
         <v>20</v>
       </c>
       <c r="BA9" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="BB9">
         <v>3</v>
       </c>
       <c r="BC9" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="BD9">
         <v>3</v>
@@ -7190,13 +7328,13 @@
         <v>19500000</v>
       </c>
       <c r="BH9" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="BI9">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="BJ9" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="BK9">
         <v>1</v>
@@ -7211,10 +7349,10 @@
         <v>9</v>
       </c>
       <c r="BO9" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="BP9" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="BQ9">
         <v>3</v>
@@ -7226,7 +7364,7 @@
         <v>20</v>
       </c>
       <c r="BT9" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="BU9">
         <v>3</v>
@@ -7238,13 +7376,13 @@
         <v>20</v>
       </c>
       <c r="BX9" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="BY9">
         <v>3</v>
       </c>
       <c r="BZ9" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="CA9">
         <v>0</v>
@@ -7253,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="CF9" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="CG9">
         <v>1</v>
@@ -7268,10 +7406,10 @@
         <v>9</v>
       </c>
       <c r="CK9" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="CL9" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="CM9">
         <v>3</v>
@@ -7283,7 +7421,7 @@
         <v>20</v>
       </c>
       <c r="CP9" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="CQ9">
         <v>3</v>
@@ -7295,13 +7433,13 @@
         <v>20</v>
       </c>
       <c r="CT9" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="CU9">
         <v>3</v>
       </c>
       <c r="CV9" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="CW9">
         <v>3</v>
@@ -7313,22 +7451,22 @@
         <v>1</v>
       </c>
       <c r="CZ9">
-        <v>9800</v>
+        <v>5600</v>
       </c>
       <c r="DA9" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="DB9">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="DC9">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="DD9" t="b">
         <v>0</v>
       </c>
       <c r="DE9" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="DF9">
         <v>1</v>
@@ -7343,10 +7481,10 @@
         <v>9</v>
       </c>
       <c r="DJ9" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="DK9" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="DL9">
         <v>3</v>
@@ -7358,7 +7496,7 @@
         <v>20</v>
       </c>
       <c r="DO9" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="DP9">
         <v>3</v>
@@ -7370,19 +7508,19 @@
         <v>20</v>
       </c>
       <c r="DS9" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="DT9">
         <v>3</v>
       </c>
       <c r="DU9" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="DV9">
         <v>3</v>
       </c>
       <c r="DW9" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="DX9">
         <v>0</v>
@@ -7391,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="EC9" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="ED9">
         <v>1</v>
@@ -7406,10 +7544,10 @@
         <v>9</v>
       </c>
       <c r="EH9" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="EI9" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="EJ9">
         <v>3</v>
@@ -7421,7 +7559,7 @@
         <v>20</v>
       </c>
       <c r="EM9" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="EN9">
         <v>3</v>
@@ -7433,19 +7571,19 @@
         <v>20</v>
       </c>
       <c r="EQ9" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="ER9">
         <v>3</v>
       </c>
       <c r="ES9" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="ET9">
         <v>3</v>
       </c>
       <c r="EU9" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="EV9">
         <v>0</v>
@@ -7454,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="FA9" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="FB9">
         <v>1</v>
@@ -7469,10 +7607,10 @@
         <v>9</v>
       </c>
       <c r="FF9" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="FG9" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="FH9">
         <v>3</v>
@@ -7484,7 +7622,7 @@
         <v>20</v>
       </c>
       <c r="FK9" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="FL9">
         <v>3</v>
@@ -7496,19 +7634,19 @@
         <v>20</v>
       </c>
       <c r="FO9" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="FP9">
         <v>3</v>
       </c>
       <c r="FQ9" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="FR9">
         <v>3</v>
       </c>
       <c r="FS9" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="FT9">
         <v>1</v>
@@ -7520,10 +7658,10 @@
         <v>9800</v>
       </c>
       <c r="FW9" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="FX9" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="FY9">
         <v>1</v>
@@ -7538,10 +7676,10 @@
         <v>9</v>
       </c>
       <c r="GC9" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="GD9" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="GE9">
         <v>3</v>
@@ -7553,7 +7691,7 @@
         <v>20</v>
       </c>
       <c r="GH9" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="GI9">
         <v>3</v>
@@ -7565,19 +7703,19 @@
         <v>20</v>
       </c>
       <c r="GL9" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="GM9">
         <v>3</v>
       </c>
       <c r="GN9" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="GO9">
         <v>3</v>
       </c>
       <c r="GP9" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="GQ9">
         <v>0</v>
@@ -7586,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="HK9" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="HL9">
         <v>0.05</v>
@@ -7601,40 +7739,22 @@
         <v>8.5</v>
       </c>
       <c r="HP9" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="HQ9" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="HR9" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="HS9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HT9">
-        <v>1</v>
-      </c>
-      <c r="HU9">
-        <v>5500</v>
-      </c>
-      <c r="HV9">
-        <v>5500</v>
-      </c>
-      <c r="HW9">
-        <v>0.95</v>
-      </c>
-      <c r="HX9">
-        <v>0.1</v>
-      </c>
-      <c r="HY9" t="b">
-        <v>0</v>
-      </c>
-      <c r="HZ9" t="b">
         <v>0</v>
       </c>
       <c r="IA9" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="IB9">
         <v>1</v>
@@ -7655,78 +7775,102 @@
         <v>0.5</v>
       </c>
       <c r="IH9" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="II9" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="IJ9" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="IK9">
+        <v>120</v>
+      </c>
+      <c r="IL9" t="s">
+        <v>315</v>
+      </c>
+      <c r="IM9">
+        <v>120</v>
+      </c>
+      <c r="IN9" t="s">
+        <v>314</v>
+      </c>
+      <c r="IO9">
         <v>86400</v>
       </c>
-      <c r="IL9" t="s">
-        <v>308</v>
-      </c>
-      <c r="IM9">
-        <v>43200</v>
-      </c>
-      <c r="IN9">
-        <v>1</v>
-      </c>
-      <c r="IO9">
-        <v>0</v>
-      </c>
       <c r="IP9" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="IQ9">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="IR9" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="IS9">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="IT9" t="s">
-        <v>309</v>
-      </c>
-      <c r="IU9" t="s">
-        <v>290</v>
-      </c>
-      <c r="IV9" t="s">
-        <v>290</v>
-      </c>
-      <c r="IW9" t="s">
-        <v>290</v>
+        <v>316</v>
+      </c>
+      <c r="IU9">
+        <v>86400</v>
+      </c>
+      <c r="IV9">
+        <v>1</v>
+      </c>
+      <c r="IW9">
+        <v>0</v>
       </c>
       <c r="IX9" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="IY9">
+        <v>1</v>
+      </c>
+      <c r="IZ9" t="s">
+        <v>298</v>
+      </c>
+      <c r="JA9">
+        <v>1</v>
+      </c>
+      <c r="JB9" t="s">
+        <v>317</v>
+      </c>
+      <c r="JC9" t="s">
+        <v>298</v>
+      </c>
+      <c r="JD9" t="s">
+        <v>298</v>
+      </c>
+      <c r="JE9" t="s">
+        <v>298</v>
+      </c>
+      <c r="JF9" t="s">
+        <v>317</v>
+      </c>
+      <c r="JG9">
         <v>86400</v>
       </c>
-      <c r="IZ9">
+      <c r="JH9">
         <v>86400</v>
       </c>
-      <c r="JA9">
+      <c r="JI9">
         <v>3600</v>
       </c>
     </row>
-    <row r="10" spans="1:261" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:269">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -7735,7 +7879,7 @@
         <v>2.6</v>
       </c>
       <c r="J10">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -7747,13 +7891,13 @@
         <v>1</v>
       </c>
       <c r="N10">
-        <v>4536000</v>
+        <v>3125000</v>
       </c>
       <c r="O10" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="P10" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -7768,10 +7912,10 @@
         <v>9</v>
       </c>
       <c r="U10" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="V10" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="W10">
         <v>3</v>
@@ -7783,7 +7927,7 @@
         <v>20</v>
       </c>
       <c r="Z10" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AA10">
         <v>3</v>
@@ -7795,13 +7939,13 @@
         <v>20</v>
       </c>
       <c r="AD10" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AE10">
         <v>3</v>
       </c>
       <c r="AF10" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="AG10">
         <v>3</v>
@@ -7816,7 +7960,7 @@
         <v>6</v>
       </c>
       <c r="AM10" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="AN10">
         <v>1</v>
@@ -7831,10 +7975,10 @@
         <v>9</v>
       </c>
       <c r="AR10" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AS10" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AT10">
         <v>3</v>
@@ -7846,7 +7990,7 @@
         <v>20</v>
       </c>
       <c r="AW10" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AX10">
         <v>3</v>
@@ -7858,13 +8002,13 @@
         <v>20</v>
       </c>
       <c r="BA10" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="BB10">
         <v>3</v>
       </c>
       <c r="BC10" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="BD10">
         <v>3</v>
@@ -7876,16 +8020,16 @@
         <v>1</v>
       </c>
       <c r="BG10">
-        <v>5500000</v>
+        <v>19500000</v>
       </c>
       <c r="BH10" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="BI10">
         <v>55</v>
       </c>
       <c r="BJ10" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="BK10">
         <v>1</v>
@@ -7900,10 +8044,10 @@
         <v>9</v>
       </c>
       <c r="BO10" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="BP10" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="BQ10">
         <v>3</v>
@@ -7915,7 +8059,7 @@
         <v>20</v>
       </c>
       <c r="BT10" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="BU10">
         <v>3</v>
@@ -7927,13 +8071,13 @@
         <v>20</v>
       </c>
       <c r="BX10" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="BY10">
         <v>3</v>
       </c>
       <c r="BZ10" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="CA10">
         <v>0</v>
@@ -7942,7 +8086,7 @@
         <v>0</v>
       </c>
       <c r="CF10" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="CG10">
         <v>1</v>
@@ -7957,10 +8101,10 @@
         <v>9</v>
       </c>
       <c r="CK10" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="CL10" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="CM10">
         <v>3</v>
@@ -7972,7 +8116,7 @@
         <v>20</v>
       </c>
       <c r="CP10" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="CQ10">
         <v>3</v>
@@ -7984,25 +8128,40 @@
         <v>20</v>
       </c>
       <c r="CT10" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="CU10">
         <v>3</v>
       </c>
       <c r="CV10" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="CW10">
         <v>3</v>
       </c>
       <c r="CX10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY10">
+        <v>1</v>
+      </c>
+      <c r="CZ10">
+        <v>4900</v>
+      </c>
+      <c r="DA10" t="s">
+        <v>300</v>
+      </c>
+      <c r="DB10">
+        <v>-20</v>
+      </c>
+      <c r="DC10">
+        <v>50</v>
+      </c>
+      <c r="DD10" t="b">
         <v>0</v>
       </c>
       <c r="DE10" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="DF10">
         <v>1</v>
@@ -8017,10 +8176,10 @@
         <v>9</v>
       </c>
       <c r="DJ10" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="DK10" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="DL10">
         <v>3</v>
@@ -8032,7 +8191,7 @@
         <v>20</v>
       </c>
       <c r="DO10" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="DP10">
         <v>3</v>
@@ -8044,19 +8203,19 @@
         <v>20</v>
       </c>
       <c r="DS10" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="DT10">
         <v>3</v>
       </c>
       <c r="DU10" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="DV10">
         <v>3</v>
       </c>
       <c r="DW10" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="DX10">
         <v>0</v>
@@ -8065,7 +8224,7 @@
         <v>0</v>
       </c>
       <c r="EC10" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="ED10">
         <v>1</v>
@@ -8080,10 +8239,10 @@
         <v>9</v>
       </c>
       <c r="EH10" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="EI10" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="EJ10">
         <v>3</v>
@@ -8095,7 +8254,7 @@
         <v>20</v>
       </c>
       <c r="EM10" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="EN10">
         <v>3</v>
@@ -8107,19 +8266,19 @@
         <v>20</v>
       </c>
       <c r="EQ10" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="ER10">
         <v>3</v>
       </c>
       <c r="ES10" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="ET10">
         <v>3</v>
       </c>
       <c r="EU10" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="EV10">
         <v>0</v>
@@ -8128,7 +8287,7 @@
         <v>0</v>
       </c>
       <c r="FA10" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="FB10">
         <v>1</v>
@@ -8143,10 +8302,10 @@
         <v>9</v>
       </c>
       <c r="FF10" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="FG10" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="FH10">
         <v>3</v>
@@ -8158,7 +8317,7 @@
         <v>20</v>
       </c>
       <c r="FK10" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="FL10">
         <v>3</v>
@@ -8170,19 +8329,19 @@
         <v>20</v>
       </c>
       <c r="FO10" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="FP10">
         <v>3</v>
       </c>
       <c r="FQ10" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="FR10">
         <v>3</v>
       </c>
       <c r="FS10" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="FT10">
         <v>1</v>
@@ -8191,13 +8350,13 @@
         <v>1</v>
       </c>
       <c r="FV10">
-        <v>2800</v>
+        <v>9800</v>
       </c>
       <c r="FW10" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="FX10" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="FY10">
         <v>1</v>
@@ -8212,10 +8371,10 @@
         <v>9</v>
       </c>
       <c r="GC10" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="GD10" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="GE10">
         <v>3</v>
@@ -8227,7 +8386,7 @@
         <v>20</v>
       </c>
       <c r="GH10" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="GI10">
         <v>3</v>
@@ -8239,55 +8398,28 @@
         <v>20</v>
       </c>
       <c r="GL10" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="GM10">
         <v>3</v>
       </c>
       <c r="GN10" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="GO10">
         <v>3</v>
       </c>
       <c r="GP10" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="GQ10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GR10">
-        <v>1</v>
-      </c>
-      <c r="GS10" t="s">
-        <v>302</v>
-      </c>
-      <c r="GT10">
-        <v>50000</v>
-      </c>
-      <c r="GU10">
-        <v>7200</v>
-      </c>
-      <c r="GV10">
-        <v>7200</v>
-      </c>
-      <c r="GW10">
-        <v>50000</v>
-      </c>
-      <c r="GX10">
-        <v>0.9</v>
-      </c>
-      <c r="GY10">
-        <v>0.8</v>
-      </c>
-      <c r="GZ10" t="b">
-        <v>0</v>
-      </c>
-      <c r="HA10" t="b">
         <v>0</v>
       </c>
       <c r="HK10" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="HL10">
         <v>0.05</v>
@@ -8302,22 +8434,40 @@
         <v>8.5</v>
       </c>
       <c r="HP10" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="HQ10" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="HR10" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="HS10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HT10">
+        <v>1</v>
+      </c>
+      <c r="HU10">
+        <v>3100</v>
+      </c>
+      <c r="HV10">
+        <v>3100</v>
+      </c>
+      <c r="HW10">
+        <v>0.95</v>
+      </c>
+      <c r="HX10">
+        <v>0.1</v>
+      </c>
+      <c r="HY10" t="b">
+        <v>0</v>
+      </c>
+      <c r="HZ10" t="b">
         <v>0</v>
       </c>
       <c r="IA10" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="IB10">
         <v>1</v>
@@ -8326,10 +8476,10 @@
         <v>1</v>
       </c>
       <c r="ID10">
-        <v>2800</v>
+        <v>9800</v>
       </c>
       <c r="IE10">
-        <v>5500</v>
+        <v>19500</v>
       </c>
       <c r="IF10">
         <v>0.95</v>
@@ -8338,72 +8488,96 @@
         <v>0.5</v>
       </c>
       <c r="IH10" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="II10" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="IJ10" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="IK10">
+        <v>120</v>
+      </c>
+      <c r="IL10" t="s">
+        <v>315</v>
+      </c>
+      <c r="IM10">
+        <v>120</v>
+      </c>
+      <c r="IN10" t="s">
+        <v>314</v>
+      </c>
+      <c r="IO10">
         <v>86400</v>
       </c>
-      <c r="IL10" t="s">
-        <v>308</v>
-      </c>
-      <c r="IM10">
-        <v>57600</v>
-      </c>
-      <c r="IN10">
-        <v>1</v>
-      </c>
-      <c r="IO10">
-        <v>0</v>
-      </c>
       <c r="IP10" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="IQ10">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="IR10" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="IS10">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="IT10" t="s">
-        <v>309</v>
-      </c>
-      <c r="IU10" t="s">
-        <v>290</v>
-      </c>
-      <c r="IV10" t="s">
-        <v>290</v>
-      </c>
-      <c r="IW10" t="s">
-        <v>290</v>
+        <v>316</v>
+      </c>
+      <c r="IU10">
+        <v>86400</v>
+      </c>
+      <c r="IV10">
+        <v>1</v>
+      </c>
+      <c r="IW10">
+        <v>0</v>
       </c>
       <c r="IX10" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="IY10">
+        <v>1</v>
+      </c>
+      <c r="IZ10" t="s">
+        <v>298</v>
+      </c>
+      <c r="JA10">
+        <v>1</v>
+      </c>
+      <c r="JB10" t="s">
+        <v>317</v>
+      </c>
+      <c r="JC10" t="s">
+        <v>298</v>
+      </c>
+      <c r="JD10" t="s">
+        <v>298</v>
+      </c>
+      <c r="JE10" t="s">
+        <v>298</v>
+      </c>
+      <c r="JF10" t="s">
+        <v>317</v>
+      </c>
+      <c r="JG10">
         <v>86400</v>
       </c>
-      <c r="IZ10">
+      <c r="JH10">
         <v>86400</v>
       </c>
-      <c r="JA10">
+      <c r="JI10">
         <v>3600</v>
       </c>
     </row>
-    <row r="11" spans="1:261" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:269">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="F11">
         <v>4</v>
@@ -8433,10 +8607,10 @@
         <v>5527000</v>
       </c>
       <c r="O11" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P11" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -8451,10 +8625,10 @@
         <v>9</v>
       </c>
       <c r="U11" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="V11" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="W11">
         <v>3</v>
@@ -8466,7 +8640,7 @@
         <v>20</v>
       </c>
       <c r="Z11" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AA11">
         <v>3</v>
@@ -8478,13 +8652,13 @@
         <v>20</v>
       </c>
       <c r="AD11" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AE11">
         <v>3</v>
       </c>
       <c r="AF11" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="AG11">
         <v>3</v>
@@ -8499,7 +8673,7 @@
         <v>6</v>
       </c>
       <c r="AM11" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="AN11">
         <v>1</v>
@@ -8514,10 +8688,10 @@
         <v>9</v>
       </c>
       <c r="AR11" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AS11" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AT11">
         <v>3</v>
@@ -8529,7 +8703,7 @@
         <v>20</v>
       </c>
       <c r="AW11" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AX11">
         <v>3</v>
@@ -8541,13 +8715,13 @@
         <v>20</v>
       </c>
       <c r="BA11" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="BB11">
         <v>3</v>
       </c>
       <c r="BC11" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="BD11">
         <v>3</v>
@@ -8562,13 +8736,13 @@
         <v>19500000</v>
       </c>
       <c r="BH11" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="BI11">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="BJ11" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="BK11">
         <v>1</v>
@@ -8583,10 +8757,10 @@
         <v>9</v>
       </c>
       <c r="BO11" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="BP11" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="BQ11">
         <v>3</v>
@@ -8598,7 +8772,7 @@
         <v>20</v>
       </c>
       <c r="BT11" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="BU11">
         <v>3</v>
@@ -8610,13 +8784,13 @@
         <v>20</v>
       </c>
       <c r="BX11" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="BY11">
         <v>3</v>
       </c>
       <c r="BZ11" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="CA11">
         <v>0</v>
@@ -8625,7 +8799,7 @@
         <v>0</v>
       </c>
       <c r="CF11" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="CG11">
         <v>1</v>
@@ -8640,10 +8814,10 @@
         <v>9</v>
       </c>
       <c r="CK11" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="CL11" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="CM11">
         <v>3</v>
@@ -8655,7 +8829,7 @@
         <v>20</v>
       </c>
       <c r="CP11" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="CQ11">
         <v>3</v>
@@ -8667,13 +8841,13 @@
         <v>20</v>
       </c>
       <c r="CT11" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="CU11">
         <v>3</v>
       </c>
       <c r="CV11" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="CW11">
         <v>3</v>
@@ -8685,10 +8859,10 @@
         <v>1</v>
       </c>
       <c r="CZ11">
-        <v>7900</v>
+        <v>7200</v>
       </c>
       <c r="DA11" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="DB11">
         <v>0</v>
@@ -8700,7 +8874,7 @@
         <v>0</v>
       </c>
       <c r="DE11" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="DF11">
         <v>1</v>
@@ -8715,10 +8889,10 @@
         <v>9</v>
       </c>
       <c r="DJ11" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="DK11" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="DL11">
         <v>3</v>
@@ -8730,7 +8904,7 @@
         <v>20</v>
       </c>
       <c r="DO11" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="DP11">
         <v>3</v>
@@ -8742,19 +8916,19 @@
         <v>20</v>
       </c>
       <c r="DS11" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="DT11">
         <v>3</v>
       </c>
       <c r="DU11" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="DV11">
         <v>3</v>
       </c>
       <c r="DW11" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="DX11">
         <v>0</v>
@@ -8763,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="EC11" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="ED11">
         <v>1</v>
@@ -8778,10 +8952,10 @@
         <v>9</v>
       </c>
       <c r="EH11" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="EI11" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="EJ11">
         <v>3</v>
@@ -8793,7 +8967,7 @@
         <v>20</v>
       </c>
       <c r="EM11" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="EN11">
         <v>3</v>
@@ -8805,19 +8979,19 @@
         <v>20</v>
       </c>
       <c r="EQ11" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="ER11">
         <v>3</v>
       </c>
       <c r="ES11" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="ET11">
         <v>3</v>
       </c>
       <c r="EU11" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="EV11">
         <v>0</v>
@@ -8826,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="FA11" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="FB11">
         <v>1</v>
@@ -8841,10 +9015,10 @@
         <v>9</v>
       </c>
       <c r="FF11" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="FG11" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="FH11">
         <v>3</v>
@@ -8856,7 +9030,7 @@
         <v>20</v>
       </c>
       <c r="FK11" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="FL11">
         <v>3</v>
@@ -8868,19 +9042,19 @@
         <v>20</v>
       </c>
       <c r="FO11" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="FP11">
         <v>3</v>
       </c>
       <c r="FQ11" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="FR11">
         <v>3</v>
       </c>
       <c r="FS11" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="FT11">
         <v>1</v>
@@ -8892,10 +9066,10 @@
         <v>9800</v>
       </c>
       <c r="FW11" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="FX11" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="FY11">
         <v>1</v>
@@ -8910,10 +9084,10 @@
         <v>9</v>
       </c>
       <c r="GC11" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="GD11" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="GE11">
         <v>3</v>
@@ -8925,7 +9099,7 @@
         <v>20</v>
       </c>
       <c r="GH11" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="GI11">
         <v>3</v>
@@ -8937,28 +9111,82 @@
         <v>20</v>
       </c>
       <c r="GL11" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="GM11">
         <v>3</v>
       </c>
       <c r="GN11" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="GO11">
         <v>3</v>
       </c>
       <c r="GP11" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="GQ11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GR11">
+        <v>2</v>
+      </c>
+      <c r="GS11" t="s">
+        <v>310</v>
+      </c>
+      <c r="GT11">
+        <v>50000</v>
+      </c>
+      <c r="GU11">
+        <v>7200</v>
+      </c>
+      <c r="GV11">
+        <v>7200</v>
+      </c>
+      <c r="GW11">
+        <v>50000</v>
+      </c>
+      <c r="GX11">
+        <v>0.9</v>
+      </c>
+      <c r="GY11">
+        <v>0.8</v>
+      </c>
+      <c r="GZ11" t="b">
+        <v>0</v>
+      </c>
+      <c r="HA11" t="b">
+        <v>0</v>
+      </c>
+      <c r="HB11" t="s">
+        <v>308</v>
+      </c>
+      <c r="HC11">
+        <v>75000</v>
+      </c>
+      <c r="HD11">
+        <v>7200</v>
+      </c>
+      <c r="HE11">
+        <v>11000</v>
+      </c>
+      <c r="HF11">
+        <v>100000</v>
+      </c>
+      <c r="HG11">
+        <v>0.9</v>
+      </c>
+      <c r="HH11">
+        <v>0.8</v>
+      </c>
+      <c r="HI11" t="b">
+        <v>0</v>
+      </c>
+      <c r="HJ11" t="b">
         <v>0</v>
       </c>
       <c r="HK11" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="HL11">
         <v>0.05</v>
@@ -8973,22 +9201,40 @@
         <v>8.5</v>
       </c>
       <c r="HP11" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="HQ11" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="HR11" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="HS11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HT11">
+        <v>1</v>
+      </c>
+      <c r="HU11">
+        <v>5500</v>
+      </c>
+      <c r="HV11">
+        <v>5500</v>
+      </c>
+      <c r="HW11">
+        <v>0.95</v>
+      </c>
+      <c r="HX11">
+        <v>0.1</v>
+      </c>
+      <c r="HY11" t="b">
+        <v>0</v>
+      </c>
+      <c r="HZ11" t="b">
         <v>0</v>
       </c>
       <c r="IA11" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="IB11">
         <v>1</v>
@@ -9009,63 +9255,87 @@
         <v>0.5</v>
       </c>
       <c r="IH11" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="II11" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="IJ11" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="IK11">
+        <v>120</v>
+      </c>
+      <c r="IL11" t="s">
+        <v>315</v>
+      </c>
+      <c r="IM11">
+        <v>120</v>
+      </c>
+      <c r="IN11" t="s">
+        <v>314</v>
+      </c>
+      <c r="IO11">
         <v>86400</v>
       </c>
-      <c r="IL11" t="s">
-        <v>308</v>
-      </c>
-      <c r="IM11">
-        <v>72000</v>
-      </c>
-      <c r="IN11">
-        <v>1</v>
-      </c>
-      <c r="IO11">
-        <v>0</v>
-      </c>
       <c r="IP11" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="IQ11">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="IR11" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="IS11">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="IT11" t="s">
-        <v>309</v>
-      </c>
-      <c r="IU11" t="s">
-        <v>290</v>
-      </c>
-      <c r="IV11" t="s">
-        <v>290</v>
-      </c>
-      <c r="IW11" t="s">
-        <v>290</v>
+        <v>316</v>
+      </c>
+      <c r="IU11">
+        <v>57600</v>
+      </c>
+      <c r="IV11">
+        <v>1</v>
+      </c>
+      <c r="IW11">
+        <v>0</v>
       </c>
       <c r="IX11" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="IY11">
+        <v>1</v>
+      </c>
+      <c r="IZ11" t="s">
+        <v>298</v>
+      </c>
+      <c r="JA11">
+        <v>1</v>
+      </c>
+      <c r="JB11" t="s">
+        <v>317</v>
+      </c>
+      <c r="JC11" t="s">
+        <v>298</v>
+      </c>
+      <c r="JD11" t="s">
+        <v>298</v>
+      </c>
+      <c r="JE11" t="s">
+        <v>298</v>
+      </c>
+      <c r="JF11" t="s">
+        <v>317</v>
+      </c>
+      <c r="JG11">
         <v>86400</v>
       </c>
-      <c r="IZ11">
+      <c r="JH11">
         <v>86400</v>
       </c>
-      <c r="JA11">
+      <c r="JI11">
         <v>3600</v>
       </c>
     </row>

--- a/02_config/example_single_market/agents.xlsx
+++ b/02_config/example_single_market/agents.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="319">
   <si>
     <t>general/agent_id</t>
   </si>
@@ -820,57 +820,57 @@
     <t>ems/fcasts/update</t>
   </si>
   <si>
-    <t>BsIKeyrf1lj3rVO</t>
-  </si>
-  <si>
-    <t>8f3vvlIRj9ICt8O</t>
-  </si>
-  <si>
-    <t>T0trImFXXGMgP9I</t>
-  </si>
-  <si>
-    <t>bZHXZoNjVVbyhNo</t>
-  </si>
-  <si>
-    <t>79O1mruFbVgykmF</t>
-  </si>
-  <si>
-    <t>EVzNaAJab8rA3Go</t>
-  </si>
-  <si>
-    <t>QFcbDCphvAGIikn</t>
-  </si>
-  <si>
-    <t>N0HOa2ZKJcz12gC</t>
-  </si>
-  <si>
-    <t>Ts9tuWCg09uwsSa</t>
-  </si>
-  <si>
-    <t>spIQTuoMuglwLsn</t>
-  </si>
-  <si>
-    <t>hh_2959_0.csv</t>
+    <t>7RoMKhKPykXrFxN</t>
+  </si>
+  <si>
+    <t>ryYqphAYH66rqBR</t>
+  </si>
+  <si>
+    <t>9EzYHF2KmClcoSH</t>
+  </si>
+  <si>
+    <t>To06tKG30CoaBBZ</t>
+  </si>
+  <si>
+    <t>ci3ggclTDIuxx0J</t>
+  </si>
+  <si>
+    <t>8HAaGxfdIuOYpoE</t>
+  </si>
+  <si>
+    <t>li0yQQQ2eFSuKVB</t>
+  </si>
+  <si>
+    <t>S3jFOl27BE4LplR</t>
+  </si>
+  <si>
+    <t>YawQtd5fYkC08f3</t>
+  </si>
+  <si>
+    <t>fkJkOc4Pri4u6sg</t>
+  </si>
+  <si>
+    <t>hh_2532_0.csv</t>
+  </si>
+  <si>
+    <t>hh_4402_0.csv</t>
+  </si>
+  <si>
+    <t>hh_4536_0.csv</t>
+  </si>
+  <si>
+    <t>hh_3125_0.csv</t>
+  </si>
+  <si>
+    <t>hh_3564_0.csv</t>
   </si>
   <si>
     <t>hh_5527_0.csv</t>
   </si>
   <si>
-    <t>hh_2896_0.csv</t>
-  </si>
-  <si>
     <t>hh_3863_0.csv</t>
   </si>
   <si>
-    <t>hh_4536_0.csv</t>
-  </si>
-  <si>
-    <t>hh_3564_0.csv</t>
-  </si>
-  <si>
-    <t>hh_3125_0.csv</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
@@ -886,28 +886,28 @@
     <t>rfr</t>
   </si>
   <si>
-    <t>heat_2959_0.csv</t>
+    <t>heat_gen_4_pu.csv</t>
+  </si>
+  <si>
+    <t>heat_4402_0.csv</t>
+  </si>
+  <si>
+    <t>heat_gen_0_pu.csv</t>
+  </si>
+  <si>
+    <t>heat_2532_0.csv</t>
+  </si>
+  <si>
+    <t>heat_3125_0.csv</t>
+  </si>
+  <si>
+    <t>heat_3564_0.csv</t>
   </si>
   <si>
     <t>heat_5527_0.csv</t>
   </si>
   <si>
-    <t>heat_gen_0_pu.csv</t>
-  </si>
-  <si>
-    <t>heat_3863_0.csv</t>
-  </si>
-  <si>
-    <t>heat_4536_0.csv</t>
-  </si>
-  <si>
-    <t>heat_gen_5_pu.csv</t>
-  </si>
-  <si>
-    <t>heat_3564_0.csv</t>
-  </si>
-  <si>
-    <t>heat_3125_0.csv</t>
+    <t>heat_gen_1_pu.csv</t>
   </si>
   <si>
     <t>naive</t>
@@ -934,19 +934,22 @@
     <t>hp_DAIKIN Europe_ground.json</t>
   </si>
   <si>
+    <t>ev_freetime_3.csv</t>
+  </si>
+  <si>
     <t>ev_fulltime_48.csv</t>
   </si>
   <si>
-    <t>ev_freetime_1.csv</t>
-  </si>
-  <si>
-    <t>ev_fulltime_47.csv</t>
-  </si>
-  <si>
-    <t>ev_freetime_3.csv</t>
-  </si>
-  <si>
-    <t>ev_fulltime_44.csv</t>
+    <t>ev_freetime_2.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_42.csv</t>
+  </si>
+  <si>
+    <t>ev_parttime_88.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_45.csv</t>
   </si>
   <si>
     <t>min_soc</t>
@@ -2145,10 +2148,10 @@
         <v>268</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -2157,7 +2160,7 @@
         <v>2.6</v>
       </c>
       <c r="J2">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -2169,7 +2172,7 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>2959000</v>
+        <v>2532000</v>
       </c>
       <c r="O2" t="s">
         <v>278</v>
@@ -2298,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="BG2">
-        <v>5500000</v>
+        <v>19500000</v>
       </c>
       <c r="BH2" t="s">
         <v>290</v>
@@ -2424,7 +2427,7 @@
         <v>1</v>
       </c>
       <c r="CZ2">
-        <v>5100</v>
+        <v>4100</v>
       </c>
       <c r="DA2" t="s">
         <v>300</v>
@@ -2628,7 +2631,7 @@
         <v>1</v>
       </c>
       <c r="FV2">
-        <v>2800</v>
+        <v>9800</v>
       </c>
       <c r="FW2" t="s">
         <v>304</v>
@@ -2691,67 +2694,13 @@
         <v>303</v>
       </c>
       <c r="GQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>2</v>
-      </c>
-      <c r="GS2" t="s">
-        <v>306</v>
-      </c>
-      <c r="GT2">
-        <v>50000</v>
-      </c>
-      <c r="GU2">
-        <v>7200</v>
-      </c>
-      <c r="GV2">
-        <v>7200</v>
-      </c>
-      <c r="GW2">
-        <v>50000</v>
-      </c>
-      <c r="GX2">
-        <v>0.9</v>
-      </c>
-      <c r="GY2">
-        <v>0.8</v>
-      </c>
-      <c r="GZ2" t="b">
-        <v>0</v>
-      </c>
-      <c r="HA2" t="b">
-        <v>0</v>
-      </c>
-      <c r="HB2" t="s">
-        <v>308</v>
-      </c>
-      <c r="HC2">
-        <v>50000</v>
-      </c>
-      <c r="HD2">
-        <v>7200</v>
-      </c>
-      <c r="HE2">
-        <v>7200</v>
-      </c>
-      <c r="HF2">
-        <v>50000</v>
-      </c>
-      <c r="HG2">
-        <v>0.9</v>
-      </c>
-      <c r="HH2">
-        <v>0.8</v>
-      </c>
-      <c r="HI2" t="b">
-        <v>0</v>
-      </c>
-      <c r="HJ2" t="b">
         <v>0</v>
       </c>
       <c r="HK2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="HL2">
         <v>0.05</v>
@@ -2766,36 +2715,18 @@
         <v>8.5</v>
       </c>
       <c r="HP2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="HQ2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="HR2" t="s">
         <v>303</v>
       </c>
       <c r="HS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HT2">
-        <v>1</v>
-      </c>
-      <c r="HU2">
-        <v>3000</v>
-      </c>
-      <c r="HV2">
-        <v>3000</v>
-      </c>
-      <c r="HW2">
-        <v>0.95</v>
-      </c>
-      <c r="HX2">
-        <v>0.1</v>
-      </c>
-      <c r="HY2" t="b">
-        <v>0</v>
-      </c>
-      <c r="HZ2" t="b">
         <v>0</v>
       </c>
       <c r="IA2" t="s">
@@ -2808,10 +2739,10 @@
         <v>1</v>
       </c>
       <c r="ID2">
-        <v>2800</v>
+        <v>9800</v>
       </c>
       <c r="IE2">
-        <v>5500</v>
+        <v>19500</v>
       </c>
       <c r="IF2">
         <v>0.95</v>
@@ -2823,43 +2754,43 @@
         <v>303</v>
       </c>
       <c r="II2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="IJ2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="IK2">
         <v>120</v>
       </c>
       <c r="IL2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="IM2">
         <v>120</v>
       </c>
       <c r="IN2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="IO2">
         <v>86400</v>
       </c>
       <c r="IP2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="IQ2">
         <v>120</v>
       </c>
       <c r="IR2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="IS2">
         <v>120</v>
       </c>
       <c r="IT2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="IU2">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IV2">
         <v>1</v>
@@ -2880,7 +2811,7 @@
         <v>1</v>
       </c>
       <c r="JB2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="JC2" t="s">
         <v>298</v>
@@ -2892,7 +2823,7 @@
         <v>298</v>
       </c>
       <c r="JF2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="JG2">
         <v>86400</v>
@@ -2912,10 +2843,10 @@
         <v>269</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -2924,7 +2855,7 @@
         <v>2.6</v>
       </c>
       <c r="J3">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -2936,7 +2867,7 @@
         <v>1</v>
       </c>
       <c r="N3">
-        <v>5527000</v>
+        <v>4402000</v>
       </c>
       <c r="O3" t="s">
         <v>279</v>
@@ -3065,7 +2996,7 @@
         <v>1</v>
       </c>
       <c r="BG3">
-        <v>5500000</v>
+        <v>19500000</v>
       </c>
       <c r="BH3" t="s">
         <v>291</v>
@@ -3380,7 +3311,7 @@
         <v>1</v>
       </c>
       <c r="FV3">
-        <v>2800</v>
+        <v>9800</v>
       </c>
       <c r="FW3" t="s">
         <v>304</v>
@@ -3449,19 +3380,19 @@
         <v>1</v>
       </c>
       <c r="GS3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="GT3">
+        <v>75000</v>
+      </c>
+      <c r="GU3">
+        <v>7200</v>
+      </c>
+      <c r="GV3">
+        <v>11000</v>
+      </c>
+      <c r="GW3">
         <v>100000</v>
-      </c>
-      <c r="GU3">
-        <v>11000</v>
-      </c>
-      <c r="GV3">
-        <v>22000</v>
-      </c>
-      <c r="GW3">
-        <v>200000</v>
       </c>
       <c r="GX3">
         <v>0.9</v>
@@ -3476,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="HK3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="HL3">
         <v>0.05</v>
@@ -3491,10 +3422,10 @@
         <v>8.5</v>
       </c>
       <c r="HP3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="HQ3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="HR3" t="s">
         <v>303</v>
@@ -3515,10 +3446,10 @@
         <v>1</v>
       </c>
       <c r="ID3">
-        <v>2800</v>
+        <v>9800</v>
       </c>
       <c r="IE3">
-        <v>5500</v>
+        <v>19500</v>
       </c>
       <c r="IF3">
         <v>0.95</v>
@@ -3530,43 +3461,43 @@
         <v>303</v>
       </c>
       <c r="II3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="IJ3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="IK3">
         <v>120</v>
       </c>
       <c r="IL3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="IM3">
         <v>120</v>
       </c>
       <c r="IN3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="IO3">
         <v>86400</v>
       </c>
       <c r="IP3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="IQ3">
         <v>120</v>
       </c>
       <c r="IR3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="IS3">
         <v>120</v>
       </c>
       <c r="IT3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="IU3">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IV3">
         <v>1</v>
@@ -3587,7 +3518,7 @@
         <v>1</v>
       </c>
       <c r="JB3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="JC3" t="s">
         <v>298</v>
@@ -3599,7 +3530,7 @@
         <v>298</v>
       </c>
       <c r="JF3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="JG3">
         <v>86400</v>
@@ -3619,10 +3550,10 @@
         <v>270</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -3631,7 +3562,7 @@
         <v>2.6</v>
       </c>
       <c r="J4">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -3643,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>2896000</v>
+        <v>4536000</v>
       </c>
       <c r="O4" t="s">
         <v>280</v>
@@ -3772,7 +3703,7 @@
         <v>1</v>
       </c>
       <c r="BG4">
-        <v>19500000</v>
+        <v>5500000</v>
       </c>
       <c r="BH4" t="s">
         <v>292</v>
@@ -3892,9 +3823,24 @@
         <v>3</v>
       </c>
       <c r="CX4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY4">
+        <v>1</v>
+      </c>
+      <c r="CZ4">
+        <v>7600</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>300</v>
+      </c>
+      <c r="DB4">
+        <v>0</v>
+      </c>
+      <c r="DC4">
+        <v>40</v>
+      </c>
+      <c r="DD4" t="b">
         <v>0</v>
       </c>
       <c r="DE4" t="s">
@@ -4087,7 +4033,7 @@
         <v>1</v>
       </c>
       <c r="FV4">
-        <v>9800</v>
+        <v>2800</v>
       </c>
       <c r="FW4" t="s">
         <v>304</v>
@@ -4150,40 +4096,13 @@
         <v>303</v>
       </c>
       <c r="GQ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>1</v>
-      </c>
-      <c r="GS4" t="s">
-        <v>308</v>
-      </c>
-      <c r="GT4">
-        <v>75000</v>
-      </c>
-      <c r="GU4">
-        <v>7200</v>
-      </c>
-      <c r="GV4">
-        <v>11000</v>
-      </c>
-      <c r="GW4">
-        <v>100000</v>
-      </c>
-      <c r="GX4">
-        <v>0.9</v>
-      </c>
-      <c r="GY4">
-        <v>0.8</v>
-      </c>
-      <c r="GZ4" t="b">
-        <v>0</v>
-      </c>
-      <c r="HA4" t="b">
         <v>0</v>
       </c>
       <c r="HK4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="HL4">
         <v>0.05</v>
@@ -4198,18 +4117,36 @@
         <v>8.5</v>
       </c>
       <c r="HP4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="HQ4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="HR4" t="s">
         <v>303</v>
       </c>
       <c r="HS4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HT4">
+        <v>1</v>
+      </c>
+      <c r="HU4">
+        <v>4500</v>
+      </c>
+      <c r="HV4">
+        <v>4500</v>
+      </c>
+      <c r="HW4">
+        <v>0.95</v>
+      </c>
+      <c r="HX4">
+        <v>0.1</v>
+      </c>
+      <c r="HY4" t="b">
+        <v>0</v>
+      </c>
+      <c r="HZ4" t="b">
         <v>0</v>
       </c>
       <c r="IA4" t="s">
@@ -4222,10 +4159,10 @@
         <v>1</v>
       </c>
       <c r="ID4">
-        <v>9800</v>
+        <v>2800</v>
       </c>
       <c r="IE4">
-        <v>19500</v>
+        <v>5500</v>
       </c>
       <c r="IF4">
         <v>0.95</v>
@@ -4237,40 +4174,40 @@
         <v>303</v>
       </c>
       <c r="II4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="IJ4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="IK4">
         <v>120</v>
       </c>
       <c r="IL4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="IM4">
         <v>120</v>
       </c>
       <c r="IN4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="IO4">
         <v>86400</v>
       </c>
       <c r="IP4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="IQ4">
         <v>120</v>
       </c>
       <c r="IR4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="IS4">
         <v>120</v>
       </c>
       <c r="IT4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="IU4">
         <v>57600</v>
@@ -4294,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="JB4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="JC4" t="s">
         <v>298</v>
@@ -4306,7 +4243,7 @@
         <v>298</v>
       </c>
       <c r="JF4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="JG4">
         <v>86400</v>
@@ -4326,10 +4263,10 @@
         <v>271</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -4338,7 +4275,7 @@
         <v>2.6</v>
       </c>
       <c r="J5">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -4350,10 +4287,10 @@
         <v>1</v>
       </c>
       <c r="N5">
-        <v>3863000</v>
+        <v>2532000</v>
       </c>
       <c r="O5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P5" t="s">
         <v>285</v>
@@ -4479,7 +4416,7 @@
         <v>1</v>
       </c>
       <c r="BG5">
-        <v>19500000</v>
+        <v>5500000</v>
       </c>
       <c r="BH5" t="s">
         <v>293</v>
@@ -4605,16 +4542,16 @@
         <v>1</v>
       </c>
       <c r="CZ5">
-        <v>5700</v>
+        <v>3800</v>
       </c>
       <c r="DA5" t="s">
         <v>300</v>
       </c>
       <c r="DB5">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="DC5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="DD5" t="b">
         <v>0</v>
@@ -4809,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="FV5">
-        <v>9800</v>
+        <v>2800</v>
       </c>
       <c r="FW5" t="s">
         <v>304</v>
@@ -4878,7 +4815,7 @@
         <v>0</v>
       </c>
       <c r="HK5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="HL5">
         <v>0.05</v>
@@ -4893,10 +4830,10 @@
         <v>8.5</v>
       </c>
       <c r="HP5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="HQ5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="HR5" t="s">
         <v>303</v>
@@ -4908,10 +4845,10 @@
         <v>1</v>
       </c>
       <c r="HU5">
-        <v>3900</v>
+        <v>2500</v>
       </c>
       <c r="HV5">
-        <v>3900</v>
+        <v>2500</v>
       </c>
       <c r="HW5">
         <v>0.95</v>
@@ -4935,10 +4872,10 @@
         <v>1</v>
       </c>
       <c r="ID5">
-        <v>9800</v>
+        <v>2800</v>
       </c>
       <c r="IE5">
-        <v>19500</v>
+        <v>5500</v>
       </c>
       <c r="IF5">
         <v>0.95</v>
@@ -4950,43 +4887,43 @@
         <v>303</v>
       </c>
       <c r="II5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="IJ5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="IK5">
         <v>120</v>
       </c>
       <c r="IL5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="IM5">
         <v>120</v>
       </c>
       <c r="IN5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="IO5">
         <v>86400</v>
       </c>
       <c r="IP5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="IQ5">
         <v>120</v>
       </c>
       <c r="IR5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="IS5">
         <v>120</v>
       </c>
       <c r="IT5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="IU5">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IV5">
         <v>1</v>
@@ -5007,7 +4944,7 @@
         <v>1</v>
       </c>
       <c r="JB5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="JC5" t="s">
         <v>298</v>
@@ -5019,7 +4956,7 @@
         <v>298</v>
       </c>
       <c r="JF5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="JG5">
         <v>86400</v>
@@ -5039,10 +4976,10 @@
         <v>272</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -5051,7 +4988,7 @@
         <v>2.6</v>
       </c>
       <c r="J6">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -5063,10 +5000,10 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>4536000</v>
+        <v>3125000</v>
       </c>
       <c r="O6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P6" t="s">
         <v>285</v>
@@ -5192,7 +5129,7 @@
         <v>1</v>
       </c>
       <c r="BG6">
-        <v>5500000</v>
+        <v>19500000</v>
       </c>
       <c r="BH6" t="s">
         <v>294</v>
@@ -5312,24 +5249,9 @@
         <v>3</v>
       </c>
       <c r="CX6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>1</v>
-      </c>
-      <c r="CZ6">
-        <v>7200</v>
-      </c>
-      <c r="DA6" t="s">
-        <v>300</v>
-      </c>
-      <c r="DB6">
-        <v>-20</v>
-      </c>
-      <c r="DC6">
-        <v>50</v>
-      </c>
-      <c r="DD6" t="b">
         <v>0</v>
       </c>
       <c r="DE6" t="s">
@@ -5522,7 +5444,7 @@
         <v>1</v>
       </c>
       <c r="FV6">
-        <v>2800</v>
+        <v>9800</v>
       </c>
       <c r="FW6" t="s">
         <v>304</v>
@@ -5588,22 +5510,22 @@
         <v>1</v>
       </c>
       <c r="GR6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GS6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="GT6">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="GU6">
         <v>7200</v>
       </c>
       <c r="GV6">
-        <v>11000</v>
+        <v>7200</v>
       </c>
       <c r="GW6">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="GX6">
         <v>0.9</v>
@@ -5617,8 +5539,35 @@
       <c r="HA6" t="b">
         <v>0</v>
       </c>
+      <c r="HB6" t="s">
+        <v>311</v>
+      </c>
+      <c r="HC6">
+        <v>100000</v>
+      </c>
+      <c r="HD6">
+        <v>11000</v>
+      </c>
+      <c r="HE6">
+        <v>22000</v>
+      </c>
+      <c r="HF6">
+        <v>200000</v>
+      </c>
+      <c r="HG6">
+        <v>0.9</v>
+      </c>
+      <c r="HH6">
+        <v>0.8</v>
+      </c>
+      <c r="HI6" t="b">
+        <v>0</v>
+      </c>
+      <c r="HJ6" t="b">
+        <v>0</v>
+      </c>
       <c r="HK6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="HL6">
         <v>0.05</v>
@@ -5633,36 +5582,18 @@
         <v>8.5</v>
       </c>
       <c r="HP6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="HQ6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="HR6" t="s">
         <v>303</v>
       </c>
       <c r="HS6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HT6">
-        <v>1</v>
-      </c>
-      <c r="HU6">
-        <v>4500</v>
-      </c>
-      <c r="HV6">
-        <v>4500</v>
-      </c>
-      <c r="HW6">
-        <v>0.95</v>
-      </c>
-      <c r="HX6">
-        <v>0.1</v>
-      </c>
-      <c r="HY6" t="b">
-        <v>0</v>
-      </c>
-      <c r="HZ6" t="b">
         <v>0</v>
       </c>
       <c r="IA6" t="s">
@@ -5675,10 +5606,10 @@
         <v>1</v>
       </c>
       <c r="ID6">
-        <v>2800</v>
+        <v>9800</v>
       </c>
       <c r="IE6">
-        <v>5500</v>
+        <v>19500</v>
       </c>
       <c r="IF6">
         <v>0.95</v>
@@ -5690,43 +5621,43 @@
         <v>303</v>
       </c>
       <c r="II6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="IJ6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="IK6">
         <v>120</v>
       </c>
       <c r="IL6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="IM6">
         <v>120</v>
       </c>
       <c r="IN6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="IO6">
         <v>86400</v>
       </c>
       <c r="IP6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="IQ6">
         <v>120</v>
       </c>
       <c r="IR6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="IS6">
         <v>120</v>
       </c>
       <c r="IT6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="IU6">
-        <v>72000</v>
+        <v>57600</v>
       </c>
       <c r="IV6">
         <v>1</v>
@@ -5747,7 +5678,7 @@
         <v>1</v>
       </c>
       <c r="JB6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="JC6" t="s">
         <v>298</v>
@@ -5759,7 +5690,7 @@
         <v>298</v>
       </c>
       <c r="JF6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="JG6">
         <v>86400</v>
@@ -5779,10 +5710,10 @@
         <v>273</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -5791,7 +5722,7 @@
         <v>2.6</v>
       </c>
       <c r="J7">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -5803,10 +5734,10 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>3863000</v>
+        <v>3564000</v>
       </c>
       <c r="O7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P7" t="s">
         <v>285</v>
@@ -5932,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="BG7">
-        <v>5500000</v>
+        <v>19500000</v>
       </c>
       <c r="BH7" t="s">
         <v>295</v>
@@ -6058,16 +5989,16 @@
         <v>1</v>
       </c>
       <c r="CZ7">
-        <v>4700</v>
+        <v>5200</v>
       </c>
       <c r="DA7" t="s">
         <v>300</v>
       </c>
       <c r="DB7">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="DC7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="DD7" t="b">
         <v>0</v>
@@ -6262,10 +6193,10 @@
         <v>1</v>
       </c>
       <c r="FV7">
-        <v>2800</v>
+        <v>9800</v>
       </c>
       <c r="FW7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="FX7" t="s">
         <v>298</v>
@@ -6325,13 +6256,40 @@
         <v>303</v>
       </c>
       <c r="GQ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GR7">
+        <v>1</v>
+      </c>
+      <c r="GS7" t="s">
+        <v>308</v>
+      </c>
+      <c r="GT7">
+        <v>50000</v>
+      </c>
+      <c r="GU7">
+        <v>7200</v>
+      </c>
+      <c r="GV7">
+        <v>7200</v>
+      </c>
+      <c r="GW7">
+        <v>50000</v>
+      </c>
+      <c r="GX7">
+        <v>0.9</v>
+      </c>
+      <c r="GY7">
+        <v>0.8</v>
+      </c>
+      <c r="GZ7" t="b">
+        <v>0</v>
+      </c>
+      <c r="HA7" t="b">
         <v>0</v>
       </c>
       <c r="HK7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="HL7">
         <v>0.05</v>
@@ -6346,10 +6304,10 @@
         <v>8.5</v>
       </c>
       <c r="HP7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="HQ7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="HR7" t="s">
         <v>303</v>
@@ -6361,10 +6319,10 @@
         <v>1</v>
       </c>
       <c r="HU7">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="HV7">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="HW7">
         <v>0.95</v>
@@ -6388,10 +6346,10 @@
         <v>1</v>
       </c>
       <c r="ID7">
-        <v>2800</v>
+        <v>9800</v>
       </c>
       <c r="IE7">
-        <v>5500</v>
+        <v>19500</v>
       </c>
       <c r="IF7">
         <v>0.95</v>
@@ -6403,40 +6361,40 @@
         <v>303</v>
       </c>
       <c r="II7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="IJ7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="IK7">
         <v>120</v>
       </c>
       <c r="IL7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="IM7">
         <v>120</v>
       </c>
       <c r="IN7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="IO7">
         <v>86400</v>
       </c>
       <c r="IP7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="IQ7">
         <v>120</v>
       </c>
       <c r="IR7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="IS7">
         <v>120</v>
       </c>
       <c r="IT7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="IU7">
         <v>72000</v>
@@ -6460,7 +6418,7 @@
         <v>1</v>
       </c>
       <c r="JB7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="JC7" t="s">
         <v>298</v>
@@ -6472,7 +6430,7 @@
         <v>298</v>
       </c>
       <c r="JF7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="JG7">
         <v>86400</v>
@@ -6516,10 +6474,10 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>3863000</v>
+        <v>5527000</v>
       </c>
       <c r="O8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P8" t="s">
         <v>285</v>
@@ -6648,10 +6606,10 @@
         <v>5500000</v>
       </c>
       <c r="BH8" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="BI8">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="BJ8" t="s">
         <v>298</v>
@@ -6963,7 +6921,7 @@
         <v>2800</v>
       </c>
       <c r="FW8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="FX8" t="s">
         <v>298</v>
@@ -7023,13 +6981,40 @@
         <v>303</v>
       </c>
       <c r="GQ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GR8">
+        <v>1</v>
+      </c>
+      <c r="GS8" t="s">
+        <v>309</v>
+      </c>
+      <c r="GT8">
+        <v>100000</v>
+      </c>
+      <c r="GU8">
+        <v>11000</v>
+      </c>
+      <c r="GV8">
+        <v>22000</v>
+      </c>
+      <c r="GW8">
+        <v>200000</v>
+      </c>
+      <c r="GX8">
+        <v>0.9</v>
+      </c>
+      <c r="GY8">
+        <v>0.8</v>
+      </c>
+      <c r="GZ8" t="b">
+        <v>0</v>
+      </c>
+      <c r="HA8" t="b">
         <v>0</v>
       </c>
       <c r="HK8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="HL8">
         <v>0.05</v>
@@ -7044,10 +7029,10 @@
         <v>8.5</v>
       </c>
       <c r="HP8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="HQ8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="HR8" t="s">
         <v>303</v>
@@ -7083,43 +7068,43 @@
         <v>303</v>
       </c>
       <c r="II8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="IJ8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="IK8">
         <v>120</v>
       </c>
       <c r="IL8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="IM8">
         <v>120</v>
       </c>
       <c r="IN8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="IO8">
         <v>86400</v>
       </c>
       <c r="IP8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="IQ8">
         <v>120</v>
       </c>
       <c r="IR8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="IS8">
         <v>120</v>
       </c>
       <c r="IT8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="IU8">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IV8">
         <v>1</v>
@@ -7140,7 +7125,7 @@
         <v>1</v>
       </c>
       <c r="JB8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="JC8" t="s">
         <v>298</v>
@@ -7152,7 +7137,7 @@
         <v>298</v>
       </c>
       <c r="JF8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="JG8">
         <v>86400</v>
@@ -7172,10 +7157,10 @@
         <v>275</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -7184,7 +7169,7 @@
         <v>2.6</v>
       </c>
       <c r="J9">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -7196,7 +7181,7 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <v>3564000</v>
+        <v>5527000</v>
       </c>
       <c r="O9" t="s">
         <v>283</v>
@@ -7325,7 +7310,7 @@
         <v>1</v>
       </c>
       <c r="BG9">
-        <v>19500000</v>
+        <v>5500000</v>
       </c>
       <c r="BH9" t="s">
         <v>296</v>
@@ -7451,7 +7436,7 @@
         <v>1</v>
       </c>
       <c r="CZ9">
-        <v>5600</v>
+        <v>8100</v>
       </c>
       <c r="DA9" t="s">
         <v>300</v>
@@ -7655,7 +7640,7 @@
         <v>1</v>
       </c>
       <c r="FV9">
-        <v>9800</v>
+        <v>2800</v>
       </c>
       <c r="FW9" t="s">
         <v>304</v>
@@ -7718,13 +7703,40 @@
         <v>303</v>
       </c>
       <c r="GQ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GR9">
+        <v>1</v>
+      </c>
+      <c r="GS9" t="s">
+        <v>310</v>
+      </c>
+      <c r="GT9">
+        <v>75000</v>
+      </c>
+      <c r="GU9">
+        <v>7200</v>
+      </c>
+      <c r="GV9">
+        <v>11000</v>
+      </c>
+      <c r="GW9">
+        <v>100000</v>
+      </c>
+      <c r="GX9">
+        <v>0.9</v>
+      </c>
+      <c r="GY9">
+        <v>0.8</v>
+      </c>
+      <c r="GZ9" t="b">
+        <v>0</v>
+      </c>
+      <c r="HA9" t="b">
         <v>0</v>
       </c>
       <c r="HK9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="HL9">
         <v>0.05</v>
@@ -7739,18 +7751,36 @@
         <v>8.5</v>
       </c>
       <c r="HP9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="HQ9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="HR9" t="s">
         <v>303</v>
       </c>
       <c r="HS9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HT9">
+        <v>1</v>
+      </c>
+      <c r="HU9">
+        <v>5500</v>
+      </c>
+      <c r="HV9">
+        <v>5500</v>
+      </c>
+      <c r="HW9">
+        <v>0.95</v>
+      </c>
+      <c r="HX9">
+        <v>0.1</v>
+      </c>
+      <c r="HY9" t="b">
+        <v>0</v>
+      </c>
+      <c r="HZ9" t="b">
         <v>0</v>
       </c>
       <c r="IA9" t="s">
@@ -7763,10 +7793,10 @@
         <v>1</v>
       </c>
       <c r="ID9">
-        <v>9800</v>
+        <v>2800</v>
       </c>
       <c r="IE9">
-        <v>19500</v>
+        <v>5500</v>
       </c>
       <c r="IF9">
         <v>0.95</v>
@@ -7778,43 +7808,43 @@
         <v>303</v>
       </c>
       <c r="II9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="IJ9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="IK9">
         <v>120</v>
       </c>
       <c r="IL9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="IM9">
         <v>120</v>
       </c>
       <c r="IN9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="IO9">
         <v>86400</v>
       </c>
       <c r="IP9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="IQ9">
         <v>120</v>
       </c>
       <c r="IR9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="IS9">
         <v>120</v>
       </c>
       <c r="IT9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="IU9">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IV9">
         <v>1</v>
@@ -7835,7 +7865,7 @@
         <v>1</v>
       </c>
       <c r="JB9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="JC9" t="s">
         <v>298</v>
@@ -7847,7 +7877,7 @@
         <v>298</v>
       </c>
       <c r="JF9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="JG9">
         <v>86400</v>
@@ -7891,10 +7921,10 @@
         <v>1</v>
       </c>
       <c r="N10">
-        <v>3125000</v>
+        <v>4402000</v>
       </c>
       <c r="O10" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="P10" t="s">
         <v>285</v>
@@ -8023,10 +8053,10 @@
         <v>19500000</v>
       </c>
       <c r="BH10" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="BI10">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="BJ10" t="s">
         <v>298</v>
@@ -8146,16 +8176,16 @@
         <v>1</v>
       </c>
       <c r="CZ10">
-        <v>4900</v>
+        <v>7400</v>
       </c>
       <c r="DA10" t="s">
         <v>300</v>
       </c>
       <c r="DB10">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="DC10">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="DD10" t="b">
         <v>0</v>
@@ -8353,7 +8383,7 @@
         <v>9800</v>
       </c>
       <c r="FW10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="FX10" t="s">
         <v>298</v>
@@ -8419,7 +8449,7 @@
         <v>0</v>
       </c>
       <c r="HK10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="HL10">
         <v>0.05</v>
@@ -8434,10 +8464,10 @@
         <v>8.5</v>
       </c>
       <c r="HP10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="HQ10" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="HR10" t="s">
         <v>303</v>
@@ -8449,10 +8479,10 @@
         <v>1</v>
       </c>
       <c r="HU10">
-        <v>3100</v>
+        <v>4400</v>
       </c>
       <c r="HV10">
-        <v>3100</v>
+        <v>4400</v>
       </c>
       <c r="HW10">
         <v>0.95</v>
@@ -8491,40 +8521,40 @@
         <v>303</v>
       </c>
       <c r="II10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="IJ10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="IK10">
         <v>120</v>
       </c>
       <c r="IL10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="IM10">
         <v>120</v>
       </c>
       <c r="IN10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="IO10">
         <v>86400</v>
       </c>
       <c r="IP10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="IQ10">
         <v>120</v>
       </c>
       <c r="IR10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="IS10">
         <v>120</v>
       </c>
       <c r="IT10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="IU10">
         <v>86400</v>
@@ -8548,7 +8578,7 @@
         <v>1</v>
       </c>
       <c r="JB10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="JC10" t="s">
         <v>298</v>
@@ -8560,7 +8590,7 @@
         <v>298</v>
       </c>
       <c r="JF10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="JG10">
         <v>86400</v>
@@ -8580,10 +8610,10 @@
         <v>277</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -8592,7 +8622,7 @@
         <v>2.6</v>
       </c>
       <c r="J11">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -8604,10 +8634,10 @@
         <v>1</v>
       </c>
       <c r="N11">
-        <v>5527000</v>
+        <v>3863000</v>
       </c>
       <c r="O11" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="P11" t="s">
         <v>285</v>
@@ -8733,10 +8763,10 @@
         <v>1</v>
       </c>
       <c r="BG11">
-        <v>19500000</v>
+        <v>5500000</v>
       </c>
       <c r="BH11" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BI11">
         <v>55</v>
@@ -8859,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="CZ11">
-        <v>7200</v>
+        <v>5600</v>
       </c>
       <c r="DA11" t="s">
         <v>300</v>
@@ -9063,10 +9093,10 @@
         <v>1</v>
       </c>
       <c r="FV11">
-        <v>9800</v>
+        <v>2800</v>
       </c>
       <c r="FW11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="FX11" t="s">
         <v>298</v>
@@ -9126,67 +9156,13 @@
         <v>303</v>
       </c>
       <c r="GQ11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GR11">
-        <v>2</v>
-      </c>
-      <c r="GS11" t="s">
-        <v>310</v>
-      </c>
-      <c r="GT11">
-        <v>50000</v>
-      </c>
-      <c r="GU11">
-        <v>7200</v>
-      </c>
-      <c r="GV11">
-        <v>7200</v>
-      </c>
-      <c r="GW11">
-        <v>50000</v>
-      </c>
-      <c r="GX11">
-        <v>0.9</v>
-      </c>
-      <c r="GY11">
-        <v>0.8</v>
-      </c>
-      <c r="GZ11" t="b">
-        <v>0</v>
-      </c>
-      <c r="HA11" t="b">
-        <v>0</v>
-      </c>
-      <c r="HB11" t="s">
-        <v>308</v>
-      </c>
-      <c r="HC11">
-        <v>75000</v>
-      </c>
-      <c r="HD11">
-        <v>7200</v>
-      </c>
-      <c r="HE11">
-        <v>11000</v>
-      </c>
-      <c r="HF11">
-        <v>100000</v>
-      </c>
-      <c r="HG11">
-        <v>0.9</v>
-      </c>
-      <c r="HH11">
-        <v>0.8</v>
-      </c>
-      <c r="HI11" t="b">
-        <v>0</v>
-      </c>
-      <c r="HJ11" t="b">
         <v>0</v>
       </c>
       <c r="HK11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="HL11">
         <v>0.05</v>
@@ -9201,10 +9177,10 @@
         <v>8.5</v>
       </c>
       <c r="HP11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="HQ11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="HR11" t="s">
         <v>303</v>
@@ -9216,10 +9192,10 @@
         <v>1</v>
       </c>
       <c r="HU11">
-        <v>5500</v>
+        <v>3900</v>
       </c>
       <c r="HV11">
-        <v>5500</v>
+        <v>3900</v>
       </c>
       <c r="HW11">
         <v>0.95</v>
@@ -9243,10 +9219,10 @@
         <v>1</v>
       </c>
       <c r="ID11">
-        <v>9800</v>
+        <v>2800</v>
       </c>
       <c r="IE11">
-        <v>19500</v>
+        <v>5500</v>
       </c>
       <c r="IF11">
         <v>0.95</v>
@@ -9258,43 +9234,43 @@
         <v>303</v>
       </c>
       <c r="II11" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="IJ11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="IK11">
         <v>120</v>
       </c>
       <c r="IL11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="IM11">
         <v>120</v>
       </c>
       <c r="IN11" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="IO11">
         <v>86400</v>
       </c>
       <c r="IP11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="IQ11">
         <v>120</v>
       </c>
       <c r="IR11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="IS11">
         <v>120</v>
       </c>
       <c r="IT11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="IU11">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IV11">
         <v>1</v>
@@ -9315,7 +9291,7 @@
         <v>1</v>
       </c>
       <c r="JB11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="JC11" t="s">
         <v>298</v>
@@ -9327,7 +9303,7 @@
         <v>298</v>
       </c>
       <c r="JF11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="JG11">
         <v>86400</v>
